--- a/Leaderboards/CurrentCMRITLeaderboard2025.xlsx
+++ b/Leaderboards/CurrentCMRITLeaderboard2025.xlsx
@@ -13405,7 +13405,7 @@
         <v>0.0</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>17</v>
@@ -13449,7 +13449,7 @@
         <v>0.0</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>23</v>
@@ -13537,7 +13537,7 @@
         <v>0.0</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>32</v>
@@ -13581,7 +13581,7 @@
         <v>0.0</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>37</v>
@@ -13669,7 +13669,7 @@
         <v>0.0</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>43</v>
@@ -13757,7 +13757,7 @@
         <v>0.0</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>50</v>
@@ -13845,7 +13845,7 @@
         <v>0.0</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>57</v>
@@ -13933,7 +13933,7 @@
         <v>0.0</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>64</v>
@@ -14021,7 +14021,7 @@
         <v>0.0</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>70</v>
@@ -14065,7 +14065,7 @@
         <v>0.0</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>76</v>
@@ -14153,7 +14153,7 @@
         <v>0.0</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>87</v>
@@ -14241,7 +14241,7 @@
         <v>0.0</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>92</v>
@@ -14285,7 +14285,7 @@
         <v>0.0</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>97</v>
@@ -14329,7 +14329,7 @@
         <v>0.0</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>101</v>
@@ -14373,7 +14373,7 @@
         <v>0.0</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>105</v>
@@ -14417,7 +14417,7 @@
         <v>0.0</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>110</v>
@@ -14461,7 +14461,7 @@
         <v>0.0</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>114</v>
@@ -14549,7 +14549,7 @@
         <v>0.0</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>120</v>
@@ -14637,7 +14637,7 @@
         <v>0.0</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>125</v>
@@ -14681,7 +14681,7 @@
         <v>0.0</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>127</v>
@@ -14725,7 +14725,7 @@
         <v>0.0</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>134</v>
@@ -14813,7 +14813,7 @@
         <v>0.0</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>145</v>
@@ -14857,7 +14857,7 @@
         <v>0.0</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>148</v>
@@ -14901,7 +14901,7 @@
         <v>0.0</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>152</v>
@@ -14945,7 +14945,7 @@
         <v>0.0</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>156</v>
@@ -14989,7 +14989,7 @@
         <v>0.0</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>159</v>
@@ -15033,7 +15033,7 @@
         <v>0.0</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>165</v>
@@ -15165,7 +15165,7 @@
         <v>0.0</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>180</v>
@@ -15209,7 +15209,7 @@
         <v>0.0</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>185</v>
@@ -15253,7 +15253,7 @@
         <v>0.0</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>189</v>
@@ -15297,7 +15297,7 @@
         <v>0.0</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>194</v>
@@ -15385,7 +15385,7 @@
         <v>0.0</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>202</v>
@@ -15429,7 +15429,7 @@
         <v>0.0</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>205</v>
@@ -15517,7 +15517,7 @@
         <v>0.0</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>211</v>
@@ -15561,7 +15561,7 @@
         <v>0.0</v>
       </c>
       <c r="G51" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>215</v>
@@ -15605,7 +15605,7 @@
         <v>0.0</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>219</v>
@@ -15649,7 +15649,7 @@
         <v>0.0</v>
       </c>
       <c r="G53" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>223</v>
@@ -15693,7 +15693,7 @@
         <v>0.0</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>229</v>
@@ -15737,7 +15737,7 @@
         <v>0.0</v>
       </c>
       <c r="G55" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>234</v>
@@ -15781,7 +15781,7 @@
         <v>0.0</v>
       </c>
       <c r="G56" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>238</v>
@@ -15869,7 +15869,7 @@
         <v>0.0</v>
       </c>
       <c r="G58" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>243</v>
@@ -15913,7 +15913,7 @@
         <v>0.0</v>
       </c>
       <c r="G59" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>248</v>
@@ -15957,7 +15957,7 @@
         <v>0.0</v>
       </c>
       <c r="G60" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>252</v>
@@ -16001,7 +16001,7 @@
         <v>0.0</v>
       </c>
       <c r="G61" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>28</v>
@@ -16045,7 +16045,7 @@
         <v>0.0</v>
       </c>
       <c r="G62" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>263</v>
@@ -16133,7 +16133,7 @@
         <v>0.0</v>
       </c>
       <c r="G64" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>273</v>
@@ -16177,7 +16177,7 @@
         <v>0.0</v>
       </c>
       <c r="G65" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>278</v>
@@ -16265,7 +16265,7 @@
         <v>0.0</v>
       </c>
       <c r="G67" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>284</v>
@@ -16397,7 +16397,7 @@
         <v>0.0</v>
       </c>
       <c r="G70" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>291</v>
@@ -16485,7 +16485,7 @@
         <v>0.0</v>
       </c>
       <c r="G72" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>301</v>
@@ -16529,7 +16529,7 @@
         <v>0.0</v>
       </c>
       <c r="G73" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>304</v>
@@ -16573,7 +16573,7 @@
         <v>0.0</v>
       </c>
       <c r="G74" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>311</v>
@@ -16617,7 +16617,7 @@
         <v>0.0</v>
       </c>
       <c r="G75" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>314</v>
@@ -16661,7 +16661,7 @@
         <v>0.0</v>
       </c>
       <c r="G76" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>320</v>
@@ -16705,7 +16705,7 @@
         <v>0.0</v>
       </c>
       <c r="G77" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>28</v>
@@ -16749,7 +16749,7 @@
         <v>0.0</v>
       </c>
       <c r="G78" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>328</v>
@@ -16793,7 +16793,7 @@
         <v>0.0</v>
       </c>
       <c r="G79" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>332</v>
@@ -16969,7 +16969,7 @@
         <v>0.0</v>
       </c>
       <c r="G83" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>346</v>
@@ -17101,7 +17101,7 @@
         <v>0.0</v>
       </c>
       <c r="G86" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>351</v>
@@ -17145,7 +17145,7 @@
         <v>0.0</v>
       </c>
       <c r="G87" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>357</v>
@@ -17189,7 +17189,7 @@
         <v>0.0</v>
       </c>
       <c r="G88" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>362</v>
@@ -17233,7 +17233,7 @@
         <v>0.0</v>
       </c>
       <c r="G89" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>367</v>
@@ -17277,7 +17277,7 @@
         <v>0.0</v>
       </c>
       <c r="G90" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>372</v>
@@ -17321,7 +17321,7 @@
         <v>0.0</v>
       </c>
       <c r="G91" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>378</v>
@@ -17409,7 +17409,7 @@
         <v>0.0</v>
       </c>
       <c r="G93" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>386</v>
@@ -17453,7 +17453,7 @@
         <v>0.0</v>
       </c>
       <c r="G94" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>391</v>
@@ -17541,7 +17541,7 @@
         <v>0.0</v>
       </c>
       <c r="G96" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>400</v>
@@ -17673,7 +17673,7 @@
         <v>0.0</v>
       </c>
       <c r="G99" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H99" s="2" t="s">
         <v>407</v>
@@ -17717,7 +17717,7 @@
         <v>0.0</v>
       </c>
       <c r="G100" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H100" s="2" t="s">
         <v>410</v>
@@ -17761,7 +17761,7 @@
         <v>0.0</v>
       </c>
       <c r="G101" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>416</v>
@@ -17805,7 +17805,7 @@
         <v>0.0</v>
       </c>
       <c r="G102" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H102" s="2" t="s">
         <v>421</v>
@@ -17893,7 +17893,7 @@
         <v>0.0</v>
       </c>
       <c r="G104" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H104" s="2" t="s">
         <v>430</v>
@@ -17937,7 +17937,7 @@
         <v>0.0</v>
       </c>
       <c r="G105" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H105" s="2" t="s">
         <v>435</v>
@@ -18025,7 +18025,7 @@
         <v>0.0</v>
       </c>
       <c r="G107" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H107" s="2" t="s">
         <v>441</v>
@@ -18069,7 +18069,7 @@
         <v>0.0</v>
       </c>
       <c r="G108" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H108" s="2" t="s">
         <v>446</v>
@@ -18113,7 +18113,7 @@
         <v>0.0</v>
       </c>
       <c r="G109" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H109" s="2" t="s">
         <v>451</v>
@@ -18157,7 +18157,7 @@
         <v>0.0</v>
       </c>
       <c r="G110" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H110" s="2" t="s">
         <v>456</v>
@@ -18245,7 +18245,7 @@
         <v>0.0</v>
       </c>
       <c r="G112" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H112" s="2" t="s">
         <v>462</v>
@@ -18333,7 +18333,7 @@
         <v>0.0</v>
       </c>
       <c r="G114" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>472</v>
@@ -18377,7 +18377,7 @@
         <v>0.0</v>
       </c>
       <c r="G115" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H115" s="2" t="s">
         <v>478</v>
@@ -18465,7 +18465,7 @@
         <v>0.0</v>
       </c>
       <c r="G117" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H117" s="2" t="s">
         <v>486</v>
@@ -18509,7 +18509,7 @@
         <v>0.0</v>
       </c>
       <c r="G118" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H118" s="2" t="s">
         <v>489</v>
@@ -18641,7 +18641,7 @@
         <v>0.0</v>
       </c>
       <c r="G121" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H121" s="2" t="s">
         <v>494</v>
@@ -18685,7 +18685,7 @@
         <v>0.0</v>
       </c>
       <c r="G122" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H122" s="2" t="s">
         <v>499</v>
@@ -18729,7 +18729,7 @@
         <v>0.0</v>
       </c>
       <c r="G123" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H123" s="2" t="s">
         <v>503</v>
@@ -18817,7 +18817,7 @@
         <v>0.0</v>
       </c>
       <c r="G125" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>510</v>
@@ -18861,7 +18861,7 @@
         <v>0.0</v>
       </c>
       <c r="G126" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H126" s="2" t="s">
         <v>515</v>
@@ -18905,7 +18905,7 @@
         <v>0.0</v>
       </c>
       <c r="G127" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H127" s="2" t="s">
         <v>519</v>
@@ -18949,7 +18949,7 @@
         <v>0.0</v>
       </c>
       <c r="G128" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H128" s="2" t="s">
         <v>524</v>
@@ -18993,7 +18993,7 @@
         <v>0.0</v>
       </c>
       <c r="G129" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H129" s="2" t="s">
         <v>527</v>
@@ -19037,7 +19037,7 @@
         <v>0.0</v>
       </c>
       <c r="G130" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H130" s="2" t="s">
         <v>530</v>
@@ -19081,7 +19081,7 @@
         <v>0.0</v>
       </c>
       <c r="G131" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H131" s="2" t="s">
         <v>535</v>
@@ -19125,7 +19125,7 @@
         <v>0.0</v>
       </c>
       <c r="G132" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H132" s="2" t="s">
         <v>541</v>
@@ -19169,7 +19169,7 @@
         <v>0.0</v>
       </c>
       <c r="G133" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H133" s="2" t="s">
         <v>544</v>
@@ -19257,7 +19257,7 @@
         <v>0.0</v>
       </c>
       <c r="G135" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H135" s="2" t="s">
         <v>551</v>
@@ -19301,7 +19301,7 @@
         <v>0.0</v>
       </c>
       <c r="G136" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>557</v>
@@ -19345,7 +19345,7 @@
         <v>0.0</v>
       </c>
       <c r="G137" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H137" s="2" t="s">
         <v>563</v>
@@ -19389,7 +19389,7 @@
         <v>0.0</v>
       </c>
       <c r="G138" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H138" s="2" t="s">
         <v>567</v>
@@ -19609,7 +19609,7 @@
         <v>0.0</v>
       </c>
       <c r="G143" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H143" s="2" t="s">
         <v>579</v>
@@ -19653,7 +19653,7 @@
         <v>0.0</v>
       </c>
       <c r="G144" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H144" s="2" t="s">
         <v>584</v>
@@ -19829,7 +19829,7 @@
         <v>0.0</v>
       </c>
       <c r="G148" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H148" s="2" t="s">
         <v>593</v>
@@ -19873,7 +19873,7 @@
         <v>0.0</v>
       </c>
       <c r="G149" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H149" s="2" t="s">
         <v>596</v>
@@ -19917,7 +19917,7 @@
         <v>0.0</v>
       </c>
       <c r="G150" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H150" s="2" t="s">
         <v>599</v>
@@ -19961,7 +19961,7 @@
         <v>0.0</v>
       </c>
       <c r="G151" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H151" s="2" t="s">
         <v>604</v>
@@ -20005,7 +20005,7 @@
         <v>0.0</v>
       </c>
       <c r="G152" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H152" s="2" t="s">
         <v>607</v>
@@ -20049,7 +20049,7 @@
         <v>0.0</v>
       </c>
       <c r="G153" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H153" s="2" t="s">
         <v>613</v>
@@ -20093,7 +20093,7 @@
         <v>0.0</v>
       </c>
       <c r="G154" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H154" s="2" t="s">
         <v>618</v>
@@ -20137,7 +20137,7 @@
         <v>0.0</v>
       </c>
       <c r="G155" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H155" s="2" t="s">
         <v>624</v>
@@ -20181,7 +20181,7 @@
         <v>0.0</v>
       </c>
       <c r="G156" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H156" s="2" t="s">
         <v>627</v>
@@ -20225,7 +20225,7 @@
         <v>0.0</v>
       </c>
       <c r="G157" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H157" s="2" t="s">
         <v>632</v>
@@ -20269,7 +20269,7 @@
         <v>0.0</v>
       </c>
       <c r="G158" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H158" s="2" t="s">
         <v>638</v>
@@ -20313,7 +20313,7 @@
         <v>0.0</v>
       </c>
       <c r="G159" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H159" s="2" t="s">
         <v>643</v>
@@ -20401,7 +20401,7 @@
         <v>0.0</v>
       </c>
       <c r="G161" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H161" s="2" t="s">
         <v>650</v>
@@ -20621,7 +20621,7 @@
         <v>0.0</v>
       </c>
       <c r="G166" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H166" s="2" t="s">
         <v>671</v>
@@ -20665,7 +20665,7 @@
         <v>0.0</v>
       </c>
       <c r="G167" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H167" s="2" t="s">
         <v>676</v>
@@ -20709,7 +20709,7 @@
         <v>0.0</v>
       </c>
       <c r="G168" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H168" s="2" t="s">
         <v>680</v>
@@ -20797,7 +20797,7 @@
         <v>0.0</v>
       </c>
       <c r="G170" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H170" s="2" t="s">
         <v>690</v>
@@ -20841,7 +20841,7 @@
         <v>0.0</v>
       </c>
       <c r="G171" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H171" s="2" t="s">
         <v>694</v>
@@ -20885,7 +20885,7 @@
         <v>0.0</v>
       </c>
       <c r="G172" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H172" s="2" t="s">
         <v>700</v>
@@ -20929,7 +20929,7 @@
         <v>0.0</v>
       </c>
       <c r="G173" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H173" s="2" t="s">
         <v>705</v>
@@ -20973,7 +20973,7 @@
         <v>0.0</v>
       </c>
       <c r="G174" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H174" s="2" t="s">
         <v>709</v>
@@ -21061,7 +21061,7 @@
         <v>0.0</v>
       </c>
       <c r="G176" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H176" s="2" t="s">
         <v>718</v>
@@ -21105,7 +21105,7 @@
         <v>0.0</v>
       </c>
       <c r="G177" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H177" s="2" t="s">
         <v>723</v>
@@ -21149,7 +21149,7 @@
         <v>0.0</v>
       </c>
       <c r="G178" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H178" s="2" t="s">
         <v>729</v>
@@ -21193,7 +21193,7 @@
         <v>0.0</v>
       </c>
       <c r="G179" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H179" s="2" t="s">
         <v>735</v>
@@ -21237,7 +21237,7 @@
         <v>0.0</v>
       </c>
       <c r="G180" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H180" s="2" t="s">
         <v>738</v>
@@ -21325,7 +21325,7 @@
         <v>0.0</v>
       </c>
       <c r="G182" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H182" s="2" t="s">
         <v>750</v>
@@ -21369,7 +21369,7 @@
         <v>0.0</v>
       </c>
       <c r="G183" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H183" s="2" t="s">
         <v>755</v>
@@ -21413,7 +21413,7 @@
         <v>0.0</v>
       </c>
       <c r="G184" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H184" s="2" t="s">
         <v>28</v>
@@ -21457,7 +21457,7 @@
         <v>0.0</v>
       </c>
       <c r="G185" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H185" s="2" t="s">
         <v>762</v>
@@ -21501,7 +21501,7 @@
         <v>0.0</v>
       </c>
       <c r="G186" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H186" s="2" t="s">
         <v>766</v>
@@ -21545,7 +21545,7 @@
         <v>0.0</v>
       </c>
       <c r="G187" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H187" s="2" t="s">
         <v>770</v>
@@ -21633,7 +21633,7 @@
         <v>0.0</v>
       </c>
       <c r="G189" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H189" s="2" t="s">
         <v>779</v>
@@ -21721,7 +21721,7 @@
         <v>0.0</v>
       </c>
       <c r="G191" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H191" s="2" t="s">
         <v>786</v>
@@ -21853,7 +21853,7 @@
         <v>0.0</v>
       </c>
       <c r="G194" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H194" s="2" t="s">
         <v>799</v>
@@ -21897,7 +21897,7 @@
         <v>0.0</v>
       </c>
       <c r="G195" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H195" s="2" t="s">
         <v>28</v>
@@ -21941,7 +21941,7 @@
         <v>0.0</v>
       </c>
       <c r="G196" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H196" s="2" t="s">
         <v>806</v>
@@ -21985,7 +21985,7 @@
         <v>0.0</v>
       </c>
       <c r="G197" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H197" s="2" t="s">
         <v>28</v>
@@ -22117,7 +22117,7 @@
         <v>0.0</v>
       </c>
       <c r="G200" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H200" s="2" t="s">
         <v>821</v>
@@ -22205,7 +22205,7 @@
         <v>0.0</v>
       </c>
       <c r="G202" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H202" s="2" t="s">
         <v>828</v>
@@ -22293,7 +22293,7 @@
         <v>0.0</v>
       </c>
       <c r="G204" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H204" s="2" t="s">
         <v>834</v>
@@ -22381,7 +22381,7 @@
         <v>0.0</v>
       </c>
       <c r="G206" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H206" s="2" t="s">
         <v>844</v>
@@ -22425,7 +22425,7 @@
         <v>0.0</v>
       </c>
       <c r="G207" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H207" s="2" t="s">
         <v>28</v>
@@ -22513,7 +22513,7 @@
         <v>0.0</v>
       </c>
       <c r="G209" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H209" s="2" t="s">
         <v>857</v>
@@ -22557,7 +22557,7 @@
         <v>0.0</v>
       </c>
       <c r="G210" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H210" s="2" t="s">
         <v>861</v>
@@ -22601,7 +22601,7 @@
         <v>0.0</v>
       </c>
       <c r="G211" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H211" s="2" t="s">
         <v>864</v>
@@ -22645,7 +22645,7 @@
         <v>0.0</v>
       </c>
       <c r="G212" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H212" s="2" t="s">
         <v>866</v>
@@ -22733,7 +22733,7 @@
         <v>0.0</v>
       </c>
       <c r="G214" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H214" s="2" t="s">
         <v>872</v>
@@ -22909,7 +22909,7 @@
         <v>0.0</v>
       </c>
       <c r="G218" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H218" s="2" t="s">
         <v>885</v>
@@ -22953,7 +22953,7 @@
         <v>0.0</v>
       </c>
       <c r="G219" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H219" s="2" t="s">
         <v>889</v>
@@ -23085,7 +23085,7 @@
         <v>0.0</v>
       </c>
       <c r="G222" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H222" s="2" t="s">
         <v>896</v>
@@ -23261,7 +23261,7 @@
         <v>0.0</v>
       </c>
       <c r="G226" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H226" s="2" t="s">
         <v>907</v>
@@ -23305,7 +23305,7 @@
         <v>0.0</v>
       </c>
       <c r="G227" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H227" s="2" t="s">
         <v>911</v>
@@ -23393,7 +23393,7 @@
         <v>0.0</v>
       </c>
       <c r="G229" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H229" s="2" t="s">
         <v>916</v>
@@ -23437,7 +23437,7 @@
         <v>0.0</v>
       </c>
       <c r="G230" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H230" s="2" t="s">
         <v>921</v>
@@ -23481,7 +23481,7 @@
         <v>0.0</v>
       </c>
       <c r="G231" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H231" s="2" t="s">
         <v>925</v>
@@ -23525,7 +23525,7 @@
         <v>0.0</v>
       </c>
       <c r="G232" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H232" s="2" t="s">
         <v>930</v>
@@ -23569,7 +23569,7 @@
         <v>0.0</v>
       </c>
       <c r="G233" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H233" s="2" t="s">
         <v>935</v>
@@ -23613,7 +23613,7 @@
         <v>0.0</v>
       </c>
       <c r="G234" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H234" s="2" t="s">
         <v>940</v>
@@ -23701,7 +23701,7 @@
         <v>0.0</v>
       </c>
       <c r="G236" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H236" s="2" t="s">
         <v>949</v>
@@ -23745,7 +23745,7 @@
         <v>0.0</v>
       </c>
       <c r="G237" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H237" s="2" t="s">
         <v>954</v>
@@ -23789,7 +23789,7 @@
         <v>0.0</v>
       </c>
       <c r="G238" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H238" s="2" t="s">
         <v>960</v>
@@ -23833,7 +23833,7 @@
         <v>0.0</v>
       </c>
       <c r="G239" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H239" s="2" t="s">
         <v>964</v>
@@ -23921,7 +23921,7 @@
         <v>0.0</v>
       </c>
       <c r="G241" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H241" s="2" t="s">
         <v>974</v>
@@ -24053,7 +24053,7 @@
         <v>0.0</v>
       </c>
       <c r="G244" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H244" s="2" t="s">
         <v>981</v>
@@ -24097,7 +24097,7 @@
         <v>0.0</v>
       </c>
       <c r="G245" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H245" s="2" t="s">
         <v>985</v>
@@ -24141,7 +24141,7 @@
         <v>0.0</v>
       </c>
       <c r="G246" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H246" s="2" t="s">
         <v>988</v>
@@ -24185,7 +24185,7 @@
         <v>0.0</v>
       </c>
       <c r="G247" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H247" s="2" t="s">
         <v>994</v>
@@ -24229,7 +24229,7 @@
         <v>0.0</v>
       </c>
       <c r="G248" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H248" s="2" t="s">
         <v>999</v>
@@ -24361,7 +24361,7 @@
         <v>0.0</v>
       </c>
       <c r="G251" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H251" s="2" t="s">
         <v>1007</v>
@@ -24449,7 +24449,7 @@
         <v>0.0</v>
       </c>
       <c r="G253" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H253" s="2" t="s">
         <v>1012</v>
@@ -24493,7 +24493,7 @@
         <v>0.0</v>
       </c>
       <c r="G254" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H254" s="2" t="s">
         <v>1018</v>
@@ -24537,7 +24537,7 @@
         <v>0.0</v>
       </c>
       <c r="G255" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H255" s="2" t="s">
         <v>1022</v>
@@ -24625,7 +24625,7 @@
         <v>0.0</v>
       </c>
       <c r="G257" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H257" s="2" t="s">
         <v>1029</v>
@@ -24801,7 +24801,7 @@
         <v>0.0</v>
       </c>
       <c r="G261" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H261" s="2" t="s">
         <v>1040</v>
@@ -24889,7 +24889,7 @@
         <v>0.0</v>
       </c>
       <c r="G263" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H263" s="2" t="s">
         <v>1048</v>
@@ -24977,7 +24977,7 @@
         <v>0.0</v>
       </c>
       <c r="G265" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H265" s="2" t="s">
         <v>1053</v>
@@ -25197,7 +25197,7 @@
         <v>0.0</v>
       </c>
       <c r="G270" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H270" s="2" t="s">
         <v>1061</v>
@@ -25241,7 +25241,7 @@
         <v>0.0</v>
       </c>
       <c r="G271" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H271" s="2" t="s">
         <v>1066</v>
@@ -25285,7 +25285,7 @@
         <v>0.0</v>
       </c>
       <c r="G272" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H272" s="2" t="s">
         <v>1070</v>
@@ -25329,7 +25329,7 @@
         <v>0.0</v>
       </c>
       <c r="G273" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H273" s="2" t="s">
         <v>1074</v>
@@ -25373,7 +25373,7 @@
         <v>0.0</v>
       </c>
       <c r="G274" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H274" s="2" t="s">
         <v>1079</v>
@@ -25417,7 +25417,7 @@
         <v>0.0</v>
       </c>
       <c r="G275" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H275" s="2" t="s">
         <v>1085</v>
@@ -25461,7 +25461,7 @@
         <v>0.0</v>
       </c>
       <c r="G276" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H276" s="2" t="s">
         <v>1090</v>
@@ -25505,7 +25505,7 @@
         <v>0.0</v>
       </c>
       <c r="G277" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H277" s="2" t="s">
         <v>1096</v>
@@ -25549,7 +25549,7 @@
         <v>0.0</v>
       </c>
       <c r="G278" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H278" s="2" t="s">
         <v>1102</v>
@@ -25681,7 +25681,7 @@
         <v>0.0</v>
       </c>
       <c r="G281" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H281" s="2" t="s">
         <v>1116</v>
@@ -25813,7 +25813,7 @@
         <v>0.0</v>
       </c>
       <c r="G284" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H284" s="2" t="s">
         <v>1124</v>
@@ -25857,7 +25857,7 @@
         <v>0.0</v>
       </c>
       <c r="G285" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H285" s="2" t="s">
         <v>1129</v>
@@ -25901,7 +25901,7 @@
         <v>0.0</v>
       </c>
       <c r="G286" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H286" s="2" t="s">
         <v>1134</v>
@@ -25945,7 +25945,7 @@
         <v>0.0</v>
       </c>
       <c r="G287" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H287" s="2" t="s">
         <v>1140</v>
@@ -26033,7 +26033,7 @@
         <v>0.0</v>
       </c>
       <c r="G289" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H289" s="2" t="s">
         <v>1147</v>
@@ -26121,7 +26121,7 @@
         <v>0.0</v>
       </c>
       <c r="G291" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H291" s="2" t="s">
         <v>1156</v>
@@ -26165,7 +26165,7 @@
         <v>0.0</v>
       </c>
       <c r="G292" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H292" s="2" t="s">
         <v>1161</v>
@@ -26209,7 +26209,7 @@
         <v>0.0</v>
       </c>
       <c r="G293" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H293" s="2" t="s">
         <v>1166</v>
@@ -26253,7 +26253,7 @@
         <v>0.0</v>
       </c>
       <c r="G294" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H294" s="2" t="s">
         <v>1171</v>
@@ -26297,7 +26297,7 @@
         <v>0.0</v>
       </c>
       <c r="G295" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H295" s="2" t="s">
         <v>1175</v>
@@ -26341,7 +26341,7 @@
         <v>0.0</v>
       </c>
       <c r="G296" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H296" s="2" t="s">
         <v>1180</v>
@@ -26385,7 +26385,7 @@
         <v>0.0</v>
       </c>
       <c r="G297" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H297" s="2" t="s">
         <v>1183</v>
@@ -26429,7 +26429,7 @@
         <v>0.0</v>
       </c>
       <c r="G298" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H298" s="2" t="s">
         <v>1187</v>
@@ -26473,7 +26473,7 @@
         <v>0.0</v>
       </c>
       <c r="G299" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H299" s="2" t="s">
         <v>1191</v>
@@ -26517,7 +26517,7 @@
         <v>0.0</v>
       </c>
       <c r="G300" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H300" s="2" t="s">
         <v>1196</v>
@@ -26561,7 +26561,7 @@
         <v>0.0</v>
       </c>
       <c r="G301" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H301" s="2" t="s">
         <v>1201</v>
@@ -26737,7 +26737,7 @@
         <v>0.0</v>
       </c>
       <c r="G305" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H305" s="2" t="s">
         <v>1213</v>
@@ -26781,7 +26781,7 @@
         <v>0.0</v>
       </c>
       <c r="G306" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H306" s="2" t="s">
         <v>1219</v>
@@ -26825,7 +26825,7 @@
         <v>0.0</v>
       </c>
       <c r="G307" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H307" s="2" t="s">
         <v>1223</v>
@@ -26869,7 +26869,7 @@
         <v>0.0</v>
       </c>
       <c r="G308" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H308" s="2" t="s">
         <v>1226</v>
@@ -26913,7 +26913,7 @@
         <v>0.0</v>
       </c>
       <c r="G309" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H309" s="2" t="s">
         <v>1232</v>
@@ -26957,7 +26957,7 @@
         <v>0.0</v>
       </c>
       <c r="G310" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H310" s="2" t="s">
         <v>1236</v>
@@ -27001,7 +27001,7 @@
         <v>0.0</v>
       </c>
       <c r="G311" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H311" s="2" t="s">
         <v>1239</v>
@@ -27045,7 +27045,7 @@
         <v>0.0</v>
       </c>
       <c r="G312" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H312" s="2" t="s">
         <v>28</v>
@@ -27089,7 +27089,7 @@
         <v>0.0</v>
       </c>
       <c r="G313" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H313" s="2" t="s">
         <v>1246</v>
@@ -27133,7 +27133,7 @@
         <v>0.0</v>
       </c>
       <c r="G314" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H314" s="2" t="s">
         <v>1250</v>
@@ -27221,7 +27221,7 @@
         <v>0.0</v>
       </c>
       <c r="G316" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H316" s="2" t="s">
         <v>1257</v>
@@ -27265,7 +27265,7 @@
         <v>0.0</v>
       </c>
       <c r="G317" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H317" s="2" t="s">
         <v>1262</v>
@@ -27309,7 +27309,7 @@
         <v>0.0</v>
       </c>
       <c r="G318" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H318" s="2" t="s">
         <v>1268</v>
@@ -27353,7 +27353,7 @@
         <v>0.0</v>
       </c>
       <c r="G319" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H319" s="2" t="s">
         <v>1273</v>
@@ -27397,7 +27397,7 @@
         <v>0.0</v>
       </c>
       <c r="G320" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H320" s="2" t="s">
         <v>1278</v>
@@ -27441,7 +27441,7 @@
         <v>0.0</v>
       </c>
       <c r="G321" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H321" s="2" t="s">
         <v>1283</v>
@@ -27617,7 +27617,7 @@
         <v>0.0</v>
       </c>
       <c r="G325" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H325" s="2" t="s">
         <v>1297</v>
@@ -27749,7 +27749,7 @@
         <v>0.0</v>
       </c>
       <c r="G328" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H328" s="2" t="s">
         <v>1304</v>
@@ -27793,7 +27793,7 @@
         <v>0.0</v>
       </c>
       <c r="G329" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H329" s="2" t="s">
         <v>1307</v>
@@ -27837,7 +27837,7 @@
         <v>0.0</v>
       </c>
       <c r="G330" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H330" s="2" t="s">
         <v>1311</v>
@@ -27881,7 +27881,7 @@
         <v>0.0</v>
       </c>
       <c r="G331" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H331" s="2" t="s">
         <v>1316</v>
@@ -27969,7 +27969,7 @@
         <v>0.0</v>
       </c>
       <c r="G333" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H333" s="2" t="s">
         <v>1321</v>
@@ -28013,7 +28013,7 @@
         <v>0.0</v>
       </c>
       <c r="G334" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H334" s="2" t="s">
         <v>1327</v>
@@ -28057,7 +28057,7 @@
         <v>0.0</v>
       </c>
       <c r="G335" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H335" s="2" t="s">
         <v>1331</v>
@@ -28101,7 +28101,7 @@
         <v>0.0</v>
       </c>
       <c r="G336" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H336" s="2" t="s">
         <v>1336</v>
@@ -28145,7 +28145,7 @@
         <v>0.0</v>
       </c>
       <c r="G337" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H337" s="2" t="s">
         <v>1341</v>
@@ -28189,7 +28189,7 @@
         <v>0.0</v>
       </c>
       <c r="G338" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H338" s="2" t="s">
         <v>1345</v>
@@ -28233,7 +28233,7 @@
         <v>0.0</v>
       </c>
       <c r="G339" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H339" s="2" t="s">
         <v>1349</v>
@@ -28277,7 +28277,7 @@
         <v>0.0</v>
       </c>
       <c r="G340" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H340" s="2" t="s">
         <v>1352</v>
@@ -28365,7 +28365,7 @@
         <v>0.0</v>
       </c>
       <c r="G342" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H342" s="2" t="s">
         <v>1357</v>
@@ -28409,7 +28409,7 @@
         <v>0.0</v>
       </c>
       <c r="G343" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H343" s="2" t="s">
         <v>1362</v>
@@ -28453,7 +28453,7 @@
         <v>0.0</v>
       </c>
       <c r="G344" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H344" s="2" t="s">
         <v>1368</v>
@@ -28497,7 +28497,7 @@
         <v>0.0</v>
       </c>
       <c r="G345" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H345" s="2" t="s">
         <v>1374</v>
@@ -28541,7 +28541,7 @@
         <v>0.0</v>
       </c>
       <c r="G346" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H346" s="2" t="s">
         <v>1377</v>
@@ -28585,7 +28585,7 @@
         <v>0.0</v>
       </c>
       <c r="G347" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H347" s="2" t="s">
         <v>28</v>
@@ -28673,7 +28673,7 @@
         <v>0.0</v>
       </c>
       <c r="G349" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H349" s="2" t="s">
         <v>1388</v>
@@ -28717,7 +28717,7 @@
         <v>0.0</v>
       </c>
       <c r="G350" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H350" s="2" t="s">
         <v>1393</v>
@@ -28761,7 +28761,7 @@
         <v>0.0</v>
       </c>
       <c r="G351" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H351" s="2" t="s">
         <v>1396</v>
@@ -28805,7 +28805,7 @@
         <v>0.0</v>
       </c>
       <c r="G352" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H352" s="2" t="s">
         <v>1402</v>
@@ -28893,7 +28893,7 @@
         <v>0.0</v>
       </c>
       <c r="G354" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H354" s="2" t="s">
         <v>1408</v>
@@ -28937,7 +28937,7 @@
         <v>0.0</v>
       </c>
       <c r="G355" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H355" s="2" t="s">
         <v>1413</v>
@@ -29025,7 +29025,7 @@
         <v>0.0</v>
       </c>
       <c r="G357" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H357" s="2" t="s">
         <v>1419</v>
@@ -29069,7 +29069,7 @@
         <v>0.0</v>
       </c>
       <c r="G358" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H358" s="2" t="s">
         <v>1424</v>
@@ -29113,7 +29113,7 @@
         <v>0.0</v>
       </c>
       <c r="G359" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H359" s="2" t="s">
         <v>1428</v>
@@ -29157,7 +29157,7 @@
         <v>0.0</v>
       </c>
       <c r="G360" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H360" s="2" t="s">
         <v>1431</v>
@@ -29201,7 +29201,7 @@
         <v>0.0</v>
       </c>
       <c r="G361" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H361" s="2" t="s">
         <v>1435</v>
@@ -29245,7 +29245,7 @@
         <v>0.0</v>
       </c>
       <c r="G362" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H362" s="2" t="s">
         <v>1438</v>
@@ -29289,7 +29289,7 @@
         <v>0.0</v>
       </c>
       <c r="G363" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H363" s="2" t="s">
         <v>1444</v>
@@ -29333,7 +29333,7 @@
         <v>0.0</v>
       </c>
       <c r="G364" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H364" s="2" t="s">
         <v>1448</v>
@@ -29465,7 +29465,7 @@
         <v>0.0</v>
       </c>
       <c r="G367" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H367" s="2" t="s">
         <v>1456</v>
@@ -29509,7 +29509,7 @@
         <v>0.0</v>
       </c>
       <c r="G368" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H368" s="2" t="s">
         <v>1462</v>
@@ -29553,7 +29553,7 @@
         <v>0.0</v>
       </c>
       <c r="G369" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H369" s="2" t="s">
         <v>1466</v>
@@ -29641,7 +29641,7 @@
         <v>0.0</v>
       </c>
       <c r="G371" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H371" s="2" t="s">
         <v>1473</v>
@@ -29685,7 +29685,7 @@
         <v>0.0</v>
       </c>
       <c r="G372" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H372" s="2" t="s">
         <v>1477</v>
@@ -29729,7 +29729,7 @@
         <v>0.0</v>
       </c>
       <c r="G373" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H373" s="2" t="s">
         <v>1483</v>
@@ -29773,7 +29773,7 @@
         <v>0.0</v>
       </c>
       <c r="G374" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H374" s="2" t="s">
         <v>1488</v>
@@ -29817,7 +29817,7 @@
         <v>0.0</v>
       </c>
       <c r="G375" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H375" s="2" t="s">
         <v>1494</v>
@@ -29905,7 +29905,7 @@
         <v>0.0</v>
       </c>
       <c r="G377" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H377" s="2" t="s">
         <v>1506</v>
@@ -29949,7 +29949,7 @@
         <v>0.0</v>
       </c>
       <c r="G378" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H378" s="2" t="s">
         <v>1509</v>
@@ -29993,7 +29993,7 @@
         <v>0.0</v>
       </c>
       <c r="G379" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H379" s="2" t="s">
         <v>1514</v>
@@ -30037,7 +30037,7 @@
         <v>0.0</v>
       </c>
       <c r="G380" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H380" s="2" t="s">
         <v>1519</v>
@@ -30081,7 +30081,7 @@
         <v>0.0</v>
       </c>
       <c r="G381" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H381" s="2" t="s">
         <v>1525</v>
@@ -30125,7 +30125,7 @@
         <v>0.0</v>
       </c>
       <c r="G382" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H382" s="2" t="s">
         <v>1528</v>
@@ -30213,7 +30213,7 @@
         <v>0.0</v>
       </c>
       <c r="G384" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H384" s="2" t="s">
         <v>1536</v>
@@ -30257,7 +30257,7 @@
         <v>0.0</v>
       </c>
       <c r="G385" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H385" s="2" t="s">
         <v>1541</v>
@@ -30345,7 +30345,7 @@
         <v>0.0</v>
       </c>
       <c r="G387" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H387" s="2" t="s">
         <v>1547</v>
@@ -30389,7 +30389,7 @@
         <v>0.0</v>
       </c>
       <c r="G388" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H388" s="2" t="s">
         <v>1551</v>
@@ -30433,7 +30433,7 @@
         <v>0.0</v>
       </c>
       <c r="G389" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H389" s="2" t="s">
         <v>1556</v>
@@ -30477,7 +30477,7 @@
         <v>0.0</v>
       </c>
       <c r="G390" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H390" s="2" t="s">
         <v>1562</v>
@@ -30521,7 +30521,7 @@
         <v>0.0</v>
       </c>
       <c r="G391" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H391" s="2" t="s">
         <v>1566</v>
@@ -30609,7 +30609,7 @@
         <v>0.0</v>
       </c>
       <c r="G393" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H393" s="2" t="s">
         <v>1575</v>
@@ -30697,7 +30697,7 @@
         <v>0.0</v>
       </c>
       <c r="G395" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H395" s="2" t="s">
         <v>1582</v>
@@ -30741,7 +30741,7 @@
         <v>0.0</v>
       </c>
       <c r="G396" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H396" s="2" t="s">
         <v>1588</v>
@@ -30785,7 +30785,7 @@
         <v>0.0</v>
       </c>
       <c r="G397" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H397" s="2" t="s">
         <v>1594</v>
@@ -30873,7 +30873,7 @@
         <v>0.0</v>
       </c>
       <c r="G399" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H399" s="2" t="s">
         <v>1599</v>
@@ -30961,7 +30961,7 @@
         <v>0.0</v>
       </c>
       <c r="G401" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H401" s="2" t="s">
         <v>1604</v>
@@ -31005,7 +31005,7 @@
         <v>0.0</v>
       </c>
       <c r="G402" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H402" s="2" t="s">
         <v>1609</v>
@@ -31049,7 +31049,7 @@
         <v>0.0</v>
       </c>
       <c r="G403" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H403" s="2" t="s">
         <v>1613</v>
@@ -31093,7 +31093,7 @@
         <v>0.0</v>
       </c>
       <c r="G404" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H404" s="2" t="s">
         <v>1618</v>
@@ -31137,7 +31137,7 @@
         <v>0.0</v>
       </c>
       <c r="G405" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H405" s="2" t="s">
         <v>1621</v>
@@ -31181,7 +31181,7 @@
         <v>0.0</v>
       </c>
       <c r="G406" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H406" s="2" t="s">
         <v>1626</v>
@@ -31225,7 +31225,7 @@
         <v>0.0</v>
       </c>
       <c r="G407" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H407" s="2" t="s">
         <v>1631</v>
@@ -31269,7 +31269,7 @@
         <v>0.0</v>
       </c>
       <c r="G408" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H408" s="2" t="s">
         <v>1636</v>
@@ -31313,7 +31313,7 @@
         <v>0.0</v>
       </c>
       <c r="G409" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H409" s="2" t="s">
         <v>1641</v>
@@ -31357,7 +31357,7 @@
         <v>0.0</v>
       </c>
       <c r="G410" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H410" s="2" t="s">
         <v>1646</v>
@@ -31401,7 +31401,7 @@
         <v>0.0</v>
       </c>
       <c r="G411" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H411" s="2" t="s">
         <v>1651</v>
@@ -31445,7 +31445,7 @@
         <v>0.0</v>
       </c>
       <c r="G412" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H412" s="2" t="s">
         <v>1657</v>
@@ -31489,7 +31489,7 @@
         <v>0.0</v>
       </c>
       <c r="G413" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H413" s="2" t="s">
         <v>1662</v>
@@ -31533,7 +31533,7 @@
         <v>0.0</v>
       </c>
       <c r="G414" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H414" s="2" t="s">
         <v>1666</v>
@@ -31577,7 +31577,7 @@
         <v>0.0</v>
       </c>
       <c r="G415" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H415" s="2" t="s">
         <v>1671</v>
@@ -31621,7 +31621,7 @@
         <v>0.0</v>
       </c>
       <c r="G416" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H416" s="2" t="s">
         <v>1677</v>
@@ -31665,7 +31665,7 @@
         <v>0.0</v>
       </c>
       <c r="G417" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H417" s="2" t="s">
         <v>1680</v>
@@ -31709,7 +31709,7 @@
         <v>0.0</v>
       </c>
       <c r="G418" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H418" s="2" t="s">
         <v>1684</v>
@@ -31753,7 +31753,7 @@
         <v>0.0</v>
       </c>
       <c r="G419" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H419" s="2" t="s">
         <v>1689</v>
@@ -31841,7 +31841,7 @@
         <v>0.0</v>
       </c>
       <c r="G421" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H421" s="2" t="s">
         <v>1699</v>
@@ -31885,7 +31885,7 @@
         <v>0.0</v>
       </c>
       <c r="G422" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H422" s="2" t="s">
         <v>1704</v>
@@ -31973,7 +31973,7 @@
         <v>0.0</v>
       </c>
       <c r="G424" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H424" s="2" t="s">
         <v>1710</v>
@@ -32017,7 +32017,7 @@
         <v>0.0</v>
       </c>
       <c r="G425" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H425" s="2" t="s">
         <v>1713</v>
@@ -32061,7 +32061,7 @@
         <v>0.0</v>
       </c>
       <c r="G426" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H426" s="2" t="s">
         <v>1716</v>
@@ -32193,7 +32193,7 @@
         <v>0.0</v>
       </c>
       <c r="G429" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H429" s="2" t="s">
         <v>1724</v>
@@ -32281,7 +32281,7 @@
         <v>0.0</v>
       </c>
       <c r="G431" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H431" s="2" t="s">
         <v>1732</v>
@@ -32325,7 +32325,7 @@
         <v>0.0</v>
       </c>
       <c r="G432" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H432" s="2" t="s">
         <v>1736</v>
@@ -32413,7 +32413,7 @@
         <v>0.0</v>
       </c>
       <c r="G434" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H434" s="2" t="s">
         <v>1747</v>
@@ -32501,7 +32501,7 @@
         <v>0.0</v>
       </c>
       <c r="G436" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H436" s="2" t="s">
         <v>1753</v>
@@ -32677,7 +32677,7 @@
         <v>0.0</v>
       </c>
       <c r="G440" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H440" s="2" t="s">
         <v>1765</v>
@@ -32721,7 +32721,7 @@
         <v>0.0</v>
       </c>
       <c r="G441" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H441" s="2" t="s">
         <v>1768</v>
@@ -32765,7 +32765,7 @@
         <v>0.0</v>
       </c>
       <c r="G442" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H442" s="2" t="s">
         <v>1773</v>
@@ -32853,7 +32853,7 @@
         <v>0.0</v>
       </c>
       <c r="G444" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H444" s="2" t="s">
         <v>1779</v>
@@ -32941,7 +32941,7 @@
         <v>0.0</v>
       </c>
       <c r="G446" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H446" s="2" t="s">
         <v>1787</v>
@@ -32985,7 +32985,7 @@
         <v>0.0</v>
       </c>
       <c r="G447" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H447" s="2" t="s">
         <v>1792</v>
@@ -33029,7 +33029,7 @@
         <v>0.0</v>
       </c>
       <c r="G448" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H448" s="2" t="s">
         <v>1797</v>
@@ -33161,7 +33161,7 @@
         <v>0.0</v>
       </c>
       <c r="G451" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H451" s="2" t="s">
         <v>1803</v>
@@ -33205,7 +33205,7 @@
         <v>0.0</v>
       </c>
       <c r="G452" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H452" s="2" t="s">
         <v>1809</v>
@@ -33249,7 +33249,7 @@
         <v>0.0</v>
       </c>
       <c r="G453" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H453" s="2" t="s">
         <v>1813</v>
@@ -33293,7 +33293,7 @@
         <v>0.0</v>
       </c>
       <c r="G454" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H454" s="2" t="s">
         <v>1818</v>
@@ -33337,7 +33337,7 @@
         <v>0.0</v>
       </c>
       <c r="G455" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H455" s="2" t="s">
         <v>1823</v>
@@ -33381,7 +33381,7 @@
         <v>0.0</v>
       </c>
       <c r="G456" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H456" s="2" t="s">
         <v>1827</v>
@@ -33425,7 +33425,7 @@
         <v>0.0</v>
       </c>
       <c r="G457" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H457" s="2" t="s">
         <v>1832</v>
@@ -33469,7 +33469,7 @@
         <v>0.0</v>
       </c>
       <c r="G458" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H458" s="2" t="s">
         <v>1837</v>
@@ -33513,7 +33513,7 @@
         <v>0.0</v>
       </c>
       <c r="G459" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H459" s="2" t="s">
         <v>1841</v>
@@ -33557,7 +33557,7 @@
         <v>0.0</v>
       </c>
       <c r="G460" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H460" s="2" t="s">
         <v>1845</v>
@@ -33601,7 +33601,7 @@
         <v>0.0</v>
       </c>
       <c r="G461" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H461" s="2" t="s">
         <v>1851</v>
@@ -33645,7 +33645,7 @@
         <v>0.0</v>
       </c>
       <c r="G462" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H462" s="2" t="s">
         <v>1855</v>
@@ -33689,7 +33689,7 @@
         <v>0.0</v>
       </c>
       <c r="G463" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H463" s="2" t="s">
         <v>1860</v>
@@ -33733,7 +33733,7 @@
         <v>0.0</v>
       </c>
       <c r="G464" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H464" s="2" t="s">
         <v>1865</v>
@@ -33777,7 +33777,7 @@
         <v>0.0</v>
       </c>
       <c r="G465" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H465" s="2" t="s">
         <v>1870</v>
@@ -33821,7 +33821,7 @@
         <v>0.0</v>
       </c>
       <c r="G466" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H466" s="2" t="s">
         <v>1876</v>
@@ -33865,7 +33865,7 @@
         <v>0.0</v>
       </c>
       <c r="G467" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H467" s="2" t="s">
         <v>1882</v>
@@ -33997,7 +33997,7 @@
         <v>0.0</v>
       </c>
       <c r="G470" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H470" s="2" t="s">
         <v>1893</v>
@@ -34217,7 +34217,7 @@
         <v>0.0</v>
       </c>
       <c r="G475" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H475" s="2" t="s">
         <v>1905</v>
@@ -34261,7 +34261,7 @@
         <v>0.0</v>
       </c>
       <c r="G476" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H476" s="2" t="s">
         <v>1908</v>
@@ -34305,7 +34305,7 @@
         <v>0.0</v>
       </c>
       <c r="G477" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H477" s="2" t="s">
         <v>1914</v>
@@ -34349,7 +34349,7 @@
         <v>0.0</v>
       </c>
       <c r="G478" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H478" s="2" t="s">
         <v>1919</v>
@@ -34437,7 +34437,7 @@
         <v>0.0</v>
       </c>
       <c r="G480" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H480" s="2" t="s">
         <v>1926</v>
@@ -34481,7 +34481,7 @@
         <v>0.0</v>
       </c>
       <c r="G481" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H481" s="2" t="s">
         <v>1931</v>
@@ -34525,7 +34525,7 @@
         <v>0.0</v>
       </c>
       <c r="G482" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H482" s="2" t="s">
         <v>1936</v>
@@ -34569,7 +34569,7 @@
         <v>0.0</v>
       </c>
       <c r="G483" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H483" s="2" t="s">
         <v>1940</v>
@@ -34613,7 +34613,7 @@
         <v>0.0</v>
       </c>
       <c r="G484" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H484" s="2" t="s">
         <v>1944</v>
@@ -34657,7 +34657,7 @@
         <v>0.0</v>
       </c>
       <c r="G485" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H485" s="2" t="s">
         <v>1947</v>
@@ -34701,7 +34701,7 @@
         <v>0.0</v>
       </c>
       <c r="G486" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H486" s="2" t="s">
         <v>1949</v>
@@ -34745,7 +34745,7 @@
         <v>0.0</v>
       </c>
       <c r="G487" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H487" s="2" t="s">
         <v>1953</v>
@@ -34789,7 +34789,7 @@
         <v>0.0</v>
       </c>
       <c r="G488" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H488" s="2" t="s">
         <v>1958</v>
@@ -34833,7 +34833,7 @@
         <v>0.0</v>
       </c>
       <c r="G489" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H489" s="2" t="s">
         <v>1963</v>
@@ -34877,7 +34877,7 @@
         <v>0.0</v>
       </c>
       <c r="G490" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H490" s="2" t="s">
         <v>1967</v>
@@ -34921,7 +34921,7 @@
         <v>0.0</v>
       </c>
       <c r="G491" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H491" s="2" t="s">
         <v>1973</v>
@@ -35009,7 +35009,7 @@
         <v>0.0</v>
       </c>
       <c r="G493" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H493" s="2" t="s">
         <v>1976</v>
@@ -35097,7 +35097,7 @@
         <v>0.0</v>
       </c>
       <c r="G495" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H495" s="2" t="s">
         <v>1982</v>
@@ -35141,7 +35141,7 @@
         <v>0.0</v>
       </c>
       <c r="G496" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H496" s="2" t="s">
         <v>1985</v>
@@ -35185,7 +35185,7 @@
         <v>0.0</v>
       </c>
       <c r="G497" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H497" s="2" t="s">
         <v>1991</v>
@@ -35273,7 +35273,7 @@
         <v>0.0</v>
       </c>
       <c r="G499" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H499" s="2" t="s">
         <v>1997</v>
@@ -35317,7 +35317,7 @@
         <v>0.0</v>
       </c>
       <c r="G500" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H500" s="2" t="s">
         <v>2002</v>
@@ -35405,7 +35405,7 @@
         <v>0.0</v>
       </c>
       <c r="G502" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H502" s="2" t="s">
         <v>2010</v>
@@ -35537,7 +35537,7 @@
         <v>0.0</v>
       </c>
       <c r="G505" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H505" s="2" t="s">
         <v>2021</v>
@@ -35625,7 +35625,7 @@
         <v>0.0</v>
       </c>
       <c r="G507" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H507" s="2" t="s">
         <v>2031</v>
@@ -35669,7 +35669,7 @@
         <v>0.0</v>
       </c>
       <c r="G508" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H508" s="2" t="s">
         <v>2036</v>
@@ -35713,7 +35713,7 @@
         <v>0.0</v>
       </c>
       <c r="G509" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H509" s="2" t="s">
         <v>2041</v>
@@ -35757,7 +35757,7 @@
         <v>0.0</v>
       </c>
       <c r="G510" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H510" s="2" t="s">
         <v>2047</v>
@@ -35801,7 +35801,7 @@
         <v>0.0</v>
       </c>
       <c r="G511" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H511" s="2" t="s">
         <v>2051</v>
@@ -35845,7 +35845,7 @@
         <v>0.0</v>
       </c>
       <c r="G512" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H512" s="2" t="s">
         <v>2055</v>
@@ -35977,7 +35977,7 @@
         <v>0.0</v>
       </c>
       <c r="G515" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H515" s="2" t="s">
         <v>2071</v>
@@ -36021,7 +36021,7 @@
         <v>0.0</v>
       </c>
       <c r="G516" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H516" s="2" t="s">
         <v>2075</v>
@@ -36065,7 +36065,7 @@
         <v>0.0</v>
       </c>
       <c r="G517" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H517" s="2" t="s">
         <v>2080</v>
@@ -36109,7 +36109,7 @@
         <v>0.0</v>
       </c>
       <c r="G518" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H518" s="2" t="s">
         <v>2084</v>
@@ -36329,7 +36329,7 @@
         <v>0.0</v>
       </c>
       <c r="G523" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H523" s="2" t="s">
         <v>2092</v>
@@ -36373,7 +36373,7 @@
         <v>0.0</v>
       </c>
       <c r="G524" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H524" s="2" t="s">
         <v>2097</v>
@@ -36417,7 +36417,7 @@
         <v>0.0</v>
       </c>
       <c r="G525" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H525" s="2" t="s">
         <v>2100</v>
@@ -36505,7 +36505,7 @@
         <v>0.0</v>
       </c>
       <c r="G527" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H527" s="2" t="s">
         <v>2108</v>
@@ -36549,7 +36549,7 @@
         <v>0.0</v>
       </c>
       <c r="G528" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H528" s="2" t="s">
         <v>2111</v>
@@ -36593,7 +36593,7 @@
         <v>0.0</v>
       </c>
       <c r="G529" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H529" s="2" t="s">
         <v>2118</v>
@@ -36681,7 +36681,7 @@
         <v>0.0</v>
       </c>
       <c r="G531" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H531" s="2" t="s">
         <v>2124</v>
@@ -36725,7 +36725,7 @@
         <v>0.0</v>
       </c>
       <c r="G532" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H532" s="2" t="s">
         <v>2128</v>
@@ -36769,7 +36769,7 @@
         <v>0.0</v>
       </c>
       <c r="G533" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H533" s="2" t="s">
         <v>2133</v>
@@ -36813,7 +36813,7 @@
         <v>0.0</v>
       </c>
       <c r="G534" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H534" s="2" t="s">
         <v>2136</v>
@@ -36857,7 +36857,7 @@
         <v>0.0</v>
       </c>
       <c r="G535" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H535" s="2" t="s">
         <v>2140</v>
@@ -36901,7 +36901,7 @@
         <v>0.0</v>
       </c>
       <c r="G536" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H536" s="2" t="s">
         <v>2145</v>
@@ -36945,7 +36945,7 @@
         <v>0.0</v>
       </c>
       <c r="G537" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H537" s="2" t="s">
         <v>2150</v>
@@ -36989,7 +36989,7 @@
         <v>0.0</v>
       </c>
       <c r="G538" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H538" s="2" t="s">
         <v>2156</v>
@@ -37033,7 +37033,7 @@
         <v>0.0</v>
       </c>
       <c r="G539" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H539" s="2" t="s">
         <v>2161</v>
@@ -37077,7 +37077,7 @@
         <v>0.0</v>
       </c>
       <c r="G540" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H540" s="2" t="s">
         <v>2166</v>
@@ -37121,7 +37121,7 @@
         <v>0.0</v>
       </c>
       <c r="G541" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H541" s="2" t="s">
         <v>2171</v>
@@ -37165,7 +37165,7 @@
         <v>0.0</v>
       </c>
       <c r="G542" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H542" s="2" t="s">
         <v>2175</v>
@@ -37253,7 +37253,7 @@
         <v>0.0</v>
       </c>
       <c r="G544" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H544" s="2" t="s">
         <v>2183</v>
@@ -37297,7 +37297,7 @@
         <v>0.0</v>
       </c>
       <c r="G545" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H545" s="2" t="s">
         <v>2189</v>
@@ -37341,7 +37341,7 @@
         <v>0.0</v>
       </c>
       <c r="G546" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H546" s="2" t="s">
         <v>2192</v>
@@ -37385,7 +37385,7 @@
         <v>0.0</v>
       </c>
       <c r="G547" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H547" s="2" t="s">
         <v>2197</v>
@@ -37429,7 +37429,7 @@
         <v>0.0</v>
       </c>
       <c r="G548" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H548" s="2" t="s">
         <v>2201</v>
@@ -37473,7 +37473,7 @@
         <v>0.0</v>
       </c>
       <c r="G549" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H549" s="2" t="s">
         <v>2206</v>
@@ -37649,7 +37649,7 @@
         <v>0.0</v>
       </c>
       <c r="G553" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H553" s="2" t="s">
         <v>2219</v>
@@ -37737,7 +37737,7 @@
         <v>0.0</v>
       </c>
       <c r="G555" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H555" s="2" t="s">
         <v>2224</v>
@@ -37825,7 +37825,7 @@
         <v>0.0</v>
       </c>
       <c r="G557" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H557" s="2" t="s">
         <v>2233</v>
@@ -37913,7 +37913,7 @@
         <v>0.0</v>
       </c>
       <c r="G559" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H559" s="2" t="s">
         <v>2239</v>
@@ -37957,7 +37957,7 @@
         <v>0.0</v>
       </c>
       <c r="G560" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H560" s="2" t="s">
         <v>2244</v>
@@ -38001,7 +38001,7 @@
         <v>0.0</v>
       </c>
       <c r="G561" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H561" s="2" t="s">
         <v>2249</v>
@@ -38045,7 +38045,7 @@
         <v>0.0</v>
       </c>
       <c r="G562" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H562" s="2" t="s">
         <v>2254</v>
@@ -38089,7 +38089,7 @@
         <v>0.0</v>
       </c>
       <c r="G563" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H563" s="2" t="s">
         <v>2258</v>
@@ -38177,7 +38177,7 @@
         <v>0.0</v>
       </c>
       <c r="G565" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H565" s="2" t="s">
         <v>2264</v>
@@ -38221,7 +38221,7 @@
         <v>0.0</v>
       </c>
       <c r="G566" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H566" s="2" t="s">
         <v>2268</v>
@@ -38485,7 +38485,7 @@
         <v>0.0</v>
       </c>
       <c r="G572" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H572" s="2" t="s">
         <v>2281</v>
@@ -38529,7 +38529,7 @@
         <v>0.0</v>
       </c>
       <c r="G573" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H573" s="2" t="s">
         <v>2286</v>
@@ -38573,7 +38573,7 @@
         <v>0.0</v>
       </c>
       <c r="G574" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H574" s="2" t="s">
         <v>2290</v>
@@ -38617,7 +38617,7 @@
         <v>0.0</v>
       </c>
       <c r="G575" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H575" s="2" t="s">
         <v>28</v>
@@ -38661,7 +38661,7 @@
         <v>0.0</v>
       </c>
       <c r="G576" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H576" s="2" t="s">
         <v>2298</v>
@@ -38705,7 +38705,7 @@
         <v>0.0</v>
       </c>
       <c r="G577" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H577" s="2" t="s">
         <v>2302</v>
@@ -38749,7 +38749,7 @@
         <v>0.0</v>
       </c>
       <c r="G578" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H578" s="2" t="s">
         <v>2307</v>
@@ -38793,7 +38793,7 @@
         <v>0.0</v>
       </c>
       <c r="G579" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H579" s="2" t="s">
         <v>2311</v>
@@ -38925,7 +38925,7 @@
         <v>0.0</v>
       </c>
       <c r="G582" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H582" s="2" t="s">
         <v>2317</v>
@@ -39057,7 +39057,7 @@
         <v>0.0</v>
       </c>
       <c r="G585" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H585" s="2" t="s">
         <v>2329</v>
@@ -39145,7 +39145,7 @@
         <v>0.0</v>
       </c>
       <c r="G587" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H587" s="2" t="s">
         <v>2337</v>
@@ -39189,7 +39189,7 @@
         <v>0.0</v>
       </c>
       <c r="G588" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H588" s="2" t="s">
         <v>2341</v>
@@ -39277,7 +39277,7 @@
         <v>0.0</v>
       </c>
       <c r="G590" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H590" s="2" t="s">
         <v>2347</v>
@@ -39365,7 +39365,7 @@
         <v>0.0</v>
       </c>
       <c r="G592" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H592" s="2" t="s">
         <v>2353</v>
@@ -39453,7 +39453,7 @@
         <v>0.0</v>
       </c>
       <c r="G594" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H594" s="2" t="s">
         <v>2357</v>
@@ -39541,7 +39541,7 @@
         <v>0.0</v>
       </c>
       <c r="G596" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H596" s="2" t="s">
         <v>2362</v>
@@ -39585,7 +39585,7 @@
         <v>0.0</v>
       </c>
       <c r="G597" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H597" s="2" t="s">
         <v>28</v>
@@ -39629,7 +39629,7 @@
         <v>0.0</v>
       </c>
       <c r="G598" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H598" s="2" t="s">
         <v>2369</v>
@@ -39673,7 +39673,7 @@
         <v>0.0</v>
       </c>
       <c r="G599" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H599" s="2" t="s">
         <v>2374</v>
@@ -39717,7 +39717,7 @@
         <v>0.0</v>
       </c>
       <c r="G600" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H600" s="2" t="s">
         <v>2378</v>
@@ -39761,7 +39761,7 @@
         <v>0.0</v>
       </c>
       <c r="G601" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H601" s="2" t="s">
         <v>2384</v>
@@ -39805,7 +39805,7 @@
         <v>0.0</v>
       </c>
       <c r="G602" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H602" s="2" t="s">
         <v>2390</v>
@@ -39849,7 +39849,7 @@
         <v>0.0</v>
       </c>
       <c r="G603" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H603" s="2" t="s">
         <v>2396</v>
@@ -39937,7 +39937,7 @@
         <v>0.0</v>
       </c>
       <c r="G605" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H605" s="2" t="s">
         <v>2402</v>
@@ -40113,7 +40113,7 @@
         <v>0.0</v>
       </c>
       <c r="G609" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H609" s="2" t="s">
         <v>2412</v>
@@ -40157,7 +40157,7 @@
         <v>0.0</v>
       </c>
       <c r="G610" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H610" s="2" t="s">
         <v>2415</v>
@@ -40201,7 +40201,7 @@
         <v>0.0</v>
       </c>
       <c r="G611" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H611" s="2" t="s">
         <v>2420</v>
@@ -40289,7 +40289,7 @@
         <v>0.0</v>
       </c>
       <c r="G613" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H613" s="2" t="s">
         <v>2425</v>
@@ -40333,7 +40333,7 @@
         <v>0.0</v>
       </c>
       <c r="G614" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H614" s="2" t="s">
         <v>2430</v>
@@ -40377,7 +40377,7 @@
         <v>0.0</v>
       </c>
       <c r="G615" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H615" s="2" t="s">
         <v>2435</v>
@@ -40421,7 +40421,7 @@
         <v>0.0</v>
       </c>
       <c r="G616" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H616" s="2" t="s">
         <v>2440</v>
@@ -40553,7 +40553,7 @@
         <v>0.0</v>
       </c>
       <c r="G619" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H619" s="2" t="s">
         <v>2449</v>
@@ -40597,7 +40597,7 @@
         <v>0.0</v>
       </c>
       <c r="G620" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H620" s="2" t="s">
         <v>2454</v>
@@ -40641,7 +40641,7 @@
         <v>0.0</v>
       </c>
       <c r="G621" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H621" s="2" t="s">
         <v>2459</v>
@@ -40685,7 +40685,7 @@
         <v>0.0</v>
       </c>
       <c r="G622" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H622" s="2" t="s">
         <v>2462</v>
@@ -40729,7 +40729,7 @@
         <v>0.0</v>
       </c>
       <c r="G623" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H623" s="2" t="s">
         <v>2467</v>
@@ -40773,7 +40773,7 @@
         <v>0.0</v>
       </c>
       <c r="G624" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H624" s="2" t="s">
         <v>2470</v>
@@ -40861,7 +40861,7 @@
         <v>0.0</v>
       </c>
       <c r="G626" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H626" s="2" t="s">
         <v>2480</v>
@@ -40905,7 +40905,7 @@
         <v>0.0</v>
       </c>
       <c r="G627" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H627" s="2" t="s">
         <v>2485</v>
@@ -40949,7 +40949,7 @@
         <v>0.0</v>
       </c>
       <c r="G628" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H628" s="2" t="s">
         <v>2490</v>
@@ -40993,7 +40993,7 @@
         <v>0.0</v>
       </c>
       <c r="G629" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H629" s="2" t="s">
         <v>2492</v>
@@ -41037,7 +41037,7 @@
         <v>0.0</v>
       </c>
       <c r="G630" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H630" s="2" t="s">
         <v>2498</v>
@@ -41081,7 +41081,7 @@
         <v>0.0</v>
       </c>
       <c r="G631" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H631" s="2" t="s">
         <v>2502</v>
@@ -41125,7 +41125,7 @@
         <v>0.0</v>
       </c>
       <c r="G632" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H632" s="2" t="s">
         <v>2506</v>
@@ -41169,7 +41169,7 @@
         <v>0.0</v>
       </c>
       <c r="G633" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H633" s="2" t="s">
         <v>2509</v>
@@ -41213,7 +41213,7 @@
         <v>0.0</v>
       </c>
       <c r="G634" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H634" s="2" t="s">
         <v>2514</v>
@@ -41345,7 +41345,7 @@
         <v>0.0</v>
       </c>
       <c r="G637" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H637" s="2" t="s">
         <v>2523</v>
@@ -41389,7 +41389,7 @@
         <v>0.0</v>
       </c>
       <c r="G638" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H638" s="2" t="s">
         <v>2527</v>
@@ -41433,7 +41433,7 @@
         <v>0.0</v>
       </c>
       <c r="G639" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H639" s="2" t="s">
         <v>28</v>
@@ -41477,7 +41477,7 @@
         <v>0.0</v>
       </c>
       <c r="G640" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H640" s="2" t="s">
         <v>2534</v>
@@ -41521,7 +41521,7 @@
         <v>0.0</v>
       </c>
       <c r="G641" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H641" s="2" t="s">
         <v>2539</v>
@@ -41565,7 +41565,7 @@
         <v>0.0</v>
       </c>
       <c r="G642" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H642" s="2" t="s">
         <v>2544</v>
@@ -41609,7 +41609,7 @@
         <v>0.0</v>
       </c>
       <c r="G643" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H643" s="2" t="s">
         <v>2550</v>
@@ -41653,7 +41653,7 @@
         <v>0.0</v>
       </c>
       <c r="G644" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H644" s="2" t="s">
         <v>2555</v>
@@ -41741,7 +41741,7 @@
         <v>0.0</v>
       </c>
       <c r="G646" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H646" s="2" t="s">
         <v>2564</v>
@@ -41785,7 +41785,7 @@
         <v>0.0</v>
       </c>
       <c r="G647" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H647" s="2" t="s">
         <v>2568</v>
@@ -41917,7 +41917,7 @@
         <v>0.0</v>
       </c>
       <c r="G650" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H650" s="2" t="s">
         <v>2575</v>
@@ -42181,7 +42181,7 @@
         <v>0.0</v>
       </c>
       <c r="G656" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H656" s="2" t="s">
         <v>2589</v>
@@ -42225,7 +42225,7 @@
         <v>0.0</v>
       </c>
       <c r="G657" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H657" s="2" t="s">
         <v>2595</v>
@@ -42269,7 +42269,7 @@
         <v>0.0</v>
       </c>
       <c r="G658" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H658" s="2" t="s">
         <v>2598</v>
@@ -42313,7 +42313,7 @@
         <v>0.0</v>
       </c>
       <c r="G659" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H659" s="2" t="s">
         <v>2603</v>
@@ -42357,7 +42357,7 @@
         <v>0.0</v>
       </c>
       <c r="G660" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H660" s="2" t="s">
         <v>2608</v>
@@ -42401,7 +42401,7 @@
         <v>0.0</v>
       </c>
       <c r="G661" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H661" s="2" t="s">
         <v>2613</v>
@@ -42445,7 +42445,7 @@
         <v>0.0</v>
       </c>
       <c r="G662" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H662" s="2" t="s">
         <v>2618</v>
@@ -42489,7 +42489,7 @@
         <v>0.0</v>
       </c>
       <c r="G663" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H663" s="2" t="s">
         <v>2623</v>
@@ -42533,7 +42533,7 @@
         <v>0.0</v>
       </c>
       <c r="G664" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H664" s="2" t="s">
         <v>2629</v>
@@ -42621,7 +42621,7 @@
         <v>0.0</v>
       </c>
       <c r="G666" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H666" s="2" t="s">
         <v>2638</v>
@@ -42753,7 +42753,7 @@
         <v>0.0</v>
       </c>
       <c r="G669" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H669" s="2" t="s">
         <v>2643</v>
@@ -42797,7 +42797,7 @@
         <v>0.0</v>
       </c>
       <c r="G670" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H670" s="2" t="s">
         <v>28</v>
@@ -42841,7 +42841,7 @@
         <v>0.0</v>
       </c>
       <c r="G671" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H671" s="2" t="s">
         <v>2651</v>
@@ -42885,7 +42885,7 @@
         <v>0.0</v>
       </c>
       <c r="G672" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H672" s="2" t="s">
         <v>2655</v>
@@ -42973,7 +42973,7 @@
         <v>0.0</v>
       </c>
       <c r="G674" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H674" s="2" t="s">
         <v>2663</v>
@@ -43017,7 +43017,7 @@
         <v>0.0</v>
       </c>
       <c r="G675" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H675" s="2" t="s">
         <v>2666</v>
@@ -43061,7 +43061,7 @@
         <v>0.0</v>
       </c>
       <c r="G676" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H676" s="2" t="s">
         <v>2672</v>
@@ -43105,7 +43105,7 @@
         <v>0.0</v>
       </c>
       <c r="G677" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H677" s="2" t="s">
         <v>2677</v>
@@ -43149,7 +43149,7 @@
         <v>0.0</v>
       </c>
       <c r="G678" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H678" s="2" t="s">
         <v>2681</v>
@@ -43193,7 +43193,7 @@
         <v>0.0</v>
       </c>
       <c r="G679" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H679" s="2" t="s">
         <v>2687</v>
@@ -43237,7 +43237,7 @@
         <v>0.0</v>
       </c>
       <c r="G680" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H680" s="2" t="s">
         <v>2692</v>
@@ -43369,7 +43369,7 @@
         <v>0.0</v>
       </c>
       <c r="G683" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H683" s="2" t="s">
         <v>2705</v>
@@ -43413,7 +43413,7 @@
         <v>0.0</v>
       </c>
       <c r="G684" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H684" s="2" t="s">
         <v>2711</v>
@@ -43457,7 +43457,7 @@
         <v>0.0</v>
       </c>
       <c r="G685" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H685" s="2" t="s">
         <v>2715</v>
@@ -43501,7 +43501,7 @@
         <v>0.0</v>
       </c>
       <c r="G686" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H686" s="2" t="s">
         <v>2720</v>
@@ -43589,7 +43589,7 @@
         <v>0.0</v>
       </c>
       <c r="G688" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H688" s="2" t="s">
         <v>2729</v>
@@ -43633,7 +43633,7 @@
         <v>0.0</v>
       </c>
       <c r="G689" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H689" s="2" t="s">
         <v>2733</v>
@@ -43721,7 +43721,7 @@
         <v>0.0</v>
       </c>
       <c r="G691" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H691" s="2" t="s">
         <v>2741</v>
@@ -43765,7 +43765,7 @@
         <v>0.0</v>
       </c>
       <c r="G692" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H692" s="2" t="s">
         <v>2744</v>
@@ -43809,7 +43809,7 @@
         <v>0.0</v>
       </c>
       <c r="G693" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H693" s="2" t="s">
         <v>2747</v>
@@ -43897,7 +43897,7 @@
         <v>0.0</v>
       </c>
       <c r="G695" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H695" s="2" t="s">
         <v>2757</v>
@@ -44029,7 +44029,7 @@
         <v>0.0</v>
       </c>
       <c r="G698" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H698" s="2" t="s">
         <v>2769</v>
@@ -44073,7 +44073,7 @@
         <v>0.0</v>
       </c>
       <c r="G699" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H699" s="2" t="s">
         <v>2775</v>
@@ -44205,7 +44205,7 @@
         <v>0.0</v>
       </c>
       <c r="G702" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H702" s="2" t="s">
         <v>2784</v>
@@ -44249,7 +44249,7 @@
         <v>0.0</v>
       </c>
       <c r="G703" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H703" s="2" t="s">
         <v>2787</v>
@@ -44293,7 +44293,7 @@
         <v>0.0</v>
       </c>
       <c r="G704" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H704" s="2" t="s">
         <v>2791</v>
@@ -44381,7 +44381,7 @@
         <v>0.0</v>
       </c>
       <c r="G706" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H706" s="2" t="s">
         <v>2799</v>
@@ -44425,7 +44425,7 @@
         <v>0.0</v>
       </c>
       <c r="G707" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H707" s="2" t="s">
         <v>2805</v>
@@ -44469,7 +44469,7 @@
         <v>0.0</v>
       </c>
       <c r="G708" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H708" s="2" t="s">
         <v>2808</v>
@@ -44557,7 +44557,7 @@
         <v>0.0</v>
       </c>
       <c r="G710" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H710" s="2" t="s">
         <v>2813</v>
@@ -44689,7 +44689,7 @@
         <v>0.0</v>
       </c>
       <c r="G713" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H713" s="2" t="s">
         <v>2823</v>
@@ -44733,7 +44733,7 @@
         <v>0.0</v>
       </c>
       <c r="G714" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H714" s="2" t="s">
         <v>2828</v>
@@ -44777,7 +44777,7 @@
         <v>0.0</v>
       </c>
       <c r="G715" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H715" s="2" t="s">
         <v>2832</v>
@@ -44865,7 +44865,7 @@
         <v>0.0</v>
       </c>
       <c r="G717" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H717" s="2" t="s">
         <v>2838</v>
@@ -44909,7 +44909,7 @@
         <v>0.0</v>
       </c>
       <c r="G718" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H718" s="2" t="s">
         <v>2844</v>
@@ -44953,7 +44953,7 @@
         <v>0.0</v>
       </c>
       <c r="G719" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H719" s="2" t="s">
         <v>28</v>
@@ -44997,7 +44997,7 @@
         <v>0.0</v>
       </c>
       <c r="G720" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H720" s="2" t="s">
         <v>2855</v>
@@ -45041,7 +45041,7 @@
         <v>0.0</v>
       </c>
       <c r="G721" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H721" s="2" t="s">
         <v>2861</v>
@@ -45085,7 +45085,7 @@
         <v>0.0</v>
       </c>
       <c r="G722" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H722" s="2" t="s">
         <v>2865</v>
@@ -45261,7 +45261,7 @@
         <v>0.0</v>
       </c>
       <c r="G726" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H726" s="2" t="s">
         <v>2878</v>
@@ -45305,7 +45305,7 @@
         <v>0.0</v>
       </c>
       <c r="G727" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H727" s="2" t="s">
         <v>2882</v>
@@ -45393,7 +45393,7 @@
         <v>0.0</v>
       </c>
       <c r="G729" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H729" s="2" t="s">
         <v>2888</v>
@@ -45437,7 +45437,7 @@
         <v>0.0</v>
       </c>
       <c r="G730" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H730" s="2" t="s">
         <v>2893</v>
@@ -45481,7 +45481,7 @@
         <v>0.0</v>
       </c>
       <c r="G731" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H731" s="2" t="s">
         <v>2897</v>
@@ -45525,7 +45525,7 @@
         <v>0.0</v>
       </c>
       <c r="G732" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H732" s="2" t="s">
         <v>2900</v>
@@ -45657,7 +45657,7 @@
         <v>0.0</v>
       </c>
       <c r="G735" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H735" s="2" t="s">
         <v>2910</v>
@@ -45833,7 +45833,7 @@
         <v>0.0</v>
       </c>
       <c r="G739" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H739" s="2" t="s">
         <v>2920</v>
@@ -46053,7 +46053,7 @@
         <v>0.0</v>
       </c>
       <c r="G744" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H744" s="2" t="s">
         <v>2931</v>
@@ -46097,7 +46097,7 @@
         <v>0.0</v>
       </c>
       <c r="G745" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H745" s="2" t="s">
         <v>2937</v>
@@ -46185,7 +46185,7 @@
         <v>0.0</v>
       </c>
       <c r="G747" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H747" s="2" t="s">
         <v>2943</v>
@@ -46229,7 +46229,7 @@
         <v>0.0</v>
       </c>
       <c r="G748" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H748" s="2" t="s">
         <v>2948</v>
@@ -46273,7 +46273,7 @@
         <v>0.0</v>
       </c>
       <c r="G749" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H749" s="2" t="s">
         <v>2952</v>
@@ -46493,7 +46493,7 @@
         <v>0.0</v>
       </c>
       <c r="G754" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H754" s="2" t="s">
         <v>2969</v>
@@ -46537,7 +46537,7 @@
         <v>0.0</v>
       </c>
       <c r="G755" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H755" s="2" t="s">
         <v>2974</v>
@@ -46581,7 +46581,7 @@
         <v>0.0</v>
       </c>
       <c r="G756" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H756" s="2" t="s">
         <v>2977</v>
@@ -46713,7 +46713,7 @@
         <v>0.0</v>
       </c>
       <c r="G759" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H759" s="2" t="s">
         <v>2987</v>
@@ -46801,7 +46801,7 @@
         <v>0.0</v>
       </c>
       <c r="G761" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H761" s="2" t="s">
         <v>2991</v>
@@ -46845,7 +46845,7 @@
         <v>0.0</v>
       </c>
       <c r="G762" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H762" s="2" t="s">
         <v>2997</v>
@@ -46889,7 +46889,7 @@
         <v>0.0</v>
       </c>
       <c r="G763" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H763" s="2" t="s">
         <v>3002</v>
@@ -46933,7 +46933,7 @@
         <v>0.0</v>
       </c>
       <c r="G764" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H764" s="2" t="s">
         <v>3006</v>
@@ -47021,7 +47021,7 @@
         <v>0.0</v>
       </c>
       <c r="G766" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H766" s="2" t="s">
         <v>3014</v>
@@ -47065,7 +47065,7 @@
         <v>0.0</v>
       </c>
       <c r="G767" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H767" s="2" t="s">
         <v>3017</v>
@@ -47109,7 +47109,7 @@
         <v>0.0</v>
       </c>
       <c r="G768" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H768" s="2" t="s">
         <v>3021</v>
@@ -47197,7 +47197,7 @@
         <v>0.0</v>
       </c>
       <c r="G770" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H770" s="2" t="s">
         <v>3028</v>
@@ -47241,7 +47241,7 @@
         <v>0.0</v>
       </c>
       <c r="G771" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H771" s="2" t="s">
         <v>3033</v>
@@ -47285,7 +47285,7 @@
         <v>0.0</v>
       </c>
       <c r="G772" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H772" s="2" t="s">
         <v>3038</v>
@@ -47329,7 +47329,7 @@
         <v>0.0</v>
       </c>
       <c r="G773" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H773" s="2" t="s">
         <v>3043</v>
@@ -47417,7 +47417,7 @@
         <v>0.0</v>
       </c>
       <c r="G775" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H775" s="2" t="s">
         <v>3052</v>
@@ -47461,7 +47461,7 @@
         <v>0.0</v>
       </c>
       <c r="G776" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H776" s="2" t="s">
         <v>3057</v>
@@ -47505,7 +47505,7 @@
         <v>0.0</v>
       </c>
       <c r="G777" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H777" s="2" t="s">
         <v>3063</v>
@@ -47549,7 +47549,7 @@
         <v>0.0</v>
       </c>
       <c r="G778" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H778" s="2" t="s">
         <v>3068</v>
@@ -47593,7 +47593,7 @@
         <v>0.0</v>
       </c>
       <c r="G779" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H779" s="2" t="s">
         <v>3074</v>
@@ -47637,7 +47637,7 @@
         <v>0.0</v>
       </c>
       <c r="G780" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H780" s="2" t="s">
         <v>3079</v>
@@ -47725,7 +47725,7 @@
         <v>0.0</v>
       </c>
       <c r="G782" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H782" s="2" t="s">
         <v>3084</v>
@@ -47769,7 +47769,7 @@
         <v>0.0</v>
       </c>
       <c r="G783" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H783" s="2" t="s">
         <v>3089</v>
@@ -47813,7 +47813,7 @@
         <v>0.0</v>
       </c>
       <c r="G784" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H784" s="2" t="s">
         <v>3094</v>
@@ -47857,7 +47857,7 @@
         <v>0.0</v>
       </c>
       <c r="G785" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H785" s="2" t="s">
         <v>3096</v>
@@ -47901,7 +47901,7 @@
         <v>0.0</v>
       </c>
       <c r="G786" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H786" s="2" t="s">
         <v>3100</v>
@@ -47945,7 +47945,7 @@
         <v>0.0</v>
       </c>
       <c r="G787" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H787" s="2" t="s">
         <v>3106</v>
@@ -47989,7 +47989,7 @@
         <v>0.0</v>
       </c>
       <c r="G788" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H788" s="2" t="s">
         <v>3111</v>
@@ -48033,7 +48033,7 @@
         <v>0.0</v>
       </c>
       <c r="G789" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H789" s="2" t="s">
         <v>3117</v>
@@ -48077,7 +48077,7 @@
         <v>0.0</v>
       </c>
       <c r="G790" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H790" s="2" t="s">
         <v>3121</v>
@@ -48165,7 +48165,7 @@
         <v>0.0</v>
       </c>
       <c r="G792" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H792" s="2" t="s">
         <v>3126</v>
@@ -48253,7 +48253,7 @@
         <v>0.0</v>
       </c>
       <c r="G794" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H794" s="2" t="s">
         <v>3133</v>
@@ -48297,7 +48297,7 @@
         <v>0.0</v>
       </c>
       <c r="G795" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H795" s="2" t="s">
         <v>3137</v>
@@ -48341,7 +48341,7 @@
         <v>0.0</v>
       </c>
       <c r="G796" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H796" s="2" t="s">
         <v>3143</v>
@@ -48385,7 +48385,7 @@
         <v>0.0</v>
       </c>
       <c r="G797" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H797" s="2" t="s">
         <v>3149</v>
@@ -48429,7 +48429,7 @@
         <v>0.0</v>
       </c>
       <c r="G798" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H798" s="2" t="s">
         <v>3154</v>
@@ -48473,7 +48473,7 @@
         <v>0.0</v>
       </c>
       <c r="G799" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H799" s="2" t="s">
         <v>3159</v>
@@ -48517,7 +48517,7 @@
         <v>0.0</v>
       </c>
       <c r="G800" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H800" s="2" t="s">
         <v>3165</v>
@@ -48605,7 +48605,7 @@
         <v>0.0</v>
       </c>
       <c r="G802" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H802" s="2" t="s">
         <v>3175</v>
@@ -48649,7 +48649,7 @@
         <v>0.0</v>
       </c>
       <c r="G803" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H803" s="2" t="s">
         <v>3180</v>
@@ -48693,7 +48693,7 @@
         <v>0.0</v>
       </c>
       <c r="G804" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H804" s="2" t="s">
         <v>3185</v>
@@ -48737,7 +48737,7 @@
         <v>0.0</v>
       </c>
       <c r="G805" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H805" s="2" t="s">
         <v>3190</v>
@@ -48781,7 +48781,7 @@
         <v>0.0</v>
       </c>
       <c r="G806" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H806" s="2" t="s">
         <v>3196</v>
@@ -48825,7 +48825,7 @@
         <v>0.0</v>
       </c>
       <c r="G807" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H807" s="2" t="s">
         <v>3201</v>
@@ -49001,7 +49001,7 @@
         <v>0.0</v>
       </c>
       <c r="G811" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H811" s="2" t="s">
         <v>3216</v>
@@ -49045,7 +49045,7 @@
         <v>0.0</v>
       </c>
       <c r="G812" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H812" s="2" t="s">
         <v>3223</v>
@@ -49133,7 +49133,7 @@
         <v>0.0</v>
       </c>
       <c r="G814" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H814" s="2" t="s">
         <v>3231</v>
@@ -49177,7 +49177,7 @@
         <v>0.0</v>
       </c>
       <c r="G815" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H815" s="2" t="s">
         <v>3237</v>
@@ -49221,7 +49221,7 @@
         <v>0.0</v>
       </c>
       <c r="G816" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H816" s="2" t="s">
         <v>3241</v>
@@ -49309,7 +49309,7 @@
         <v>0.0</v>
       </c>
       <c r="G818" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H818" s="2" t="s">
         <v>3245</v>
@@ -49353,7 +49353,7 @@
         <v>0.0</v>
       </c>
       <c r="G819" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H819" s="2" t="s">
         <v>3249</v>
@@ -49573,7 +49573,7 @@
         <v>0.0</v>
       </c>
       <c r="G824" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H824" s="2" t="s">
         <v>3261</v>
@@ -49617,7 +49617,7 @@
         <v>0.0</v>
       </c>
       <c r="G825" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H825" s="2" t="s">
         <v>3266</v>
@@ -49705,7 +49705,7 @@
         <v>0.0</v>
       </c>
       <c r="G827" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H827" s="2" t="s">
         <v>3269</v>
@@ -49793,7 +49793,7 @@
         <v>0.0</v>
       </c>
       <c r="G829" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H829" s="2" t="s">
         <v>3278</v>
@@ -49837,7 +49837,7 @@
         <v>0.0</v>
       </c>
       <c r="G830" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H830" s="2" t="s">
         <v>3282</v>
@@ -49881,7 +49881,7 @@
         <v>0.0</v>
       </c>
       <c r="G831" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H831" s="2" t="s">
         <v>3286</v>
@@ -49925,7 +49925,7 @@
         <v>0.0</v>
       </c>
       <c r="G832" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H832" s="2" t="s">
         <v>3290</v>
@@ -49969,7 +49969,7 @@
         <v>0.0</v>
       </c>
       <c r="G833" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H833" s="2" t="s">
         <v>3293</v>
@@ -50013,7 +50013,7 @@
         <v>0.0</v>
       </c>
       <c r="G834" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H834" s="2" t="s">
         <v>3298</v>
@@ -50145,7 +50145,7 @@
         <v>0.0</v>
       </c>
       <c r="G837" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H837" s="2" t="s">
         <v>3305</v>
@@ -50233,7 +50233,7 @@
         <v>0.0</v>
       </c>
       <c r="G839" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H839" s="2" t="s">
         <v>3317</v>
@@ -50277,7 +50277,7 @@
         <v>0.0</v>
       </c>
       <c r="G840" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H840" s="2" t="s">
         <v>3321</v>
@@ -50321,7 +50321,7 @@
         <v>0.0</v>
       </c>
       <c r="G841" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H841" s="2" t="s">
         <v>3324</v>
@@ -50409,7 +50409,7 @@
         <v>0.0</v>
       </c>
       <c r="G843" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H843" s="2" t="s">
         <v>3330</v>
@@ -50497,7 +50497,7 @@
         <v>0.0</v>
       </c>
       <c r="G845" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H845" s="2" t="s">
         <v>3336</v>
@@ -50541,7 +50541,7 @@
         <v>0.0</v>
       </c>
       <c r="G846" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H846" s="2" t="s">
         <v>3342</v>
@@ -50629,7 +50629,7 @@
         <v>0.0</v>
       </c>
       <c r="G848" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H848" s="2" t="s">
         <v>3351</v>
@@ -50717,7 +50717,7 @@
         <v>0.0</v>
       </c>
       <c r="G850" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H850" s="2" t="s">
         <v>3358</v>
@@ -50937,7 +50937,7 @@
         <v>0.0</v>
       </c>
       <c r="G855" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H855" s="2" t="s">
         <v>3373</v>
@@ -51289,7 +51289,7 @@
         <v>0.0</v>
       </c>
       <c r="G863" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H863" s="2" t="s">
         <v>3395</v>
@@ -51377,7 +51377,7 @@
         <v>0.0</v>
       </c>
       <c r="G865" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H865" s="2" t="s">
         <v>3401</v>
@@ -51465,7 +51465,7 @@
         <v>0.0</v>
       </c>
       <c r="G867" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H867" s="2" t="s">
         <v>3408</v>
@@ -51509,7 +51509,7 @@
         <v>0.0</v>
       </c>
       <c r="G868" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H868" s="2" t="s">
         <v>3413</v>
@@ -51553,7 +51553,7 @@
         <v>0.0</v>
       </c>
       <c r="G869" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H869" s="2" t="s">
         <v>3418</v>
@@ -51597,7 +51597,7 @@
         <v>0.0</v>
       </c>
       <c r="G870" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H870" s="2" t="s">
         <v>3422</v>
@@ -51685,7 +51685,7 @@
         <v>0.0</v>
       </c>
       <c r="G872" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H872" s="2" t="s">
         <v>3431</v>
@@ -51729,7 +51729,7 @@
         <v>0.0</v>
       </c>
       <c r="G873" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H873" s="2" t="s">
         <v>3435</v>
@@ -51773,7 +51773,7 @@
         <v>0.0</v>
       </c>
       <c r="G874" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H874" s="2" t="s">
         <v>3439</v>
@@ -51817,7 +51817,7 @@
         <v>0.0</v>
       </c>
       <c r="G875" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H875" s="2" t="s">
         <v>3444</v>
@@ -51861,7 +51861,7 @@
         <v>0.0</v>
       </c>
       <c r="G876" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H876" s="2" t="s">
         <v>3449</v>
@@ -51949,7 +51949,7 @@
         <v>0.0</v>
       </c>
       <c r="G878" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H878" s="2" t="s">
         <v>3456</v>
@@ -51993,7 +51993,7 @@
         <v>0.0</v>
       </c>
       <c r="G879" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H879" s="2" t="s">
         <v>3460</v>
@@ -52037,7 +52037,7 @@
         <v>0.0</v>
       </c>
       <c r="G880" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H880" s="2" t="s">
         <v>3464</v>
@@ -52081,7 +52081,7 @@
         <v>0.0</v>
       </c>
       <c r="G881" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H881" s="2" t="s">
         <v>3469</v>
@@ -52125,7 +52125,7 @@
         <v>0.0</v>
       </c>
       <c r="G882" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H882" s="2" t="s">
         <v>3474</v>
@@ -52257,7 +52257,7 @@
         <v>0.0</v>
       </c>
       <c r="G885" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H885" s="2" t="s">
         <v>3483</v>
@@ -52389,7 +52389,7 @@
         <v>0.0</v>
       </c>
       <c r="G888" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H888" s="2" t="s">
         <v>3492</v>
@@ -52433,7 +52433,7 @@
         <v>0.0</v>
       </c>
       <c r="G889" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H889" s="2" t="s">
         <v>3495</v>
@@ -52565,7 +52565,7 @@
         <v>0.0</v>
       </c>
       <c r="G892" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H892" s="2" t="s">
         <v>3503</v>
@@ -52653,7 +52653,7 @@
         <v>0.0</v>
       </c>
       <c r="G894" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H894" s="2" t="s">
         <v>3511</v>
@@ -52741,7 +52741,7 @@
         <v>0.0</v>
       </c>
       <c r="G896" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H896" s="2" t="s">
         <v>28</v>
@@ -52785,7 +52785,7 @@
         <v>0.0</v>
       </c>
       <c r="G897" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H897" s="2" t="s">
         <v>3521</v>
@@ -52829,7 +52829,7 @@
         <v>0.0</v>
       </c>
       <c r="G898" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H898" s="2" t="s">
         <v>3527</v>
@@ -52917,7 +52917,7 @@
         <v>0.0</v>
       </c>
       <c r="G900" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H900" s="2" t="s">
         <v>3535</v>
@@ -52961,7 +52961,7 @@
         <v>0.0</v>
       </c>
       <c r="G901" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H901" s="2" t="s">
         <v>3539</v>
@@ -53049,7 +53049,7 @@
         <v>0.0</v>
       </c>
       <c r="G903" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H903" s="2" t="s">
         <v>3547</v>
@@ -53093,7 +53093,7 @@
         <v>0.0</v>
       </c>
       <c r="G904" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H904" s="2" t="s">
         <v>3553</v>
@@ -53225,7 +53225,7 @@
         <v>0.0</v>
       </c>
       <c r="G907" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H907" s="2" t="s">
         <v>3568</v>
@@ -53269,7 +53269,7 @@
         <v>0.0</v>
       </c>
       <c r="G908" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H908" s="2" t="s">
         <v>3573</v>
@@ -53313,7 +53313,7 @@
         <v>0.0</v>
       </c>
       <c r="G909" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H909" s="2" t="s">
         <v>3579</v>
@@ -53357,7 +53357,7 @@
         <v>0.0</v>
       </c>
       <c r="G910" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H910" s="2" t="s">
         <v>3584</v>
@@ -53445,7 +53445,7 @@
         <v>0.0</v>
       </c>
       <c r="G912" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H912" s="2" t="s">
         <v>3594</v>
@@ -53533,7 +53533,7 @@
         <v>0.0</v>
       </c>
       <c r="G914" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H914" s="2" t="s">
         <v>3601</v>
@@ -53621,7 +53621,7 @@
         <v>0.0</v>
       </c>
       <c r="G916" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H916" s="2" t="s">
         <v>3609</v>
@@ -53665,7 +53665,7 @@
         <v>0.0</v>
       </c>
       <c r="G917" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H917" s="2" t="s">
         <v>3614</v>
@@ -53797,7 +53797,7 @@
         <v>0.0</v>
       </c>
       <c r="G920" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H920" s="2" t="s">
         <v>3625</v>
@@ -53885,7 +53885,7 @@
         <v>0.0</v>
       </c>
       <c r="G922" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H922" s="2" t="s">
         <v>3631</v>
@@ -53929,7 +53929,7 @@
         <v>0.0</v>
       </c>
       <c r="G923" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H923" s="2" t="s">
         <v>3635</v>
@@ -54017,7 +54017,7 @@
         <v>0.0</v>
       </c>
       <c r="G925" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H925" s="2" t="s">
         <v>3642</v>
@@ -54061,7 +54061,7 @@
         <v>0.0</v>
       </c>
       <c r="G926" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H926" s="2" t="s">
         <v>3646</v>
@@ -54105,7 +54105,7 @@
         <v>0.0</v>
       </c>
       <c r="G927" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H927" s="2" t="s">
         <v>3651</v>
@@ -54149,7 +54149,7 @@
         <v>0.0</v>
       </c>
       <c r="G928" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H928" s="2" t="s">
         <v>3657</v>
@@ -54237,7 +54237,7 @@
         <v>0.0</v>
       </c>
       <c r="G930" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H930" s="2" t="s">
         <v>3663</v>
@@ -54281,7 +54281,7 @@
         <v>0.0</v>
       </c>
       <c r="G931" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H931" s="2" t="s">
         <v>3669</v>
@@ -54413,7 +54413,7 @@
         <v>0.0</v>
       </c>
       <c r="G934" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H934" s="2" t="s">
         <v>3681</v>
@@ -54457,7 +54457,7 @@
         <v>0.0</v>
       </c>
       <c r="G935" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H935" s="2" t="s">
         <v>3686</v>
@@ -54545,7 +54545,7 @@
         <v>0.0</v>
       </c>
       <c r="G937" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H937" s="2" t="s">
         <v>3698</v>
@@ -54589,7 +54589,7 @@
         <v>0.0</v>
       </c>
       <c r="G938" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H938" s="2" t="s">
         <v>3702</v>
@@ -54633,7 +54633,7 @@
         <v>0.0</v>
       </c>
       <c r="G939" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H939" s="2" t="s">
         <v>3706</v>
@@ -54677,7 +54677,7 @@
         <v>0.0</v>
       </c>
       <c r="G940" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H940" s="2" t="s">
         <v>3711</v>
@@ -54765,7 +54765,7 @@
         <v>0.0</v>
       </c>
       <c r="G942" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H942" s="2" t="s">
         <v>3717</v>
@@ -54809,7 +54809,7 @@
         <v>0.0</v>
       </c>
       <c r="G943" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H943" s="2" t="s">
         <v>3722</v>
@@ -54941,7 +54941,7 @@
         <v>0.0</v>
       </c>
       <c r="G946" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H946" s="2" t="s">
         <v>3731</v>
@@ -54985,7 +54985,7 @@
         <v>0.0</v>
       </c>
       <c r="G947" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H947" s="2" t="s">
         <v>3735</v>
@@ -55073,7 +55073,7 @@
         <v>0.0</v>
       </c>
       <c r="G949" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H949" s="2" t="s">
         <v>3741</v>
@@ -55117,7 +55117,7 @@
         <v>0.0</v>
       </c>
       <c r="G950" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H950" s="2" t="s">
         <v>3747</v>
@@ -55557,7 +55557,7 @@
         <v>0.0</v>
       </c>
       <c r="G960" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H960" s="2" t="s">
         <v>3769</v>
@@ -55601,7 +55601,7 @@
         <v>0.0</v>
       </c>
       <c r="G961" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H961" s="2" t="s">
         <v>3773</v>
@@ -55645,7 +55645,7 @@
         <v>0.0</v>
       </c>
       <c r="G962" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H962" s="2" t="s">
         <v>3777</v>
@@ -55689,7 +55689,7 @@
         <v>0.0</v>
       </c>
       <c r="G963" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H963" s="2" t="s">
         <v>3782</v>
@@ -55821,7 +55821,7 @@
         <v>0.0</v>
       </c>
       <c r="G966" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H966" s="2" t="s">
         <v>3789</v>
@@ -55909,7 +55909,7 @@
         <v>0.0</v>
       </c>
       <c r="G968" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H968" s="2" t="s">
         <v>3793</v>
@@ -55953,7 +55953,7 @@
         <v>0.0</v>
       </c>
       <c r="G969" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H969" s="2" t="s">
         <v>3798</v>
@@ -55997,7 +55997,7 @@
         <v>0.0</v>
       </c>
       <c r="G970" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H970" s="2" t="s">
         <v>3802</v>
@@ -56217,7 +56217,7 @@
         <v>0.0</v>
       </c>
       <c r="G975" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H975" s="2" t="s">
         <v>3812</v>
@@ -56305,7 +56305,7 @@
         <v>0.0</v>
       </c>
       <c r="G977" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H977" s="2" t="s">
         <v>3818</v>
@@ -56393,7 +56393,7 @@
         <v>0.0</v>
       </c>
       <c r="G979" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H979" s="2" t="s">
         <v>3823</v>
@@ -56569,7 +56569,7 @@
         <v>0.0</v>
       </c>
       <c r="G983" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H983" s="2" t="s">
         <v>3831</v>
@@ -56613,7 +56613,7 @@
         <v>0.0</v>
       </c>
       <c r="G984" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H984" s="2" t="s">
         <v>3836</v>
@@ -56657,7 +56657,7 @@
         <v>0.0</v>
       </c>
       <c r="G985" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H985" s="2" t="s">
         <v>3839</v>
@@ -56745,7 +56745,7 @@
         <v>0.0</v>
       </c>
       <c r="G987" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H987" s="2" t="s">
         <v>3848</v>
@@ -56789,7 +56789,7 @@
         <v>0.0</v>
       </c>
       <c r="G988" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H988" s="2" t="s">
         <v>3854</v>
@@ -56921,7 +56921,7 @@
         <v>0.0</v>
       </c>
       <c r="G991" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H991" s="2" t="s">
         <v>3864</v>
@@ -57009,7 +57009,7 @@
         <v>0.0</v>
       </c>
       <c r="G993" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H993" s="2" t="s">
         <v>3870</v>
@@ -57053,7 +57053,7 @@
         <v>0.0</v>
       </c>
       <c r="G994" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H994" s="2" t="s">
         <v>3872</v>
@@ -57097,7 +57097,7 @@
         <v>0.0</v>
       </c>
       <c r="G995" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H995" s="2" t="s">
         <v>3875</v>
@@ -57141,7 +57141,7 @@
         <v>0.0</v>
       </c>
       <c r="G996" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H996" s="2" t="s">
         <v>3881</v>
@@ -57185,7 +57185,7 @@
         <v>0.0</v>
       </c>
       <c r="G997" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H997" s="2" t="s">
         <v>3885</v>
@@ -57273,7 +57273,7 @@
         <v>0.0</v>
       </c>
       <c r="G999" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H999" s="2" t="s">
         <v>3891</v>
@@ -57361,7 +57361,7 @@
         <v>0.0</v>
       </c>
       <c r="G1001" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1001" s="2" t="s">
         <v>3897</v>
@@ -57405,7 +57405,7 @@
         <v>0.0</v>
       </c>
       <c r="G1002" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1002" s="2" t="s">
         <v>3902</v>
@@ -58109,7 +58109,7 @@
         <v>0.0</v>
       </c>
       <c r="G1018" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1018" s="2" t="s">
         <v>3932</v>
@@ -58153,7 +58153,7 @@
         <v>0.0</v>
       </c>
       <c r="G1019" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1019" s="2" t="s">
         <v>3938</v>
@@ -58197,7 +58197,7 @@
         <v>0.0</v>
       </c>
       <c r="G1020" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1020" s="2" t="s">
         <v>3942</v>
@@ -58241,7 +58241,7 @@
         <v>0.0</v>
       </c>
       <c r="G1021" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1021" s="2" t="s">
         <v>3947</v>
@@ -58329,7 +58329,7 @@
         <v>0.0</v>
       </c>
       <c r="G1023" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1023" s="2" t="s">
         <v>3959</v>
@@ -58461,7 +58461,7 @@
         <v>0.0</v>
       </c>
       <c r="G1026" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1026" s="2" t="s">
         <v>3965</v>
@@ -58549,7 +58549,7 @@
         <v>0.0</v>
       </c>
       <c r="G1028" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1028" s="2" t="s">
         <v>3971</v>
@@ -58593,7 +58593,7 @@
         <v>0.0</v>
       </c>
       <c r="G1029" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1029" s="2" t="s">
         <v>3974</v>
@@ -58637,7 +58637,7 @@
         <v>0.0</v>
       </c>
       <c r="G1030" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1030" s="2" t="s">
         <v>3979</v>
@@ -58725,7 +58725,7 @@
         <v>0.0</v>
       </c>
       <c r="G1032" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1032" s="2" t="s">
         <v>3986</v>
@@ -58769,7 +58769,7 @@
         <v>0.0</v>
       </c>
       <c r="G1033" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1033" s="2" t="s">
         <v>3990</v>
@@ -58813,7 +58813,7 @@
         <v>0.0</v>
       </c>
       <c r="G1034" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1034" s="2" t="s">
         <v>3993</v>
@@ -58945,7 +58945,7 @@
         <v>0.0</v>
       </c>
       <c r="G1037" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1037" s="2" t="s">
         <v>4002</v>
@@ -58989,7 +58989,7 @@
         <v>0.0</v>
       </c>
       <c r="G1038" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1038" s="2" t="s">
         <v>4007</v>
@@ -59121,7 +59121,7 @@
         <v>0.0</v>
       </c>
       <c r="G1041" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1041" s="2" t="s">
         <v>4018</v>
@@ -59165,7 +59165,7 @@
         <v>0.0</v>
       </c>
       <c r="G1042" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1042" s="2" t="s">
         <v>4024</v>
@@ -59209,7 +59209,7 @@
         <v>0.0</v>
       </c>
       <c r="G1043" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1043" s="2" t="s">
         <v>4030</v>
@@ -59253,7 +59253,7 @@
         <v>0.0</v>
       </c>
       <c r="G1044" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1044" s="2" t="s">
         <v>4036</v>
@@ -59341,7 +59341,7 @@
         <v>0.0</v>
       </c>
       <c r="G1046" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1046" s="2" t="s">
         <v>28</v>
@@ -59517,7 +59517,7 @@
         <v>0.0</v>
       </c>
       <c r="G1050" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1050" s="2" t="s">
         <v>4054</v>
@@ -59561,7 +59561,7 @@
         <v>0.0</v>
       </c>
       <c r="G1051" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1051" s="2" t="s">
         <v>4058</v>
@@ -59693,7 +59693,7 @@
         <v>0.0</v>
       </c>
       <c r="G1054" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1054" s="2" t="s">
         <v>4067</v>
@@ -59737,7 +59737,7 @@
         <v>0.0</v>
       </c>
       <c r="G1055" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1055" s="2" t="s">
         <v>4071</v>
@@ -59781,7 +59781,7 @@
         <v>0.0</v>
       </c>
       <c r="G1056" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1056" s="2" t="s">
         <v>4074</v>
@@ -59825,7 +59825,7 @@
         <v>0.0</v>
       </c>
       <c r="G1057" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1057" s="2" t="s">
         <v>4080</v>
@@ -59869,7 +59869,7 @@
         <v>0.0</v>
       </c>
       <c r="G1058" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1058" s="2" t="s">
         <v>4084</v>
@@ -59913,7 +59913,7 @@
         <v>0.0</v>
       </c>
       <c r="G1059" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1059" s="2" t="s">
         <v>4088</v>
@@ -59957,7 +59957,7 @@
         <v>0.0</v>
       </c>
       <c r="G1060" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1060" s="2" t="s">
         <v>4092</v>
@@ -60001,7 +60001,7 @@
         <v>0.0</v>
       </c>
       <c r="G1061" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1061" s="2" t="s">
         <v>4097</v>
@@ -60221,7 +60221,7 @@
         <v>0.0</v>
       </c>
       <c r="G1066" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1066" s="2" t="s">
         <v>4112</v>
@@ -60265,7 +60265,7 @@
         <v>0.0</v>
       </c>
       <c r="G1067" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1067" s="2" t="s">
         <v>4118</v>
@@ -60309,7 +60309,7 @@
         <v>0.0</v>
       </c>
       <c r="G1068" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1068" s="2" t="s">
         <v>4123</v>
@@ -60353,7 +60353,7 @@
         <v>0.0</v>
       </c>
       <c r="G1069" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1069" s="2" t="s">
         <v>4126</v>
@@ -60397,7 +60397,7 @@
         <v>0.0</v>
       </c>
       <c r="G1070" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1070" s="2" t="s">
         <v>4130</v>
@@ -60441,7 +60441,7 @@
         <v>0.0</v>
       </c>
       <c r="G1071" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1071" s="2" t="s">
         <v>4136</v>
@@ -60485,7 +60485,7 @@
         <v>0.0</v>
       </c>
       <c r="G1072" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1072" s="2" t="s">
         <v>4142</v>
@@ -60573,7 +60573,7 @@
         <v>0.0</v>
       </c>
       <c r="G1074" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1074" s="2" t="s">
         <v>4149</v>
@@ -60617,7 +60617,7 @@
         <v>0.0</v>
       </c>
       <c r="G1075" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1075" s="2" t="s">
         <v>4154</v>
@@ -60705,7 +60705,7 @@
         <v>0.0</v>
       </c>
       <c r="G1077" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1077" s="2" t="s">
         <v>4161</v>
@@ -60749,7 +60749,7 @@
         <v>0.0</v>
       </c>
       <c r="G1078" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1078" s="2" t="s">
         <v>4166</v>
@@ -60793,7 +60793,7 @@
         <v>0.0</v>
       </c>
       <c r="G1079" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1079" s="2" t="s">
         <v>4171</v>
@@ -60837,7 +60837,7 @@
         <v>0.0</v>
       </c>
       <c r="G1080" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1080" s="2" t="s">
         <v>4176</v>
@@ -61145,7 +61145,7 @@
         <v>0.0</v>
       </c>
       <c r="G1087" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1087" s="2" t="s">
         <v>4197</v>
@@ -61277,7 +61277,7 @@
         <v>0.0</v>
       </c>
       <c r="G1090" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1090" s="2" t="s">
         <v>4207</v>
@@ -61321,7 +61321,7 @@
         <v>0.0</v>
       </c>
       <c r="G1091" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1091" s="2" t="s">
         <v>4212</v>
@@ -61365,7 +61365,7 @@
         <v>0.0</v>
       </c>
       <c r="G1092" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1092" s="2" t="s">
         <v>4217</v>
@@ -61497,7 +61497,7 @@
         <v>0.0</v>
       </c>
       <c r="G1095" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1095" s="2" t="s">
         <v>4228</v>
@@ -61541,7 +61541,7 @@
         <v>0.0</v>
       </c>
       <c r="G1096" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1096" s="2" t="s">
         <v>4235</v>
@@ -61585,7 +61585,7 @@
         <v>0.0</v>
       </c>
       <c r="G1097" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1097" s="2" t="s">
         <v>4240</v>
@@ -61629,7 +61629,7 @@
         <v>0.0</v>
       </c>
       <c r="G1098" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1098" s="2" t="s">
         <v>4246</v>
@@ -61673,7 +61673,7 @@
         <v>0.0</v>
       </c>
       <c r="G1099" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1099" s="2" t="s">
         <v>4251</v>
@@ -61717,7 +61717,7 @@
         <v>0.0</v>
       </c>
       <c r="G1100" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1100" s="2" t="s">
         <v>4257</v>
@@ -61761,7 +61761,7 @@
         <v>0.0</v>
       </c>
       <c r="G1101" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1101" s="2" t="s">
         <v>4261</v>
@@ -61805,7 +61805,7 @@
         <v>0.0</v>
       </c>
       <c r="G1102" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1102" s="2" t="s">
         <v>4266</v>
@@ -61849,7 +61849,7 @@
         <v>0.0</v>
       </c>
       <c r="G1103" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1103" s="2" t="s">
         <v>4268</v>
@@ -61893,7 +61893,7 @@
         <v>0.0</v>
       </c>
       <c r="G1104" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1104" s="2" t="s">
         <v>4275</v>
@@ -61937,7 +61937,7 @@
         <v>0.0</v>
       </c>
       <c r="G1105" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1105" s="2" t="s">
         <v>4281</v>
@@ -61981,7 +61981,7 @@
         <v>0.0</v>
       </c>
       <c r="G1106" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1106" s="2" t="s">
         <v>4287</v>
@@ -62025,7 +62025,7 @@
         <v>0.0</v>
       </c>
       <c r="G1107" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1107" s="2" t="s">
         <v>4292</v>
@@ -62069,7 +62069,7 @@
         <v>0.0</v>
       </c>
       <c r="G1108" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1108" s="2" t="s">
         <v>4297</v>
@@ -62113,7 +62113,7 @@
         <v>0.0</v>
       </c>
       <c r="G1109" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1109" s="2" t="s">
         <v>4302</v>
@@ -62157,7 +62157,7 @@
         <v>0.0</v>
       </c>
       <c r="G1110" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1110" s="2" t="s">
         <v>4305</v>
@@ -62201,7 +62201,7 @@
         <v>0.0</v>
       </c>
       <c r="G1111" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1111" s="2" t="s">
         <v>4310</v>
@@ -62245,7 +62245,7 @@
         <v>0.0</v>
       </c>
       <c r="G1112" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1112" s="2" t="s">
         <v>4313</v>
@@ -62333,7 +62333,7 @@
         <v>0.0</v>
       </c>
       <c r="G1114" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1114" s="2" t="s">
         <v>4321</v>
@@ -62377,7 +62377,7 @@
         <v>0.0</v>
       </c>
       <c r="G1115" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1115" s="2" t="s">
         <v>4325</v>
@@ -62465,7 +62465,7 @@
         <v>0.0</v>
       </c>
       <c r="G1117" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1117" s="2" t="s">
         <v>4335</v>
@@ -62553,7 +62553,7 @@
         <v>0.0</v>
       </c>
       <c r="G1119" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1119" s="2" t="s">
         <v>4345</v>
@@ -62641,7 +62641,7 @@
         <v>0.0</v>
       </c>
       <c r="G1121" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1121" s="2" t="s">
         <v>4353</v>
@@ -62729,7 +62729,7 @@
         <v>0.0</v>
       </c>
       <c r="G1123" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1123" s="2" t="s">
         <v>4360</v>
@@ -62773,7 +62773,7 @@
         <v>0.0</v>
       </c>
       <c r="G1124" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1124" s="2" t="s">
         <v>4365</v>
@@ -62817,7 +62817,7 @@
         <v>0.0</v>
       </c>
       <c r="G1125" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1125" s="2" t="s">
         <v>4368</v>
@@ -62861,7 +62861,7 @@
         <v>0.0</v>
       </c>
       <c r="G1126" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1126" s="2" t="s">
         <v>4372</v>
@@ -62905,7 +62905,7 @@
         <v>0.0</v>
       </c>
       <c r="G1127" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1127" s="2" t="s">
         <v>4376</v>
@@ -62949,7 +62949,7 @@
         <v>0.0</v>
       </c>
       <c r="G1128" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1128" s="2" t="s">
         <v>4381</v>
@@ -63037,7 +63037,7 @@
         <v>0.0</v>
       </c>
       <c r="G1130" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1130" s="2" t="s">
         <v>4389</v>
@@ -63081,7 +63081,7 @@
         <v>0.0</v>
       </c>
       <c r="G1131" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1131" s="2" t="s">
         <v>4394</v>
@@ -63125,7 +63125,7 @@
         <v>0.0</v>
       </c>
       <c r="G1132" s="2" t="n">
-        <v>0.0</v>
+        <v>588.0</v>
       </c>
       <c r="H1132" s="2" t="s">
         <v>4399</v>

--- a/Leaderboards/CurrentCMRITLeaderboard2025.xlsx
+++ b/Leaderboards/CurrentCMRITLeaderboard2025.xlsx
@@ -13440,7 +13440,7 @@
         <v>21</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>789.0</v>
+        <v>817.0</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
@@ -13572,7 +13572,7 @@
         <v>35</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>664.0</v>
+        <v>629.0</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>36</v>
@@ -13681,7 +13681,7 @@
         <v>43</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1312.0</v>
+        <v>979.0</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>44</v>
@@ -13748,7 +13748,7 @@
         <v>50</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>831.0</v>
+        <v>774.0</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>51</v>
@@ -14056,7 +14056,7 @@
         <v>74</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>545.0</v>
+        <v>611.0</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>75</v>
@@ -14408,7 +14408,7 @@
         <v>108</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>678.0</v>
+        <v>841.0</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>109</v>
@@ -15156,7 +15156,7 @@
         <v>178</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>355.0</v>
+        <v>589.0</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>179</v>
@@ -15288,7 +15288,7 @@
         <v>192</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>750.0</v>
+        <v>707.0</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>193</v>
@@ -15749,7 +15749,7 @@
         <v>235</v>
       </c>
       <c r="K55" s="2" t="n">
-        <v>1445.0</v>
+        <v>1128.0</v>
       </c>
       <c r="L55" s="2" t="s">
         <v>233</v>
@@ -16168,7 +16168,7 @@
         <v>276</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>567.0</v>
+        <v>693.0</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>277</v>
@@ -16432,7 +16432,7 @@
         <v>294</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>644.0</v>
+        <v>763.0</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>27</v>
@@ -16564,7 +16564,7 @@
         <v>309</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>822.0</v>
+        <v>844.0</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>310</v>
@@ -16828,7 +16828,7 @@
         <v>335</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>354.0</v>
+        <v>619.0</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>336</v>
@@ -17224,7 +17224,7 @@
         <v>365</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>893.0</v>
+        <v>1026.0</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>366</v>
@@ -17245,7 +17245,7 @@
         <v>368</v>
       </c>
       <c r="K89" s="2" t="n">
-        <v>1092.0</v>
+        <v>764.0</v>
       </c>
       <c r="L89" s="2" t="s">
         <v>367</v>
@@ -17664,7 +17664,7 @@
         <v>406</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>778.0</v>
+        <v>791.0</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>407</v>
@@ -18104,7 +18104,7 @@
         <v>450</v>
       </c>
       <c r="D109" s="2" t="n">
-        <v>865.0</v>
+        <v>759.0</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>450</v>
@@ -18984,7 +18984,7 @@
         <v>527</v>
       </c>
       <c r="D129" s="2" t="n">
-        <v>703.0</v>
+        <v>898.0</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>527</v>
@@ -20128,7 +20128,7 @@
         <v>622</v>
       </c>
       <c r="D155" s="2" t="n">
-        <v>743.0</v>
+        <v>643.0</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>623</v>
@@ -20260,7 +20260,7 @@
         <v>636</v>
       </c>
       <c r="D158" s="2" t="n">
-        <v>601.0</v>
+        <v>826.0</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>637</v>
@@ -20832,7 +20832,7 @@
         <v>692</v>
       </c>
       <c r="D171" s="2" t="n">
-        <v>0.0</v>
+        <v>357.0</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>693</v>
@@ -21492,7 +21492,7 @@
         <v>765</v>
       </c>
       <c r="D186" s="2" t="n">
-        <v>748.0</v>
+        <v>742.0</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>766</v>
@@ -21580,7 +21580,7 @@
         <v>773</v>
       </c>
       <c r="D188" s="2" t="n">
-        <v>0.0</v>
+        <v>381.0</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>773</v>
@@ -21624,7 +21624,7 @@
         <v>777</v>
       </c>
       <c r="D189" s="2" t="n">
-        <v>897.0</v>
+        <v>1007.0</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>778</v>
@@ -22328,7 +22328,7 @@
         <v>837</v>
       </c>
       <c r="D205" s="2" t="n">
-        <v>0.0</v>
+        <v>360.0</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>838</v>
@@ -23560,7 +23560,7 @@
         <v>933</v>
       </c>
       <c r="D233" s="2" t="n">
-        <v>848.0</v>
+        <v>847.0</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>934</v>
@@ -23736,7 +23736,7 @@
         <v>952</v>
       </c>
       <c r="D237" s="2" t="n">
-        <v>836.0</v>
+        <v>865.0</v>
       </c>
       <c r="E237" s="2" t="s">
         <v>953</v>
@@ -24616,7 +24616,7 @@
         <v>1027</v>
       </c>
       <c r="D257" s="2" t="n">
-        <v>854.0</v>
+        <v>842.0</v>
       </c>
       <c r="E257" s="2" t="s">
         <v>1028</v>
@@ -24880,7 +24880,7 @@
         <v>1046</v>
       </c>
       <c r="D263" s="2" t="n">
-        <v>659.0</v>
+        <v>563.0</v>
       </c>
       <c r="E263" s="2" t="s">
         <v>1047</v>
@@ -25276,7 +25276,7 @@
         <v>1069</v>
       </c>
       <c r="D272" s="2" t="n">
-        <v>773.0</v>
+        <v>829.0</v>
       </c>
       <c r="E272" s="2" t="s">
         <v>1070</v>
@@ -25452,7 +25452,7 @@
         <v>1088</v>
       </c>
       <c r="D276" s="2" t="n">
-        <v>890.0</v>
+        <v>901.0</v>
       </c>
       <c r="E276" s="2" t="s">
         <v>1089</v>
@@ -25496,7 +25496,7 @@
         <v>1094</v>
       </c>
       <c r="D277" s="2" t="n">
-        <v>651.0</v>
+        <v>795.0</v>
       </c>
       <c r="E277" s="2" t="s">
         <v>1095</v>
@@ -25672,7 +25672,7 @@
         <v>1116</v>
       </c>
       <c r="D281" s="2" t="n">
-        <v>773.0</v>
+        <v>715.0</v>
       </c>
       <c r="E281" s="2" t="s">
         <v>1117</v>
@@ -26353,7 +26353,7 @@
         <v>1178</v>
       </c>
       <c r="K296" s="2" t="n">
-        <v>1155.0</v>
+        <v>821.0</v>
       </c>
       <c r="L296" s="2" t="s">
         <v>1180</v>
@@ -26772,7 +26772,7 @@
         <v>1217</v>
       </c>
       <c r="D306" s="2" t="n">
-        <v>752.0</v>
+        <v>740.0</v>
       </c>
       <c r="E306" s="2" t="s">
         <v>1218</v>
@@ -26860,7 +26860,7 @@
         <v>1226</v>
       </c>
       <c r="D308" s="2" t="n">
-        <v>696.0</v>
+        <v>730.0</v>
       </c>
       <c r="E308" s="2" t="s">
         <v>1227</v>
@@ -26904,7 +26904,7 @@
         <v>1230</v>
       </c>
       <c r="D309" s="2" t="n">
-        <v>732.0</v>
+        <v>791.0</v>
       </c>
       <c r="E309" s="2" t="s">
         <v>1231</v>
@@ -27080,7 +27080,7 @@
         <v>1245</v>
       </c>
       <c r="D313" s="2" t="n">
-        <v>860.0</v>
+        <v>913.0</v>
       </c>
       <c r="E313" s="2" t="s">
         <v>1246</v>
@@ -27256,7 +27256,7 @@
         <v>1260</v>
       </c>
       <c r="D317" s="2" t="n">
-        <v>558.0</v>
+        <v>533.0</v>
       </c>
       <c r="E317" s="2" t="s">
         <v>1261</v>
@@ -27300,7 +27300,7 @@
         <v>1266</v>
       </c>
       <c r="D318" s="2" t="n">
-        <v>737.0</v>
+        <v>769.0</v>
       </c>
       <c r="E318" s="2" t="s">
         <v>1267</v>
@@ -27872,7 +27872,7 @@
         <v>1315</v>
       </c>
       <c r="D331" s="2" t="n">
-        <v>701.0</v>
+        <v>753.0</v>
       </c>
       <c r="E331" s="2" t="s">
         <v>1316</v>
@@ -28004,7 +28004,7 @@
         <v>1325</v>
       </c>
       <c r="D334" s="2" t="n">
-        <v>749.0</v>
+        <v>913.0</v>
       </c>
       <c r="E334" s="2" t="s">
         <v>1326</v>
@@ -28025,7 +28025,7 @@
         <v>1328</v>
       </c>
       <c r="K334" s="2" t="n">
-        <v>876.0</v>
+        <v>438.0</v>
       </c>
       <c r="L334" s="2" t="s">
         <v>1327</v>
@@ -28092,7 +28092,7 @@
         <v>1334</v>
       </c>
       <c r="D336" s="2" t="n">
-        <v>1166.0</v>
+        <v>1222.0</v>
       </c>
       <c r="E336" s="2" t="s">
         <v>1335</v>
@@ -28356,7 +28356,7 @@
         <v>1356</v>
       </c>
       <c r="D342" s="2" t="n">
-        <v>670.0</v>
+        <v>732.0</v>
       </c>
       <c r="E342" s="2" t="s">
         <v>1357</v>
@@ -28444,7 +28444,7 @@
         <v>1366</v>
       </c>
       <c r="D344" s="2" t="n">
-        <v>813.0</v>
+        <v>845.0</v>
       </c>
       <c r="E344" s="2" t="s">
         <v>1367</v>
@@ -28509,7 +28509,7 @@
         <v>1375</v>
       </c>
       <c r="K345" s="2" t="n">
-        <v>1328.0</v>
+        <v>962.0</v>
       </c>
       <c r="L345" s="2" t="s">
         <v>1374</v>
@@ -28708,7 +28708,7 @@
         <v>1391</v>
       </c>
       <c r="D350" s="2" t="n">
-        <v>791.0</v>
+        <v>781.0</v>
       </c>
       <c r="E350" s="2" t="s">
         <v>1392</v>
@@ -28796,7 +28796,7 @@
         <v>1400</v>
       </c>
       <c r="D352" s="2" t="n">
-        <v>348.0</v>
+        <v>563.0</v>
       </c>
       <c r="E352" s="2" t="s">
         <v>1401</v>
@@ -29500,7 +29500,7 @@
         <v>1460</v>
       </c>
       <c r="D368" s="2" t="n">
-        <v>578.0</v>
+        <v>717.0</v>
       </c>
       <c r="E368" s="2" t="s">
         <v>1461</v>
@@ -29521,7 +29521,7 @@
         <v>1463</v>
       </c>
       <c r="K368" s="2" t="n">
-        <v>1237.0</v>
+        <v>904.0</v>
       </c>
       <c r="L368" s="2" t="s">
         <v>1462</v>
@@ -29741,7 +29741,7 @@
         <v>1484</v>
       </c>
       <c r="K373" s="2" t="n">
-        <v>1393.0</v>
+        <v>1066.0</v>
       </c>
       <c r="L373" s="2" t="s">
         <v>1485</v>
@@ -29785,7 +29785,7 @@
         <v>1489</v>
       </c>
       <c r="K374" s="2" t="n">
-        <v>1418.0</v>
+        <v>1090.0</v>
       </c>
       <c r="L374" s="2" t="s">
         <v>1490</v>
@@ -29808,7 +29808,7 @@
         <v>1492</v>
       </c>
       <c r="D375" s="2" t="n">
-        <v>791.0</v>
+        <v>783.0</v>
       </c>
       <c r="E375" s="2" t="s">
         <v>1493</v>
@@ -30116,7 +30116,7 @@
         <v>1528</v>
       </c>
       <c r="D382" s="2" t="n">
-        <v>352.0</v>
+        <v>572.0</v>
       </c>
       <c r="E382" s="2" t="s">
         <v>1528</v>
@@ -30424,7 +30424,7 @@
         <v>1554</v>
       </c>
       <c r="D389" s="2" t="n">
-        <v>770.0</v>
+        <v>781.0</v>
       </c>
       <c r="E389" s="2" t="s">
         <v>1555</v>
@@ -30468,7 +30468,7 @@
         <v>1560</v>
       </c>
       <c r="D390" s="2" t="n">
-        <v>768.0</v>
+        <v>773.0</v>
       </c>
       <c r="E390" s="2" t="s">
         <v>1561</v>
@@ -30512,7 +30512,7 @@
         <v>1566</v>
       </c>
       <c r="D391" s="2" t="n">
-        <v>556.0</v>
+        <v>644.0</v>
       </c>
       <c r="E391" s="2" t="s">
         <v>1566</v>
@@ -31128,7 +31128,7 @@
         <v>1620</v>
       </c>
       <c r="D405" s="2" t="n">
-        <v>661.0</v>
+        <v>599.0</v>
       </c>
       <c r="E405" s="2" t="s">
         <v>1621</v>
@@ -31172,7 +31172,7 @@
         <v>1624</v>
       </c>
       <c r="D406" s="2" t="n">
-        <v>799.0</v>
+        <v>789.0</v>
       </c>
       <c r="E406" s="2" t="s">
         <v>1625</v>
@@ -31568,7 +31568,7 @@
         <v>1669</v>
       </c>
       <c r="D415" s="2" t="n">
-        <v>754.0</v>
+        <v>863.0</v>
       </c>
       <c r="E415" s="2" t="s">
         <v>1670</v>
@@ -31589,7 +31589,7 @@
         <v>1672</v>
       </c>
       <c r="K415" s="2" t="n">
-        <v>927.0</v>
+        <v>573.0</v>
       </c>
       <c r="L415" s="2" t="s">
         <v>1673</v>
@@ -31744,7 +31744,7 @@
         <v>1687</v>
       </c>
       <c r="D419" s="2" t="n">
-        <v>927.0</v>
+        <v>952.0</v>
       </c>
       <c r="E419" s="2" t="s">
         <v>1688</v>
@@ -31985,7 +31985,7 @@
         <v>1711</v>
       </c>
       <c r="K424" s="2" t="n">
-        <v>1006.0</v>
+        <v>681.0</v>
       </c>
       <c r="L424" s="2" t="s">
         <v>1709</v>
@@ -32184,7 +32184,7 @@
         <v>1724</v>
       </c>
       <c r="D429" s="2" t="n">
-        <v>742.0</v>
+        <v>837.0</v>
       </c>
       <c r="E429" s="2" t="s">
         <v>1724</v>
@@ -32272,7 +32272,7 @@
         <v>1731</v>
       </c>
       <c r="D431" s="2" t="n">
-        <v>628.0</v>
+        <v>613.0</v>
       </c>
       <c r="E431" s="2" t="s">
         <v>1732</v>
@@ -32668,7 +32668,7 @@
         <v>1763</v>
       </c>
       <c r="D440" s="2" t="n">
-        <v>734.0</v>
+        <v>780.0</v>
       </c>
       <c r="E440" s="2" t="s">
         <v>1764</v>
@@ -32756,7 +32756,7 @@
         <v>1771</v>
       </c>
       <c r="D442" s="2" t="n">
-        <v>689.0</v>
+        <v>673.0</v>
       </c>
       <c r="E442" s="2" t="s">
         <v>1772</v>
@@ -33372,7 +33372,7 @@
         <v>1826</v>
       </c>
       <c r="D456" s="2" t="n">
-        <v>686.0</v>
+        <v>640.0</v>
       </c>
       <c r="E456" s="2" t="s">
         <v>1826</v>
@@ -33504,7 +33504,7 @@
         <v>1840</v>
       </c>
       <c r="D459" s="2" t="n">
-        <v>849.0</v>
+        <v>834.0</v>
       </c>
       <c r="E459" s="2" t="s">
         <v>1841</v>
@@ -33636,7 +33636,7 @@
         <v>1854</v>
       </c>
       <c r="D462" s="2" t="n">
-        <v>757.0</v>
+        <v>831.0</v>
       </c>
       <c r="E462" s="2" t="s">
         <v>1855</v>
@@ -34428,7 +34428,7 @@
         <v>1924</v>
       </c>
       <c r="D480" s="2" t="n">
-        <v>750.0</v>
+        <v>781.0</v>
       </c>
       <c r="E480" s="2" t="s">
         <v>1925</v>
@@ -34560,7 +34560,7 @@
         <v>1940</v>
       </c>
       <c r="D483" s="2" t="n">
-        <v>835.0</v>
+        <v>731.0</v>
       </c>
       <c r="E483" s="2" t="s">
         <v>1940</v>
@@ -34604,7 +34604,7 @@
         <v>1943</v>
       </c>
       <c r="D484" s="2" t="n">
-        <v>894.0</v>
+        <v>930.0</v>
       </c>
       <c r="E484" s="2" t="s">
         <v>1944</v>
@@ -34736,7 +34736,7 @@
         <v>1952</v>
       </c>
       <c r="D487" s="2" t="n">
-        <v>981.0</v>
+        <v>956.0</v>
       </c>
       <c r="E487" s="2" t="s">
         <v>1952</v>
@@ -35352,7 +35352,7 @@
         <v>2006</v>
       </c>
       <c r="D501" s="2" t="n">
-        <v>578.0</v>
+        <v>761.0</v>
       </c>
       <c r="E501" s="2" t="s">
         <v>2007</v>
@@ -35748,7 +35748,7 @@
         <v>2045</v>
       </c>
       <c r="D510" s="2" t="n">
-        <v>783.0</v>
+        <v>726.0</v>
       </c>
       <c r="E510" s="2" t="s">
         <v>2046</v>
@@ -35836,7 +35836,7 @@
         <v>2054</v>
       </c>
       <c r="D512" s="2" t="n">
-        <v>784.0</v>
+        <v>709.0</v>
       </c>
       <c r="E512" s="2" t="s">
         <v>2055</v>
@@ -35968,7 +35968,7 @@
         <v>2069</v>
       </c>
       <c r="D515" s="2" t="n">
-        <v>852.0</v>
+        <v>790.0</v>
       </c>
       <c r="E515" s="2" t="s">
         <v>2070</v>
@@ -36012,7 +36012,7 @@
         <v>2073</v>
       </c>
       <c r="D516" s="2" t="n">
-        <v>533.0</v>
+        <v>563.0</v>
       </c>
       <c r="E516" s="2" t="s">
         <v>2074</v>
@@ -36320,7 +36320,7 @@
         <v>2091</v>
       </c>
       <c r="D523" s="2" t="n">
-        <v>814.0</v>
+        <v>734.0</v>
       </c>
       <c r="E523" s="2" t="s">
         <v>2092</v>
@@ -36364,7 +36364,7 @@
         <v>2095</v>
       </c>
       <c r="D524" s="2" t="n">
-        <v>860.0</v>
+        <v>777.0</v>
       </c>
       <c r="E524" s="2" t="s">
         <v>2096</v>
@@ -36760,7 +36760,7 @@
         <v>2131</v>
       </c>
       <c r="D533" s="2" t="n">
-        <v>494.0</v>
+        <v>563.0</v>
       </c>
       <c r="E533" s="2" t="s">
         <v>2132</v>
@@ -37200,7 +37200,7 @@
         <v>2178</v>
       </c>
       <c r="D543" s="2" t="n">
-        <v>577.0</v>
+        <v>777.0</v>
       </c>
       <c r="E543" s="2" t="s">
         <v>2179</v>
@@ -37948,7 +37948,7 @@
         <v>2242</v>
       </c>
       <c r="D560" s="2" t="n">
-        <v>658.0</v>
+        <v>626.0</v>
       </c>
       <c r="E560" s="2" t="s">
         <v>2243</v>
@@ -37969,7 +37969,7 @@
         <v>2245</v>
       </c>
       <c r="K560" s="2" t="n">
-        <v>1350.0</v>
+        <v>1028.0</v>
       </c>
       <c r="L560" s="2" t="s">
         <v>2243</v>
@@ -38564,7 +38564,7 @@
         <v>2289</v>
       </c>
       <c r="D574" s="2" t="n">
-        <v>982.0</v>
+        <v>894.0</v>
       </c>
       <c r="E574" s="2" t="s">
         <v>2290</v>
@@ -38696,7 +38696,7 @@
         <v>2301</v>
       </c>
       <c r="D577" s="2" t="n">
-        <v>745.0</v>
+        <v>673.0</v>
       </c>
       <c r="E577" s="2" t="s">
         <v>2302</v>
@@ -38740,7 +38740,7 @@
         <v>2305</v>
       </c>
       <c r="D578" s="2" t="n">
-        <v>671.0</v>
+        <v>702.0</v>
       </c>
       <c r="E578" s="2" t="s">
         <v>2306</v>
@@ -38805,7 +38805,7 @@
         <v>2312</v>
       </c>
       <c r="K579" s="2" t="n">
-        <v>563.0</v>
+        <v>172.0</v>
       </c>
       <c r="L579" s="2" t="s">
         <v>2311</v>
@@ -38960,7 +38960,7 @@
         <v>2320</v>
       </c>
       <c r="D583" s="2" t="n">
-        <v>768.0</v>
+        <v>752.0</v>
       </c>
       <c r="E583" s="2" t="s">
         <v>2321</v>
@@ -39708,7 +39708,7 @@
         <v>2378</v>
       </c>
       <c r="D600" s="2" t="n">
-        <v>778.0</v>
+        <v>834.0</v>
       </c>
       <c r="E600" s="2" t="s">
         <v>2379</v>
@@ -39840,7 +39840,7 @@
         <v>2394</v>
       </c>
       <c r="D603" s="2" t="n">
-        <v>694.0</v>
+        <v>785.0</v>
       </c>
       <c r="E603" s="2" t="s">
         <v>2395</v>
@@ -40192,7 +40192,7 @@
         <v>2418</v>
       </c>
       <c r="D611" s="2" t="n">
-        <v>840.0</v>
+        <v>915.0</v>
       </c>
       <c r="E611" s="2" t="s">
         <v>2419</v>
@@ -40873,7 +40873,7 @@
         <v>2481</v>
       </c>
       <c r="K626" s="2" t="n">
-        <v>1522.0</v>
+        <v>1223.0</v>
       </c>
       <c r="L626" s="2" t="s">
         <v>2480</v>
@@ -40984,7 +40984,7 @@
         <v>2492</v>
       </c>
       <c r="D629" s="2" t="n">
-        <v>628.0</v>
+        <v>764.0</v>
       </c>
       <c r="E629" s="2" t="s">
         <v>2493</v>
@@ -41512,7 +41512,7 @@
         <v>2537</v>
       </c>
       <c r="D641" s="2" t="n">
-        <v>1157.0</v>
+        <v>1207.0</v>
       </c>
       <c r="E641" s="2" t="s">
         <v>2538</v>
@@ -41533,7 +41533,7 @@
         <v>2540</v>
       </c>
       <c r="K641" s="2" t="n">
-        <v>945.0</v>
+        <v>542.0</v>
       </c>
       <c r="L641" s="2" t="s">
         <v>2538</v>
@@ -41732,7 +41732,7 @@
         <v>2562</v>
       </c>
       <c r="D646" s="2" t="n">
-        <v>785.0</v>
+        <v>813.0</v>
       </c>
       <c r="E646" s="2" t="s">
         <v>2563</v>
@@ -42568,7 +42568,7 @@
         <v>2633</v>
       </c>
       <c r="D665" s="2" t="n">
-        <v>844.0</v>
+        <v>865.0</v>
       </c>
       <c r="E665" s="2" t="s">
         <v>2633</v>
@@ -43029,7 +43029,7 @@
         <v>2667</v>
       </c>
       <c r="K675" s="2" t="n">
-        <v>1409.0</v>
+        <v>1059.0</v>
       </c>
       <c r="L675" s="2" t="s">
         <v>2668</v>
@@ -43492,7 +43492,7 @@
         <v>2718</v>
       </c>
       <c r="D686" s="2" t="n">
-        <v>921.0</v>
+        <v>857.0</v>
       </c>
       <c r="E686" s="2" t="s">
         <v>2719</v>
@@ -45405,7 +45405,7 @@
         <v>2889</v>
       </c>
       <c r="K729" s="2" t="n">
-        <v>1421.0</v>
+        <v>1095.0</v>
       </c>
       <c r="L729" s="2" t="s">
         <v>2887</v>
@@ -45648,7 +45648,7 @@
         <v>2909</v>
       </c>
       <c r="D735" s="2" t="n">
-        <v>637.0</v>
+        <v>813.0</v>
       </c>
       <c r="E735" s="2" t="s">
         <v>2910</v>
@@ -47100,7 +47100,7 @@
         <v>3021</v>
       </c>
       <c r="D768" s="2" t="n">
-        <v>611.0</v>
+        <v>599.0</v>
       </c>
       <c r="E768" s="2" t="s">
         <v>3022</v>
@@ -48772,7 +48772,7 @@
         <v>3194</v>
       </c>
       <c r="D806" s="2" t="n">
-        <v>632.0</v>
+        <v>719.0</v>
       </c>
       <c r="E806" s="2" t="s">
         <v>3195</v>
@@ -49080,7 +49080,7 @@
         <v>3226</v>
       </c>
       <c r="D813" s="2" t="n">
-        <v>664.0</v>
+        <v>625.0</v>
       </c>
       <c r="E813" s="2" t="s">
         <v>27</v>
@@ -49872,7 +49872,7 @@
         <v>3285</v>
       </c>
       <c r="D831" s="2" t="n">
-        <v>612.0</v>
+        <v>621.0</v>
       </c>
       <c r="E831" s="2" t="s">
         <v>3286</v>
@@ -50620,7 +50620,7 @@
         <v>3350</v>
       </c>
       <c r="D848" s="2" t="n">
-        <v>931.0</v>
+        <v>1010.0</v>
       </c>
       <c r="E848" s="2" t="s">
         <v>3351</v>
@@ -50905,7 +50905,7 @@
         <v>3370</v>
       </c>
       <c r="K854" s="2" t="n">
-        <v>988.0</v>
+        <v>663.0</v>
       </c>
       <c r="L854" s="2" t="s">
         <v>3371</v>
@@ -52072,7 +52072,7 @@
         <v>3467</v>
       </c>
       <c r="D881" s="2" t="n">
-        <v>724.0</v>
+        <v>764.0</v>
       </c>
       <c r="E881" s="2" t="s">
         <v>3468</v>
@@ -52424,7 +52424,7 @@
         <v>3494</v>
       </c>
       <c r="D889" s="2" t="n">
-        <v>1173.0</v>
+        <v>1243.0</v>
       </c>
       <c r="E889" s="2" t="s">
         <v>3495</v>
@@ -52600,7 +52600,7 @@
         <v>3506</v>
       </c>
       <c r="D893" s="2" t="n">
-        <v>761.0</v>
+        <v>866.0</v>
       </c>
       <c r="E893" s="2" t="s">
         <v>3507</v>
@@ -52820,7 +52820,7 @@
         <v>3525</v>
       </c>
       <c r="D898" s="2" t="n">
-        <v>727.0</v>
+        <v>877.0</v>
       </c>
       <c r="E898" s="2" t="s">
         <v>3526</v>
@@ -53128,7 +53128,7 @@
         <v>3556</v>
       </c>
       <c r="D905" s="2" t="n">
-        <v>770.0</v>
+        <v>707.0</v>
       </c>
       <c r="E905" s="2" t="s">
         <v>3557</v>
@@ -53304,7 +53304,7 @@
         <v>3577</v>
       </c>
       <c r="D909" s="2" t="n">
-        <v>573.0</v>
+        <v>699.0</v>
       </c>
       <c r="E909" s="2" t="s">
         <v>3578</v>
@@ -54404,7 +54404,7 @@
         <v>3679</v>
       </c>
       <c r="D934" s="2" t="n">
-        <v>523.0</v>
+        <v>571.0</v>
       </c>
       <c r="E934" s="2" t="s">
         <v>3680</v>
@@ -55085,7 +55085,7 @@
         <v>3742</v>
       </c>
       <c r="K949" s="2" t="n">
-        <v>932.0</v>
+        <v>538.0</v>
       </c>
       <c r="L949" s="2" t="s">
         <v>3743</v>
@@ -55965,7 +55965,7 @@
         <v>3799</v>
       </c>
       <c r="K969" s="2" t="n">
-        <v>898.0</v>
+        <v>508.0</v>
       </c>
       <c r="L969" s="2" t="s">
         <v>3798</v>
@@ -56384,7 +56384,7 @@
         <v>3822</v>
       </c>
       <c r="D979" s="2" t="n">
-        <v>1171.0</v>
+        <v>1206.0</v>
       </c>
       <c r="E979" s="2" t="s">
         <v>3823</v>
@@ -56560,7 +56560,7 @@
         <v>3831</v>
       </c>
       <c r="D983" s="2" t="n">
-        <v>770.0</v>
+        <v>713.0</v>
       </c>
       <c r="E983" s="2" t="s">
         <v>3831</v>
@@ -57373,7 +57373,7 @@
         <v>3898</v>
       </c>
       <c r="K1001" s="2" t="n">
-        <v>1200.0</v>
+        <v>915.0</v>
       </c>
       <c r="L1001" s="2" t="s">
         <v>3896</v>
@@ -58320,7 +58320,7 @@
         <v>3957</v>
       </c>
       <c r="D1023" s="2" t="n">
-        <v>691.0</v>
+        <v>727.0</v>
       </c>
       <c r="E1023" s="2" t="s">
         <v>3958</v>
@@ -58473,7 +58473,7 @@
         <v>3966</v>
       </c>
       <c r="K1026" s="2" t="n">
-        <v>1044.0</v>
+        <v>758.0</v>
       </c>
       <c r="L1026" s="2" t="s">
         <v>3965</v>
@@ -59156,7 +59156,7 @@
         <v>4022</v>
       </c>
       <c r="D1042" s="2" t="n">
-        <v>939.0</v>
+        <v>917.0</v>
       </c>
       <c r="E1042" s="2" t="s">
         <v>4023</v>
@@ -59705,7 +59705,7 @@
         <v>4068</v>
       </c>
       <c r="K1054" s="2" t="n">
-        <v>1071.0</v>
+        <v>781.0</v>
       </c>
       <c r="L1054" s="2" t="s">
         <v>4069</v>
@@ -60256,7 +60256,7 @@
         <v>4116</v>
       </c>
       <c r="D1067" s="2" t="n">
-        <v>919.0</v>
+        <v>1020.0</v>
       </c>
       <c r="E1067" s="2" t="s">
         <v>4117</v>
@@ -60344,7 +60344,7 @@
         <v>4125</v>
       </c>
       <c r="D1069" s="2" t="n">
-        <v>829.0</v>
+        <v>886.0</v>
       </c>
       <c r="E1069" s="2" t="s">
         <v>4125</v>
@@ -60476,7 +60476,7 @@
         <v>4140</v>
       </c>
       <c r="D1072" s="2" t="n">
-        <v>732.0</v>
+        <v>689.0</v>
       </c>
       <c r="E1072" s="2" t="s">
         <v>4141</v>
@@ -61136,7 +61136,7 @@
         <v>4195</v>
       </c>
       <c r="D1087" s="2" t="n">
-        <v>849.0</v>
+        <v>813.0</v>
       </c>
       <c r="E1087" s="2" t="s">
         <v>4196</v>
@@ -61576,7 +61576,7 @@
         <v>4238</v>
       </c>
       <c r="D1097" s="2" t="n">
-        <v>1031.0</v>
+        <v>1082.0</v>
       </c>
       <c r="E1097" s="2" t="s">
         <v>4239</v>
@@ -61620,7 +61620,7 @@
         <v>4244</v>
       </c>
       <c r="D1098" s="2" t="n">
-        <v>820.0</v>
+        <v>880.0</v>
       </c>
       <c r="E1098" s="2" t="s">
         <v>4245</v>
@@ -61884,7 +61884,7 @@
         <v>4273</v>
       </c>
       <c r="D1104" s="2" t="n">
-        <v>870.0</v>
+        <v>882.0</v>
       </c>
       <c r="E1104" s="2" t="s">
         <v>4274</v>
@@ -61972,7 +61972,7 @@
         <v>4285</v>
       </c>
       <c r="D1106" s="2" t="n">
-        <v>593.0</v>
+        <v>617.0</v>
       </c>
       <c r="E1106" s="2" t="s">
         <v>4286</v>
@@ -62104,7 +62104,7 @@
         <v>4301</v>
       </c>
       <c r="D1109" s="2" t="n">
-        <v>732.0</v>
+        <v>687.0</v>
       </c>
       <c r="E1109" s="2" t="s">
         <v>4302</v>
@@ -62236,7 +62236,7 @@
         <v>4313</v>
       </c>
       <c r="D1112" s="2" t="n">
-        <v>967.0</v>
+        <v>1082.0</v>
       </c>
       <c r="E1112" s="2" t="s">
         <v>4313</v>
@@ -62852,7 +62852,7 @@
         <v>4371</v>
       </c>
       <c r="D1126" s="2" t="n">
-        <v>670.0</v>
+        <v>640.0</v>
       </c>
       <c r="E1126" s="2" t="s">
         <v>4372</v>
@@ -63116,7 +63116,7 @@
         <v>4397</v>
       </c>
       <c r="D1132" s="2" t="n">
-        <v>702.0</v>
+        <v>817.0</v>
       </c>
       <c r="E1132" s="2" t="s">
         <v>4398</v>

--- a/Leaderboards/CurrentCMRITLeaderboard2025.xlsx
+++ b/Leaderboards/CurrentCMRITLeaderboard2025.xlsx
@@ -13417,7 +13417,7 @@
         <v>18</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1162.0</v>
+        <v>1167.0</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>17</v>
@@ -13440,7 +13440,7 @@
         <v>21</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>817.0</v>
+        <v>721.0</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
@@ -13461,7 +13461,7 @@
         <v>24</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1090.0</v>
+        <v>1144.0</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>25</v>
@@ -13572,7 +13572,7 @@
         <v>35</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>629.0</v>
+        <v>667.0</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>36</v>
@@ -13587,13 +13587,13 @@
         <v>37</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>1253.0</v>
+        <v>1271.0</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>38</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1073.0</v>
+        <v>1068.0</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>39</v>
@@ -13681,7 +13681,7 @@
         <v>43</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>979.0</v>
+        <v>964.0</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>44</v>
@@ -13748,7 +13748,7 @@
         <v>50</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>774.0</v>
+        <v>834.0</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>51</v>
@@ -13769,7 +13769,7 @@
         <v>52</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1198.0</v>
+        <v>1171.0</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>50</v>
@@ -13851,13 +13851,13 @@
         <v>57</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>1521.0</v>
+        <v>1504.0</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>58</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1293.0</v>
+        <v>1296.0</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>57</v>
@@ -14033,7 +14033,7 @@
         <v>71</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>928.0</v>
+        <v>945.0</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>72</v>
@@ -14056,7 +14056,7 @@
         <v>74</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>611.0</v>
+        <v>560.0</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>75</v>
@@ -14071,13 +14071,13 @@
         <v>76</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>1685.0</v>
+        <v>1721.0</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>76</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1240.0</v>
+        <v>1267.0</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>77</v>
@@ -14121,7 +14121,7 @@
         <v>82</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1087.0</v>
+        <v>1048.0</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>83</v>
@@ -14165,7 +14165,7 @@
         <v>86</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1395.0</v>
+        <v>1363.0</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>87</v>
@@ -14253,7 +14253,7 @@
         <v>93</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1024.0</v>
+        <v>1011.0</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>91</v>
@@ -14320,7 +14320,7 @@
         <v>99</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>776.0</v>
+        <v>778.0</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>100</v>
@@ -14341,7 +14341,7 @@
         <v>102</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1280.0</v>
+        <v>1300.0</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>103</v>
@@ -14364,7 +14364,7 @@
         <v>105</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>767.0</v>
+        <v>769.0</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>105</v>
@@ -14385,7 +14385,7 @@
         <v>106</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1406.0</v>
+        <v>1386.0</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>105</v>
@@ -14408,7 +14408,7 @@
         <v>108</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>841.0</v>
+        <v>429.0</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>109</v>
@@ -14429,7 +14429,7 @@
         <v>108</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1084.0</v>
+        <v>1313.0</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>111</v>
@@ -14452,7 +14452,7 @@
         <v>113</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>652.0</v>
+        <v>657.0</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>114</v>
@@ -14467,13 +14467,13 @@
         <v>114</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>1312.0</v>
+        <v>1310.0</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>115</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1261.0</v>
+        <v>1230.0</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>114</v>
@@ -14561,7 +14561,7 @@
         <v>120</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>759.0</v>
+        <v>811.0</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>27</v>
@@ -14628,7 +14628,7 @@
         <v>124</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>937.0</v>
+        <v>922.0</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>124</v>
@@ -14649,7 +14649,7 @@
         <v>125</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1428.0</v>
+        <v>1422.0</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>124</v>
@@ -14693,7 +14693,7 @@
         <v>129</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1156.0</v>
+        <v>1160.0</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>130</v>
@@ -14737,7 +14737,7 @@
         <v>135</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1129.0</v>
+        <v>1157.0</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>136</v>
@@ -14760,7 +14760,7 @@
         <v>138</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>740.0</v>
+        <v>742.0</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>139</v>
@@ -14775,13 +14775,13 @@
         <v>140</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>1408.0</v>
+        <v>1440.0</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>139</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1264.0</v>
+        <v>1293.0</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>141</v>
@@ -14825,7 +14825,7 @@
         <v>146</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>951.0</v>
+        <v>953.0</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>144</v>
@@ -14848,7 +14848,7 @@
         <v>148</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>359.0</v>
+        <v>360.0</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>149</v>
@@ -14869,7 +14869,7 @@
         <v>148</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1192.0</v>
+        <v>1228.0</v>
       </c>
       <c r="L35" s="2" t="s">
         <v>148</v>
@@ -14907,13 +14907,13 @@
         <v>152</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>1404.0</v>
+        <v>1409.0</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>153</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1196.0</v>
+        <v>1154.0</v>
       </c>
       <c r="L36" s="2" t="s">
         <v>152</v>
@@ -15001,7 +15001,7 @@
         <v>160</v>
       </c>
       <c r="K38" s="2" t="n">
-        <v>1048.0</v>
+        <v>1055.0</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>161</v>
@@ -15024,7 +15024,7 @@
         <v>163</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>768.0</v>
+        <v>770.0</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>164</v>
@@ -15039,13 +15039,13 @@
         <v>165</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>1339.0</v>
+        <v>1334.0</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>166</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>1231.0</v>
+        <v>1218.0</v>
       </c>
       <c r="L39" s="2" t="s">
         <v>167</v>
@@ -15068,7 +15068,7 @@
         <v>169</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>379.0</v>
+        <v>381.0</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>170</v>
@@ -15089,7 +15089,7 @@
         <v>172</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>1286.0</v>
+        <v>1320.0</v>
       </c>
       <c r="L40" s="2" t="s">
         <v>173</v>
@@ -15156,7 +15156,7 @@
         <v>178</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>589.0</v>
+        <v>356.0</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>179</v>
@@ -15177,7 +15177,7 @@
         <v>181</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>1209.0</v>
+        <v>1257.0</v>
       </c>
       <c r="L42" s="2" t="s">
         <v>178</v>
@@ -15259,13 +15259,13 @@
         <v>189</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>1267.0</v>
+        <v>1261.0</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>190</v>
       </c>
       <c r="K44" s="2" t="n">
-        <v>1395.0</v>
+        <v>1399.0</v>
       </c>
       <c r="L44" s="2" t="s">
         <v>189</v>
@@ -15288,7 +15288,7 @@
         <v>192</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>707.0</v>
+        <v>753.0</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>193</v>
@@ -15303,13 +15303,13 @@
         <v>194</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>1358.0</v>
+        <v>1349.0</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>195</v>
       </c>
       <c r="K45" s="2" t="n">
-        <v>1294.0</v>
+        <v>1319.0</v>
       </c>
       <c r="L45" s="2" t="s">
         <v>193</v>
@@ -15353,7 +15353,7 @@
         <v>198</v>
       </c>
       <c r="K46" s="2" t="n">
-        <v>1145.0</v>
+        <v>1173.0</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>197</v>
@@ -15441,7 +15441,7 @@
         <v>206</v>
       </c>
       <c r="K48" s="2" t="n">
-        <v>1254.0</v>
+        <v>1148.0</v>
       </c>
       <c r="L48" s="2" t="s">
         <v>205</v>
@@ -15573,7 +15573,7 @@
         <v>216</v>
       </c>
       <c r="K51" s="2" t="n">
-        <v>1183.0</v>
+        <v>1186.0</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>215</v>
@@ -15617,7 +15617,7 @@
         <v>220</v>
       </c>
       <c r="K52" s="2" t="n">
-        <v>1374.0</v>
+        <v>1379.0</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>219</v>
@@ -15661,7 +15661,7 @@
         <v>224</v>
       </c>
       <c r="K53" s="2" t="n">
-        <v>1315.0</v>
+        <v>1300.0</v>
       </c>
       <c r="L53" s="2" t="s">
         <v>225</v>
@@ -15743,7 +15743,7 @@
         <v>234</v>
       </c>
       <c r="I55" s="2" t="n">
-        <v>1462.0</v>
+        <v>1468.0</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>235</v>
@@ -15948,7 +15948,7 @@
         <v>252</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>361.0</v>
+        <v>362.0</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>253</v>
@@ -15969,7 +15969,7 @@
         <v>254</v>
       </c>
       <c r="K60" s="2" t="n">
-        <v>1244.0</v>
+        <v>1249.0</v>
       </c>
       <c r="L60" s="2" t="s">
         <v>255</v>
@@ -16057,7 +16057,7 @@
         <v>263</v>
       </c>
       <c r="K62" s="2" t="n">
-        <v>1029.0</v>
+        <v>1037.0</v>
       </c>
       <c r="L62" s="2" t="s">
         <v>264</v>
@@ -16080,7 +16080,7 @@
         <v>266</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>601.0</v>
+        <v>603.0</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>27</v>
@@ -16101,7 +16101,7 @@
         <v>268</v>
       </c>
       <c r="K63" s="2" t="n">
-        <v>1178.0</v>
+        <v>1184.0</v>
       </c>
       <c r="L63" s="2" t="s">
         <v>269</v>
@@ -16124,7 +16124,7 @@
         <v>271</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>695.0</v>
+        <v>696.0</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>272</v>
@@ -16145,7 +16145,7 @@
         <v>274</v>
       </c>
       <c r="K64" s="2" t="n">
-        <v>1318.0</v>
+        <v>1309.0</v>
       </c>
       <c r="L64" s="2" t="s">
         <v>272</v>
@@ -16168,7 +16168,7 @@
         <v>276</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>693.0</v>
+        <v>567.0</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>277</v>
@@ -16189,7 +16189,7 @@
         <v>279</v>
       </c>
       <c r="K65" s="2" t="n">
-        <v>1081.0</v>
+        <v>1058.0</v>
       </c>
       <c r="L65" s="2" t="s">
         <v>278</v>
@@ -16271,13 +16271,13 @@
         <v>284</v>
       </c>
       <c r="I67" s="2" t="n">
-        <v>1386.0</v>
+        <v>1373.0</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>285</v>
       </c>
       <c r="K67" s="2" t="n">
-        <v>1063.0</v>
+        <v>1090.0</v>
       </c>
       <c r="L67" s="2" t="s">
         <v>284</v>
@@ -16388,7 +16388,7 @@
         <v>290</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>818.0</v>
+        <v>820.0</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>291</v>
@@ -16409,7 +16409,7 @@
         <v>292</v>
       </c>
       <c r="K70" s="2" t="n">
-        <v>1372.0</v>
+        <v>1376.0</v>
       </c>
       <c r="L70" s="2" t="s">
         <v>291</v>
@@ -16432,7 +16432,7 @@
         <v>294</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>763.0</v>
+        <v>560.0</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>27</v>
@@ -16476,7 +16476,7 @@
         <v>299</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>709.0</v>
+        <v>712.0</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>300</v>
@@ -16491,13 +16491,13 @@
         <v>301</v>
       </c>
       <c r="I72" s="2" t="n">
-        <v>1245.0</v>
+        <v>1212.0</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>302</v>
       </c>
       <c r="K72" s="2" t="n">
-        <v>1166.0</v>
+        <v>1146.0</v>
       </c>
       <c r="L72" s="2" t="s">
         <v>300</v>
@@ -16541,7 +16541,7 @@
         <v>306</v>
       </c>
       <c r="K73" s="2" t="n">
-        <v>1227.0</v>
+        <v>1291.0</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>307</v>
@@ -16564,7 +16564,7 @@
         <v>309</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>844.0</v>
+        <v>825.0</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>310</v>
@@ -16579,13 +16579,13 @@
         <v>311</v>
       </c>
       <c r="I74" s="2" t="n">
-        <v>1330.0</v>
+        <v>1337.0</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>311</v>
       </c>
       <c r="K74" s="2" t="n">
-        <v>1372.0</v>
+        <v>1352.0</v>
       </c>
       <c r="L74" s="2" t="s">
         <v>310</v>
@@ -16608,7 +16608,7 @@
         <v>313</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>806.0</v>
+        <v>770.0</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>314</v>
@@ -16629,7 +16629,7 @@
         <v>315</v>
       </c>
       <c r="K75" s="2" t="n">
-        <v>1141.0</v>
+        <v>1157.0</v>
       </c>
       <c r="L75" s="2" t="s">
         <v>316</v>
@@ -16673,7 +16673,7 @@
         <v>320</v>
       </c>
       <c r="K76" s="2" t="n">
-        <v>1134.0</v>
+        <v>1078.0</v>
       </c>
       <c r="L76" s="2" t="s">
         <v>321</v>
@@ -16740,7 +16740,7 @@
         <v>327</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>1068.0</v>
+        <v>1022.0</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>328</v>
@@ -16784,7 +16784,7 @@
         <v>331</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>855.0</v>
+        <v>857.0</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>332</v>
@@ -16805,7 +16805,7 @@
         <v>333</v>
       </c>
       <c r="K79" s="2" t="n">
-        <v>1115.0</v>
+        <v>1162.0</v>
       </c>
       <c r="L79" s="2" t="s">
         <v>332</v>
@@ -16828,7 +16828,7 @@
         <v>335</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>619.0</v>
+        <v>0.0</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>336</v>
@@ -16849,7 +16849,7 @@
         <v>337</v>
       </c>
       <c r="K80" s="2" t="n">
-        <v>1113.0</v>
+        <v>1155.0</v>
       </c>
       <c r="L80" s="2" t="s">
         <v>336</v>
@@ -16937,7 +16937,7 @@
         <v>342</v>
       </c>
       <c r="K82" s="2" t="n">
-        <v>1100.0</v>
+        <v>1108.0</v>
       </c>
       <c r="L82" s="2" t="s">
         <v>341</v>
@@ -16981,7 +16981,7 @@
         <v>347</v>
       </c>
       <c r="K83" s="2" t="n">
-        <v>1089.0</v>
+        <v>1061.0</v>
       </c>
       <c r="L83" s="2" t="s">
         <v>345</v>
@@ -17113,7 +17113,7 @@
         <v>353</v>
       </c>
       <c r="K86" s="2" t="n">
-        <v>1347.0</v>
+        <v>1386.0</v>
       </c>
       <c r="L86" s="2" t="s">
         <v>351</v>
@@ -17157,7 +17157,7 @@
         <v>358</v>
       </c>
       <c r="K87" s="2" t="n">
-        <v>1316.0</v>
+        <v>1288.0</v>
       </c>
       <c r="L87" s="2" t="s">
         <v>355</v>
@@ -17224,7 +17224,7 @@
         <v>365</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>1026.0</v>
+        <v>895.0</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>366</v>
@@ -17239,13 +17239,13 @@
         <v>367</v>
       </c>
       <c r="I89" s="2" t="n">
-        <v>1475.0</v>
+        <v>1456.0</v>
       </c>
       <c r="J89" s="2" t="s">
         <v>368</v>
       </c>
       <c r="K89" s="2" t="n">
-        <v>764.0</v>
+        <v>837.0</v>
       </c>
       <c r="L89" s="2" t="s">
         <v>367</v>
@@ -17289,7 +17289,7 @@
         <v>373</v>
       </c>
       <c r="K90" s="2" t="n">
-        <v>1454.0</v>
+        <v>1438.0</v>
       </c>
       <c r="L90" s="2" t="s">
         <v>374</v>
@@ -17333,7 +17333,7 @@
         <v>379</v>
       </c>
       <c r="K91" s="2" t="n">
-        <v>1083.0</v>
+        <v>1124.0</v>
       </c>
       <c r="L91" s="2" t="s">
         <v>380</v>
@@ -17421,7 +17421,7 @@
         <v>387</v>
       </c>
       <c r="K93" s="2" t="n">
-        <v>1365.0</v>
+        <v>1367.0</v>
       </c>
       <c r="L93" s="2" t="s">
         <v>385</v>
@@ -17509,7 +17509,7 @@
         <v>394</v>
       </c>
       <c r="K95" s="2" t="n">
-        <v>1211.0</v>
+        <v>1151.0</v>
       </c>
       <c r="L95" s="2" t="s">
         <v>395</v>
@@ -17553,7 +17553,7 @@
         <v>401</v>
       </c>
       <c r="K96" s="2" t="n">
-        <v>1414.0</v>
+        <v>1419.0</v>
       </c>
       <c r="L96" s="2" t="s">
         <v>402</v>
@@ -17664,7 +17664,7 @@
         <v>406</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>791.0</v>
+        <v>663.0</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>407</v>
@@ -17685,7 +17685,7 @@
         <v>408</v>
       </c>
       <c r="K99" s="2" t="n">
-        <v>1314.0</v>
+        <v>1326.0</v>
       </c>
       <c r="L99" s="2" t="s">
         <v>407</v>
@@ -17796,7 +17796,7 @@
         <v>420</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>775.0</v>
+        <v>780.0</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>421</v>
@@ -17811,7 +17811,7 @@
         <v>421</v>
       </c>
       <c r="I102" s="2" t="n">
-        <v>1414.0</v>
+        <v>1431.0</v>
       </c>
       <c r="J102" s="2" t="s">
         <v>422</v>
@@ -17861,7 +17861,7 @@
         <v>425</v>
       </c>
       <c r="K103" s="2" t="n">
-        <v>1214.0</v>
+        <v>1207.0</v>
       </c>
       <c r="L103" s="2" t="s">
         <v>426</v>
@@ -17899,7 +17899,7 @@
         <v>430</v>
       </c>
       <c r="I104" s="2" t="n">
-        <v>1289.0</v>
+        <v>1272.0</v>
       </c>
       <c r="J104" s="2" t="s">
         <v>431</v>
@@ -17928,7 +17928,7 @@
         <v>433</v>
       </c>
       <c r="D105" s="2" t="n">
-        <v>918.0</v>
+        <v>921.0</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>434</v>
@@ -17949,7 +17949,7 @@
         <v>436</v>
       </c>
       <c r="K105" s="2" t="n">
-        <v>1386.0</v>
+        <v>1431.0</v>
       </c>
       <c r="L105" s="2" t="s">
         <v>437</v>
@@ -18081,7 +18081,7 @@
         <v>447</v>
       </c>
       <c r="K108" s="2" t="n">
-        <v>1520.0</v>
+        <v>1526.0</v>
       </c>
       <c r="L108" s="2" t="s">
         <v>448</v>
@@ -18104,7 +18104,7 @@
         <v>450</v>
       </c>
       <c r="D109" s="2" t="n">
-        <v>759.0</v>
+        <v>865.0</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>450</v>
@@ -18119,13 +18119,13 @@
         <v>451</v>
       </c>
       <c r="I109" s="2" t="n">
-        <v>1363.0</v>
+        <v>1376.0</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>452</v>
       </c>
       <c r="K109" s="2" t="n">
-        <v>1122.0</v>
+        <v>1113.0</v>
       </c>
       <c r="L109" s="2" t="s">
         <v>451</v>
@@ -18163,13 +18163,13 @@
         <v>456</v>
       </c>
       <c r="I110" s="2" t="n">
-        <v>1588.0</v>
+        <v>1575.0</v>
       </c>
       <c r="J110" s="2" t="s">
         <v>457</v>
       </c>
       <c r="K110" s="2" t="n">
-        <v>1395.0</v>
+        <v>1412.0</v>
       </c>
       <c r="L110" s="2" t="s">
         <v>456</v>
@@ -18257,7 +18257,7 @@
         <v>463</v>
       </c>
       <c r="K112" s="2" t="n">
-        <v>1373.0</v>
+        <v>1384.0</v>
       </c>
       <c r="L112" s="2" t="s">
         <v>464</v>
@@ -18280,7 +18280,7 @@
         <v>466</v>
       </c>
       <c r="D113" s="2" t="n">
-        <v>753.0</v>
+        <v>756.0</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>467</v>
@@ -18295,13 +18295,13 @@
         <v>468</v>
       </c>
       <c r="I113" s="2" t="n">
-        <v>1538.0</v>
+        <v>1496.0</v>
       </c>
       <c r="J113" s="2" t="s">
         <v>469</v>
       </c>
       <c r="K113" s="2" t="n">
-        <v>1365.0</v>
+        <v>1379.0</v>
       </c>
       <c r="L113" s="2" t="s">
         <v>470</v>
@@ -18345,7 +18345,7 @@
         <v>474</v>
       </c>
       <c r="K114" s="2" t="n">
-        <v>1149.0</v>
+        <v>1159.0</v>
       </c>
       <c r="L114" s="2" t="s">
         <v>472</v>
@@ -18389,7 +18389,7 @@
         <v>478</v>
       </c>
       <c r="K115" s="2" t="n">
-        <v>1119.0</v>
+        <v>1102.0</v>
       </c>
       <c r="L115" s="2" t="s">
         <v>479</v>
@@ -18433,7 +18433,7 @@
         <v>482</v>
       </c>
       <c r="K116" s="2" t="n">
-        <v>1105.0</v>
+        <v>1167.0</v>
       </c>
       <c r="L116" s="2" t="s">
         <v>481</v>
@@ -18456,7 +18456,7 @@
         <v>484</v>
       </c>
       <c r="D117" s="2" t="n">
-        <v>869.0</v>
+        <v>871.0</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>485</v>
@@ -18521,7 +18521,7 @@
         <v>490</v>
       </c>
       <c r="K118" s="2" t="n">
-        <v>918.0</v>
+        <v>931.0</v>
       </c>
       <c r="L118" s="2" t="s">
         <v>489</v>
@@ -18676,7 +18676,7 @@
         <v>497</v>
       </c>
       <c r="D122" s="2" t="n">
-        <v>789.0</v>
+        <v>791.0</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>498</v>
@@ -18697,7 +18697,7 @@
         <v>499</v>
       </c>
       <c r="K122" s="2" t="n">
-        <v>1073.0</v>
+        <v>1078.0</v>
       </c>
       <c r="L122" s="2" t="s">
         <v>498</v>
@@ -18829,7 +18829,7 @@
         <v>511</v>
       </c>
       <c r="K125" s="2" t="n">
-        <v>1099.0</v>
+        <v>1075.0</v>
       </c>
       <c r="L125" s="2" t="s">
         <v>510</v>
@@ -18873,7 +18873,7 @@
         <v>516</v>
       </c>
       <c r="K126" s="2" t="n">
-        <v>1301.0</v>
+        <v>1306.0</v>
       </c>
       <c r="L126" s="2" t="s">
         <v>514</v>
@@ -18940,7 +18940,7 @@
         <v>523</v>
       </c>
       <c r="D128" s="2" t="n">
-        <v>716.0</v>
+        <v>814.0</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>524</v>
@@ -18955,13 +18955,13 @@
         <v>524</v>
       </c>
       <c r="I128" s="2" t="n">
-        <v>1555.0</v>
+        <v>1549.0</v>
       </c>
       <c r="J128" s="2" t="s">
         <v>525</v>
       </c>
       <c r="K128" s="2" t="n">
-        <v>1439.0</v>
+        <v>1435.0</v>
       </c>
       <c r="L128" s="2" t="s">
         <v>524</v>
@@ -18984,7 +18984,7 @@
         <v>527</v>
       </c>
       <c r="D129" s="2" t="n">
-        <v>898.0</v>
+        <v>703.0</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>527</v>
@@ -18999,13 +18999,13 @@
         <v>527</v>
       </c>
       <c r="I129" s="2" t="n">
-        <v>1609.0</v>
+        <v>1578.0</v>
       </c>
       <c r="J129" s="2" t="s">
         <v>528</v>
       </c>
       <c r="K129" s="2" t="n">
-        <v>1146.0</v>
+        <v>1126.0</v>
       </c>
       <c r="L129" s="2" t="s">
         <v>527</v>
@@ -19049,7 +19049,7 @@
         <v>531</v>
       </c>
       <c r="K130" s="2" t="n">
-        <v>1148.0</v>
+        <v>1125.0</v>
       </c>
       <c r="L130" s="2" t="s">
         <v>532</v>
@@ -19116,7 +19116,7 @@
         <v>539</v>
       </c>
       <c r="D132" s="2" t="n">
-        <v>837.0</v>
+        <v>840.0</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>540</v>
@@ -19137,7 +19137,7 @@
         <v>542</v>
       </c>
       <c r="K132" s="2" t="n">
-        <v>1062.0</v>
+        <v>1042.0</v>
       </c>
       <c r="L132" s="2" t="s">
         <v>540</v>
@@ -19181,7 +19181,7 @@
         <v>546</v>
       </c>
       <c r="K133" s="2" t="n">
-        <v>653.0</v>
+        <v>666.0</v>
       </c>
       <c r="L133" s="2" t="s">
         <v>547</v>
@@ -19292,7 +19292,7 @@
         <v>555</v>
       </c>
       <c r="D136" s="2" t="n">
-        <v>1005.0</v>
+        <v>1007.0</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>556</v>
@@ -19313,7 +19313,7 @@
         <v>558</v>
       </c>
       <c r="K136" s="2" t="n">
-        <v>843.0</v>
+        <v>895.0</v>
       </c>
       <c r="L136" s="2" t="s">
         <v>559</v>
@@ -19401,7 +19401,7 @@
         <v>569</v>
       </c>
       <c r="K138" s="2" t="n">
-        <v>1197.0</v>
+        <v>1154.0</v>
       </c>
       <c r="L138" s="2" t="s">
         <v>567</v>
@@ -19533,7 +19533,7 @@
         <v>573</v>
       </c>
       <c r="K141" s="2" t="n">
-        <v>856.0</v>
+        <v>869.0</v>
       </c>
       <c r="L141" s="2" t="s">
         <v>574</v>
@@ -19841,7 +19841,7 @@
         <v>594</v>
       </c>
       <c r="K148" s="2" t="n">
-        <v>1161.0</v>
+        <v>1181.0</v>
       </c>
       <c r="L148" s="2" t="s">
         <v>592</v>
@@ -19864,7 +19864,7 @@
         <v>596</v>
       </c>
       <c r="D149" s="2" t="n">
-        <v>606.0</v>
+        <v>608.0</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>596</v>
@@ -19885,7 +19885,7 @@
         <v>596</v>
       </c>
       <c r="K149" s="2" t="n">
-        <v>1209.0</v>
+        <v>1213.0</v>
       </c>
       <c r="L149" s="2" t="s">
         <v>597</v>
@@ -19929,7 +19929,7 @@
         <v>601</v>
       </c>
       <c r="K150" s="2" t="n">
-        <v>1077.0</v>
+        <v>1081.0</v>
       </c>
       <c r="L150" s="2" t="s">
         <v>600</v>
@@ -19952,7 +19952,7 @@
         <v>603</v>
       </c>
       <c r="D151" s="2" t="n">
-        <v>903.0</v>
+        <v>912.0</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>604</v>
@@ -19973,7 +19973,7 @@
         <v>605</v>
       </c>
       <c r="K151" s="2" t="n">
-        <v>1215.0</v>
+        <v>1216.0</v>
       </c>
       <c r="L151" s="2" t="s">
         <v>604</v>
@@ -20017,7 +20017,7 @@
         <v>609</v>
       </c>
       <c r="K152" s="2" t="n">
-        <v>1256.0</v>
+        <v>1259.0</v>
       </c>
       <c r="L152" s="2" t="s">
         <v>610</v>
@@ -20099,7 +20099,7 @@
         <v>618</v>
       </c>
       <c r="I154" s="2" t="n">
-        <v>1514.0</v>
+        <v>1510.0</v>
       </c>
       <c r="J154" s="2" t="s">
         <v>619</v>
@@ -20128,7 +20128,7 @@
         <v>622</v>
       </c>
       <c r="D155" s="2" t="n">
-        <v>643.0</v>
+        <v>743.0</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>623</v>
@@ -20143,13 +20143,13 @@
         <v>624</v>
       </c>
       <c r="I155" s="2" t="n">
-        <v>1336.0</v>
+        <v>1321.0</v>
       </c>
       <c r="J155" s="2" t="s">
         <v>623</v>
       </c>
       <c r="K155" s="2" t="n">
-        <v>1288.0</v>
+        <v>1310.0</v>
       </c>
       <c r="L155" s="2" t="s">
         <v>624</v>
@@ -20172,7 +20172,7 @@
         <v>626</v>
       </c>
       <c r="D156" s="2" t="n">
-        <v>917.0</v>
+        <v>920.0</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>627</v>
@@ -20216,7 +20216,7 @@
         <v>630</v>
       </c>
       <c r="D157" s="2" t="n">
-        <v>948.0</v>
+        <v>690.0</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>631</v>
@@ -20237,7 +20237,7 @@
         <v>633</v>
       </c>
       <c r="K157" s="2" t="n">
-        <v>1314.0</v>
+        <v>1316.0</v>
       </c>
       <c r="L157" s="2" t="s">
         <v>634</v>
@@ -20260,7 +20260,7 @@
         <v>636</v>
       </c>
       <c r="D158" s="2" t="n">
-        <v>826.0</v>
+        <v>601.0</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>637</v>
@@ -20281,7 +20281,7 @@
         <v>638</v>
       </c>
       <c r="K158" s="2" t="n">
-        <v>1195.0</v>
+        <v>1252.0</v>
       </c>
       <c r="L158" s="2" t="s">
         <v>639</v>
@@ -20304,7 +20304,7 @@
         <v>641</v>
       </c>
       <c r="D159" s="2" t="n">
-        <v>833.0</v>
+        <v>835.0</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>642</v>
@@ -20319,13 +20319,13 @@
         <v>643</v>
       </c>
       <c r="I159" s="2" t="n">
-        <v>1502.0</v>
+        <v>1481.0</v>
       </c>
       <c r="J159" s="2" t="s">
         <v>644</v>
       </c>
       <c r="K159" s="2" t="n">
-        <v>1323.0</v>
+        <v>1327.0</v>
       </c>
       <c r="L159" s="2" t="s">
         <v>642</v>
@@ -20392,7 +20392,7 @@
         <v>648</v>
       </c>
       <c r="D161" s="2" t="n">
-        <v>735.0</v>
+        <v>740.0</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>649</v>
@@ -20407,13 +20407,13 @@
         <v>650</v>
       </c>
       <c r="I161" s="2" t="n">
-        <v>1353.0</v>
+        <v>1366.0</v>
       </c>
       <c r="J161" s="2" t="s">
         <v>651</v>
       </c>
       <c r="K161" s="2" t="n">
-        <v>1153.0</v>
+        <v>1180.0</v>
       </c>
       <c r="L161" s="2" t="s">
         <v>652</v>
@@ -20545,7 +20545,7 @@
         <v>664</v>
       </c>
       <c r="K164" s="2" t="n">
-        <v>966.0</v>
+        <v>983.0</v>
       </c>
       <c r="L164" s="2" t="s">
         <v>663</v>
@@ -20656,7 +20656,7 @@
         <v>675</v>
       </c>
       <c r="D167" s="2" t="n">
-        <v>549.0</v>
+        <v>554.0</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>676</v>
@@ -20677,7 +20677,7 @@
         <v>677</v>
       </c>
       <c r="K167" s="2" t="n">
-        <v>1144.0</v>
+        <v>1136.0</v>
       </c>
       <c r="L167" s="2" t="s">
         <v>676</v>
@@ -20721,7 +20721,7 @@
         <v>681</v>
       </c>
       <c r="K168" s="2" t="n">
-        <v>1047.0</v>
+        <v>1034.0</v>
       </c>
       <c r="L168" s="2" t="s">
         <v>680</v>
@@ -20832,7 +20832,7 @@
         <v>692</v>
       </c>
       <c r="D171" s="2" t="n">
-        <v>357.0</v>
+        <v>0.0</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>693</v>
@@ -20876,7 +20876,7 @@
         <v>698</v>
       </c>
       <c r="D172" s="2" t="n">
-        <v>880.0</v>
+        <v>882.0</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>699</v>
@@ -20897,7 +20897,7 @@
         <v>701</v>
       </c>
       <c r="K172" s="2" t="n">
-        <v>1213.0</v>
+        <v>1214.0</v>
       </c>
       <c r="L172" s="2" t="s">
         <v>702</v>
@@ -20920,7 +20920,7 @@
         <v>704</v>
       </c>
       <c r="D173" s="2" t="n">
-        <v>849.0</v>
+        <v>384.0</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>705</v>
@@ -20941,7 +20941,7 @@
         <v>706</v>
       </c>
       <c r="K173" s="2" t="n">
-        <v>1198.0</v>
+        <v>1201.0</v>
       </c>
       <c r="L173" s="2" t="s">
         <v>705</v>
@@ -21052,7 +21052,7 @@
         <v>716</v>
       </c>
       <c r="D176" s="2" t="n">
-        <v>875.0</v>
+        <v>827.0</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>717</v>
@@ -21073,7 +21073,7 @@
         <v>719</v>
       </c>
       <c r="K176" s="2" t="n">
-        <v>1329.0</v>
+        <v>1333.0</v>
       </c>
       <c r="L176" s="2" t="s">
         <v>718</v>
@@ -21117,7 +21117,7 @@
         <v>724</v>
       </c>
       <c r="K177" s="2" t="n">
-        <v>1196.0</v>
+        <v>1199.0</v>
       </c>
       <c r="L177" s="2" t="s">
         <v>725</v>
@@ -21161,7 +21161,7 @@
         <v>730</v>
       </c>
       <c r="K178" s="2" t="n">
-        <v>1326.0</v>
+        <v>1321.0</v>
       </c>
       <c r="L178" s="2" t="s">
         <v>731</v>
@@ -21184,7 +21184,7 @@
         <v>733</v>
       </c>
       <c r="D179" s="2" t="n">
-        <v>757.0</v>
+        <v>756.0</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>734</v>
@@ -21205,7 +21205,7 @@
         <v>736</v>
       </c>
       <c r="K179" s="2" t="n">
-        <v>1011.0</v>
+        <v>987.0</v>
       </c>
       <c r="L179" s="2" t="s">
         <v>735</v>
@@ -21228,7 +21228,7 @@
         <v>738</v>
       </c>
       <c r="D180" s="2" t="n">
-        <v>792.0</v>
+        <v>793.0</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>739</v>
@@ -21249,7 +21249,7 @@
         <v>740</v>
       </c>
       <c r="K180" s="2" t="n">
-        <v>1288.0</v>
+        <v>1287.0</v>
       </c>
       <c r="L180" s="2" t="s">
         <v>741</v>
@@ -21316,7 +21316,7 @@
         <v>748</v>
       </c>
       <c r="D182" s="2" t="n">
-        <v>791.0</v>
+        <v>794.0</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>749</v>
@@ -21360,7 +21360,7 @@
         <v>753</v>
       </c>
       <c r="D183" s="2" t="n">
-        <v>742.0</v>
+        <v>743.0</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>754</v>
@@ -21381,7 +21381,7 @@
         <v>753</v>
       </c>
       <c r="K183" s="2" t="n">
-        <v>1170.0</v>
+        <v>1175.0</v>
       </c>
       <c r="L183" s="2" t="s">
         <v>755</v>
@@ -21492,7 +21492,7 @@
         <v>765</v>
       </c>
       <c r="D186" s="2" t="n">
-        <v>742.0</v>
+        <v>748.0</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>766</v>
@@ -21513,7 +21513,7 @@
         <v>767</v>
       </c>
       <c r="K186" s="2" t="n">
-        <v>1256.0</v>
+        <v>1244.0</v>
       </c>
       <c r="L186" s="2" t="s">
         <v>766</v>
@@ -21580,7 +21580,7 @@
         <v>773</v>
       </c>
       <c r="D188" s="2" t="n">
-        <v>381.0</v>
+        <v>0.0</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>773</v>
@@ -21601,7 +21601,7 @@
         <v>775</v>
       </c>
       <c r="K188" s="2" t="n">
-        <v>1346.0</v>
+        <v>1306.0</v>
       </c>
       <c r="L188" s="2" t="s">
         <v>773</v>
@@ -21624,7 +21624,7 @@
         <v>777</v>
       </c>
       <c r="D189" s="2" t="n">
-        <v>1007.0</v>
+        <v>784.0</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>778</v>
@@ -21639,7 +21639,7 @@
         <v>779</v>
       </c>
       <c r="I189" s="2" t="n">
-        <v>1430.0</v>
+        <v>1424.0</v>
       </c>
       <c r="J189" s="2" t="s">
         <v>779</v>
@@ -21821,7 +21821,7 @@
         <v>794</v>
       </c>
       <c r="K193" s="2" t="n">
-        <v>1242.0</v>
+        <v>1243.0</v>
       </c>
       <c r="L193" s="2" t="s">
         <v>795</v>
@@ -21865,7 +21865,7 @@
         <v>800</v>
       </c>
       <c r="K194" s="2" t="n">
-        <v>1078.0</v>
+        <v>1056.0</v>
       </c>
       <c r="L194" s="2" t="s">
         <v>799</v>
@@ -22129,7 +22129,7 @@
         <v>822</v>
       </c>
       <c r="K200" s="2" t="n">
-        <v>1014.0</v>
+        <v>1010.0</v>
       </c>
       <c r="L200" s="2" t="s">
         <v>821</v>
@@ -22196,7 +22196,7 @@
         <v>827</v>
       </c>
       <c r="D202" s="2" t="n">
-        <v>777.0</v>
+        <v>780.0</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>827</v>
@@ -22305,7 +22305,7 @@
         <v>835</v>
       </c>
       <c r="K204" s="2" t="n">
-        <v>1102.0</v>
+        <v>1122.0</v>
       </c>
       <c r="L204" s="2" t="s">
         <v>27</v>
@@ -22328,7 +22328,7 @@
         <v>837</v>
       </c>
       <c r="D205" s="2" t="n">
-        <v>360.0</v>
+        <v>0.0</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>838</v>
@@ -22349,7 +22349,7 @@
         <v>840</v>
       </c>
       <c r="K205" s="2" t="n">
-        <v>1053.0</v>
+        <v>1034.0</v>
       </c>
       <c r="L205" s="2" t="s">
         <v>838</v>
@@ -22519,13 +22519,13 @@
         <v>857</v>
       </c>
       <c r="I209" s="2" t="n">
-        <v>1749.0</v>
+        <v>1710.0</v>
       </c>
       <c r="J209" s="2" t="s">
         <v>858</v>
       </c>
       <c r="K209" s="2" t="n">
-        <v>1043.0</v>
+        <v>1048.0</v>
       </c>
       <c r="L209" s="2" t="s">
         <v>857</v>
@@ -22548,7 +22548,7 @@
         <v>860</v>
       </c>
       <c r="D210" s="2" t="n">
-        <v>358.0</v>
+        <v>359.0</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>861</v>
@@ -22569,7 +22569,7 @@
         <v>862</v>
       </c>
       <c r="K210" s="2" t="n">
-        <v>944.0</v>
+        <v>987.0</v>
       </c>
       <c r="L210" s="2" t="s">
         <v>861</v>
@@ -22607,7 +22607,7 @@
         <v>864</v>
       </c>
       <c r="I211" s="2" t="n">
-        <v>1367.0</v>
+        <v>1423.0</v>
       </c>
       <c r="J211" s="2" t="s">
         <v>864</v>
@@ -22636,7 +22636,7 @@
         <v>866</v>
       </c>
       <c r="D212" s="2" t="n">
-        <v>623.0</v>
+        <v>627.0</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>866</v>
@@ -22651,13 +22651,13 @@
         <v>866</v>
       </c>
       <c r="I212" s="2" t="n">
-        <v>1326.0</v>
+        <v>1292.0</v>
       </c>
       <c r="J212" s="2" t="s">
         <v>867</v>
       </c>
       <c r="K212" s="2" t="n">
-        <v>1234.0</v>
+        <v>1206.0</v>
       </c>
       <c r="L212" s="2" t="s">
         <v>866</v>
@@ -22724,7 +22724,7 @@
         <v>870</v>
       </c>
       <c r="D214" s="2" t="n">
-        <v>608.0</v>
+        <v>613.0</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>871</v>
@@ -22900,7 +22900,7 @@
         <v>883</v>
       </c>
       <c r="D218" s="2" t="n">
-        <v>837.0</v>
+        <v>839.0</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>884</v>
@@ -22921,7 +22921,7 @@
         <v>883</v>
       </c>
       <c r="K218" s="2" t="n">
-        <v>1419.0</v>
+        <v>1423.0</v>
       </c>
       <c r="L218" s="2" t="s">
         <v>886</v>
@@ -23076,7 +23076,7 @@
         <v>895</v>
       </c>
       <c r="D222" s="2" t="n">
-        <v>593.0</v>
+        <v>656.0</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>896</v>
@@ -23097,7 +23097,7 @@
         <v>896</v>
       </c>
       <c r="K222" s="2" t="n">
-        <v>1133.0</v>
+        <v>1079.0</v>
       </c>
       <c r="L222" s="2" t="s">
         <v>897</v>
@@ -23141,7 +23141,7 @@
         <v>899</v>
       </c>
       <c r="K223" s="2" t="n">
-        <v>1008.0</v>
+        <v>1014.0</v>
       </c>
       <c r="L223" s="2" t="s">
         <v>900</v>
@@ -23317,7 +23317,7 @@
         <v>911</v>
       </c>
       <c r="K227" s="2" t="n">
-        <v>1214.0</v>
+        <v>1228.0</v>
       </c>
       <c r="L227" s="2" t="s">
         <v>912</v>
@@ -23405,7 +23405,7 @@
         <v>916</v>
       </c>
       <c r="K229" s="2" t="n">
-        <v>1172.0</v>
+        <v>1176.0</v>
       </c>
       <c r="L229" s="2" t="s">
         <v>917</v>
@@ -23449,7 +23449,7 @@
         <v>922</v>
       </c>
       <c r="K230" s="2" t="n">
-        <v>1271.0</v>
+        <v>1313.0</v>
       </c>
       <c r="L230" s="2" t="s">
         <v>920</v>
@@ -23493,7 +23493,7 @@
         <v>926</v>
       </c>
       <c r="K231" s="2" t="n">
-        <v>1424.0</v>
+        <v>1432.0</v>
       </c>
       <c r="L231" s="2" t="s">
         <v>925</v>
@@ -23516,7 +23516,7 @@
         <v>928</v>
       </c>
       <c r="D232" s="2" t="n">
-        <v>838.0</v>
+        <v>618.0</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>929</v>
@@ -23560,7 +23560,7 @@
         <v>933</v>
       </c>
       <c r="D233" s="2" t="n">
-        <v>847.0</v>
+        <v>852.0</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>934</v>
@@ -23581,7 +23581,7 @@
         <v>935</v>
       </c>
       <c r="K233" s="2" t="n">
-        <v>1110.0</v>
+        <v>1114.0</v>
       </c>
       <c r="L233" s="2" t="s">
         <v>936</v>
@@ -23604,7 +23604,7 @@
         <v>938</v>
       </c>
       <c r="D234" s="2" t="n">
-        <v>823.0</v>
+        <v>827.0</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>939</v>
@@ -23625,7 +23625,7 @@
         <v>941</v>
       </c>
       <c r="K234" s="2" t="n">
-        <v>1298.0</v>
+        <v>1299.0</v>
       </c>
       <c r="L234" s="2" t="s">
         <v>941</v>
@@ -23648,7 +23648,7 @@
         <v>943</v>
       </c>
       <c r="D235" s="2" t="n">
-        <v>949.0</v>
+        <v>789.0</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>944</v>
@@ -23669,7 +23669,7 @@
         <v>945</v>
       </c>
       <c r="K235" s="2" t="n">
-        <v>1286.0</v>
+        <v>1287.0</v>
       </c>
       <c r="L235" s="2" t="s">
         <v>943</v>
@@ -23692,7 +23692,7 @@
         <v>947</v>
       </c>
       <c r="D236" s="2" t="n">
-        <v>611.0</v>
+        <v>617.0</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>948</v>
@@ -23713,7 +23713,7 @@
         <v>950</v>
       </c>
       <c r="K236" s="2" t="n">
-        <v>1153.0</v>
+        <v>1127.0</v>
       </c>
       <c r="L236" s="2" t="s">
         <v>949</v>
@@ -23736,7 +23736,7 @@
         <v>952</v>
       </c>
       <c r="D237" s="2" t="n">
-        <v>865.0</v>
+        <v>840.0</v>
       </c>
       <c r="E237" s="2" t="s">
         <v>953</v>
@@ -23757,7 +23757,7 @@
         <v>955</v>
       </c>
       <c r="K237" s="2" t="n">
-        <v>1316.0</v>
+        <v>1320.0</v>
       </c>
       <c r="L237" s="2" t="s">
         <v>956</v>
@@ -23824,7 +23824,7 @@
         <v>963</v>
       </c>
       <c r="D239" s="2" t="n">
-        <v>825.0</v>
+        <v>827.0</v>
       </c>
       <c r="E239" s="2" t="s">
         <v>964</v>
@@ -23889,7 +23889,7 @@
         <v>970</v>
       </c>
       <c r="K240" s="2" t="n">
-        <v>1101.0</v>
+        <v>1106.0</v>
       </c>
       <c r="L240" s="2" t="s">
         <v>969</v>
@@ -23933,7 +23933,7 @@
         <v>974</v>
       </c>
       <c r="K241" s="2" t="n">
-        <v>1250.0</v>
+        <v>1294.0</v>
       </c>
       <c r="L241" s="2" t="s">
         <v>973</v>
@@ -24044,7 +24044,7 @@
         <v>980</v>
       </c>
       <c r="D244" s="2" t="n">
-        <v>977.0</v>
+        <v>979.0</v>
       </c>
       <c r="E244" s="2" t="s">
         <v>981</v>
@@ -24065,7 +24065,7 @@
         <v>982</v>
       </c>
       <c r="K244" s="2" t="n">
-        <v>1152.0</v>
+        <v>1154.0</v>
       </c>
       <c r="L244" s="2" t="s">
         <v>981</v>
@@ -24088,7 +24088,7 @@
         <v>984</v>
       </c>
       <c r="D245" s="2" t="n">
-        <v>564.0</v>
+        <v>565.0</v>
       </c>
       <c r="E245" s="2" t="s">
         <v>985</v>
@@ -24132,7 +24132,7 @@
         <v>988</v>
       </c>
       <c r="D246" s="2" t="n">
-        <v>646.0</v>
+        <v>648.0</v>
       </c>
       <c r="E246" s="2" t="s">
         <v>989</v>
@@ -24153,7 +24153,7 @@
         <v>990</v>
       </c>
       <c r="K246" s="2" t="n">
-        <v>787.0</v>
+        <v>834.0</v>
       </c>
       <c r="L246" s="2" t="s">
         <v>991</v>
@@ -24176,7 +24176,7 @@
         <v>993</v>
       </c>
       <c r="D247" s="2" t="n">
-        <v>618.0</v>
+        <v>617.0</v>
       </c>
       <c r="E247" s="2" t="s">
         <v>994</v>
@@ -24197,7 +24197,7 @@
         <v>994</v>
       </c>
       <c r="K247" s="2" t="n">
-        <v>1355.0</v>
+        <v>1352.0</v>
       </c>
       <c r="L247" s="2" t="s">
         <v>995</v>
@@ -24241,7 +24241,7 @@
         <v>999</v>
       </c>
       <c r="K248" s="2" t="n">
-        <v>1256.0</v>
+        <v>1298.0</v>
       </c>
       <c r="L248" s="2" t="s">
         <v>1000</v>
@@ -24440,7 +24440,7 @@
         <v>1011</v>
       </c>
       <c r="D253" s="2" t="n">
-        <v>657.0</v>
+        <v>544.0</v>
       </c>
       <c r="E253" s="2" t="s">
         <v>1012</v>
@@ -24461,7 +24461,7 @@
         <v>1013</v>
       </c>
       <c r="K253" s="2" t="n">
-        <v>1155.0</v>
+        <v>1149.0</v>
       </c>
       <c r="L253" s="2" t="s">
         <v>1014</v>
@@ -24484,7 +24484,7 @@
         <v>1016</v>
       </c>
       <c r="D254" s="2" t="n">
-        <v>585.0</v>
+        <v>586.0</v>
       </c>
       <c r="E254" s="2" t="s">
         <v>1017</v>
@@ -24505,7 +24505,7 @@
         <v>1019</v>
       </c>
       <c r="K254" s="2" t="n">
-        <v>1070.0</v>
+        <v>1082.0</v>
       </c>
       <c r="L254" s="2" t="s">
         <v>1020</v>
@@ -24616,7 +24616,7 @@
         <v>1027</v>
       </c>
       <c r="D257" s="2" t="n">
-        <v>842.0</v>
+        <v>872.0</v>
       </c>
       <c r="E257" s="2" t="s">
         <v>1028</v>
@@ -24637,7 +24637,7 @@
         <v>1029</v>
       </c>
       <c r="K257" s="2" t="n">
-        <v>891.0</v>
+        <v>856.0</v>
       </c>
       <c r="L257" s="2" t="s">
         <v>1030</v>
@@ -24792,7 +24792,7 @@
         <v>1039</v>
       </c>
       <c r="D261" s="2" t="n">
-        <v>768.0</v>
+        <v>770.0</v>
       </c>
       <c r="E261" s="2" t="s">
         <v>1040</v>
@@ -24813,7 +24813,7 @@
         <v>1040</v>
       </c>
       <c r="K261" s="2" t="n">
-        <v>1270.0</v>
+        <v>1273.0</v>
       </c>
       <c r="L261" s="2" t="s">
         <v>1040</v>
@@ -24880,7 +24880,7 @@
         <v>1046</v>
       </c>
       <c r="D263" s="2" t="n">
-        <v>563.0</v>
+        <v>679.0</v>
       </c>
       <c r="E263" s="2" t="s">
         <v>1047</v>
@@ -24901,7 +24901,7 @@
         <v>1049</v>
       </c>
       <c r="K263" s="2" t="n">
-        <v>1218.0</v>
+        <v>1243.0</v>
       </c>
       <c r="L263" s="2" t="s">
         <v>1047</v>
@@ -25188,7 +25188,7 @@
         <v>1060</v>
       </c>
       <c r="D270" s="2" t="n">
-        <v>690.0</v>
+        <v>693.0</v>
       </c>
       <c r="E270" s="2" t="s">
         <v>1061</v>
@@ -25276,7 +25276,7 @@
         <v>1069</v>
       </c>
       <c r="D272" s="2" t="n">
-        <v>829.0</v>
+        <v>874.0</v>
       </c>
       <c r="E272" s="2" t="s">
         <v>1070</v>
@@ -25297,7 +25297,7 @@
         <v>1071</v>
       </c>
       <c r="K272" s="2" t="n">
-        <v>1315.0</v>
+        <v>1319.0</v>
       </c>
       <c r="L272" s="2" t="s">
         <v>1072</v>
@@ -25385,7 +25385,7 @@
         <v>1080</v>
       </c>
       <c r="K274" s="2" t="n">
-        <v>1248.0</v>
+        <v>1191.0</v>
       </c>
       <c r="L274" s="2" t="s">
         <v>1081</v>
@@ -25408,7 +25408,7 @@
         <v>1083</v>
       </c>
       <c r="D275" s="2" t="n">
-        <v>771.0</v>
+        <v>773.0</v>
       </c>
       <c r="E275" s="2" t="s">
         <v>1084</v>
@@ -25452,7 +25452,7 @@
         <v>1088</v>
       </c>
       <c r="D276" s="2" t="n">
-        <v>901.0</v>
+        <v>895.0</v>
       </c>
       <c r="E276" s="2" t="s">
         <v>1089</v>
@@ -25473,7 +25473,7 @@
         <v>1091</v>
       </c>
       <c r="K276" s="2" t="n">
-        <v>1299.0</v>
+        <v>1302.0</v>
       </c>
       <c r="L276" s="2" t="s">
         <v>1092</v>
@@ -25496,7 +25496,7 @@
         <v>1094</v>
       </c>
       <c r="D277" s="2" t="n">
-        <v>795.0</v>
+        <v>651.0</v>
       </c>
       <c r="E277" s="2" t="s">
         <v>1095</v>
@@ -25517,7 +25517,7 @@
         <v>1097</v>
       </c>
       <c r="K277" s="2" t="n">
-        <v>935.0</v>
+        <v>917.0</v>
       </c>
       <c r="L277" s="2" t="s">
         <v>1098</v>
@@ -25540,7 +25540,7 @@
         <v>1100</v>
       </c>
       <c r="D278" s="2" t="n">
-        <v>753.0</v>
+        <v>756.0</v>
       </c>
       <c r="E278" s="2" t="s">
         <v>1101</v>
@@ -25649,7 +25649,7 @@
         <v>1113</v>
       </c>
       <c r="K280" s="2" t="n">
-        <v>1200.0</v>
+        <v>1196.0</v>
       </c>
       <c r="L280" s="2" t="s">
         <v>1114</v>
@@ -25672,7 +25672,7 @@
         <v>1116</v>
       </c>
       <c r="D281" s="2" t="n">
-        <v>715.0</v>
+        <v>779.0</v>
       </c>
       <c r="E281" s="2" t="s">
         <v>1117</v>
@@ -25693,7 +25693,7 @@
         <v>1118</v>
       </c>
       <c r="K281" s="2" t="n">
-        <v>1292.0</v>
+        <v>1285.0</v>
       </c>
       <c r="L281" s="2" t="s">
         <v>1116</v>
@@ -25869,7 +25869,7 @@
         <v>1129</v>
       </c>
       <c r="K285" s="2" t="n">
-        <v>1229.0</v>
+        <v>1248.0</v>
       </c>
       <c r="L285" s="2" t="s">
         <v>1130</v>
@@ -25913,7 +25913,7 @@
         <v>1135</v>
       </c>
       <c r="K286" s="2" t="n">
-        <v>1434.0</v>
+        <v>1466.0</v>
       </c>
       <c r="L286" s="2" t="s">
         <v>1136</v>
@@ -26024,7 +26024,7 @@
         <v>1145</v>
       </c>
       <c r="D289" s="2" t="n">
-        <v>486.0</v>
+        <v>501.0</v>
       </c>
       <c r="E289" s="2" t="s">
         <v>1146</v>
@@ -26177,7 +26177,7 @@
         <v>1162</v>
       </c>
       <c r="K292" s="2" t="n">
-        <v>1190.0</v>
+        <v>1233.0</v>
       </c>
       <c r="L292" s="2" t="s">
         <v>1161</v>
@@ -26221,7 +26221,7 @@
         <v>1167</v>
       </c>
       <c r="K293" s="2" t="n">
-        <v>1194.0</v>
+        <v>1212.0</v>
       </c>
       <c r="L293" s="2" t="s">
         <v>1165</v>
@@ -26288,7 +26288,7 @@
         <v>1175</v>
       </c>
       <c r="D295" s="2" t="n">
-        <v>964.0</v>
+        <v>771.0</v>
       </c>
       <c r="E295" s="2" t="s">
         <v>1175</v>
@@ -26309,7 +26309,7 @@
         <v>1176</v>
       </c>
       <c r="K295" s="2" t="n">
-        <v>895.0</v>
+        <v>907.0</v>
       </c>
       <c r="L295" s="2" t="s">
         <v>1175</v>
@@ -26332,7 +26332,7 @@
         <v>1178</v>
       </c>
       <c r="D296" s="2" t="n">
-        <v>853.0</v>
+        <v>856.0</v>
       </c>
       <c r="E296" s="2" t="s">
         <v>1179</v>
@@ -26353,7 +26353,7 @@
         <v>1178</v>
       </c>
       <c r="K296" s="2" t="n">
-        <v>821.0</v>
+        <v>878.0</v>
       </c>
       <c r="L296" s="2" t="s">
         <v>1180</v>
@@ -26376,7 +26376,7 @@
         <v>1182</v>
       </c>
       <c r="D297" s="2" t="n">
-        <v>719.0</v>
+        <v>721.0</v>
       </c>
       <c r="E297" s="2" t="s">
         <v>1182</v>
@@ -26441,7 +26441,7 @@
         <v>1188</v>
       </c>
       <c r="K298" s="2" t="n">
-        <v>1284.0</v>
+        <v>1304.0</v>
       </c>
       <c r="L298" s="2" t="s">
         <v>1187</v>
@@ -26529,7 +26529,7 @@
         <v>1197</v>
       </c>
       <c r="K300" s="2" t="n">
-        <v>873.0</v>
+        <v>968.0</v>
       </c>
       <c r="L300" s="2" t="s">
         <v>1196</v>
@@ -26573,7 +26573,7 @@
         <v>1202</v>
       </c>
       <c r="K301" s="2" t="n">
-        <v>1253.0</v>
+        <v>1229.0</v>
       </c>
       <c r="L301" s="2" t="s">
         <v>1201</v>
@@ -26640,7 +26640,7 @@
         <v>1205</v>
       </c>
       <c r="D303" s="2" t="n">
-        <v>917.0</v>
+        <v>920.0</v>
       </c>
       <c r="E303" s="2" t="s">
         <v>27</v>
@@ -26661,7 +26661,7 @@
         <v>1207</v>
       </c>
       <c r="K303" s="2" t="n">
-        <v>1301.0</v>
+        <v>1276.0</v>
       </c>
       <c r="L303" s="2" t="s">
         <v>1205</v>
@@ -26728,7 +26728,7 @@
         <v>1211</v>
       </c>
       <c r="D305" s="2" t="n">
-        <v>1013.0</v>
+        <v>1015.0</v>
       </c>
       <c r="E305" s="2" t="s">
         <v>1212</v>
@@ -26772,7 +26772,7 @@
         <v>1217</v>
       </c>
       <c r="D306" s="2" t="n">
-        <v>740.0</v>
+        <v>500.0</v>
       </c>
       <c r="E306" s="2" t="s">
         <v>1218</v>
@@ -26860,7 +26860,7 @@
         <v>1226</v>
       </c>
       <c r="D308" s="2" t="n">
-        <v>730.0</v>
+        <v>700.0</v>
       </c>
       <c r="E308" s="2" t="s">
         <v>1227</v>
@@ -26881,7 +26881,7 @@
         <v>1228</v>
       </c>
       <c r="K308" s="2" t="n">
-        <v>1268.0</v>
+        <v>1269.0</v>
       </c>
       <c r="L308" s="2" t="s">
         <v>1226</v>
@@ -26904,7 +26904,7 @@
         <v>1230</v>
       </c>
       <c r="D309" s="2" t="n">
-        <v>791.0</v>
+        <v>736.0</v>
       </c>
       <c r="E309" s="2" t="s">
         <v>1231</v>
@@ -26919,13 +26919,13 @@
         <v>1232</v>
       </c>
       <c r="I309" s="2" t="n">
-        <v>1398.0</v>
+        <v>1445.0</v>
       </c>
       <c r="J309" s="2" t="s">
         <v>1233</v>
       </c>
       <c r="K309" s="2" t="n">
-        <v>1161.0</v>
+        <v>1197.0</v>
       </c>
       <c r="L309" s="2" t="s">
         <v>1232</v>
@@ -26969,7 +26969,7 @@
         <v>1236</v>
       </c>
       <c r="K310" s="2" t="n">
-        <v>1244.0</v>
+        <v>1247.0</v>
       </c>
       <c r="L310" s="2" t="s">
         <v>1237</v>
@@ -27013,7 +27013,7 @@
         <v>1240</v>
       </c>
       <c r="K311" s="2" t="n">
-        <v>1115.0</v>
+        <v>1120.0</v>
       </c>
       <c r="L311" s="2" t="s">
         <v>1239</v>
@@ -27057,7 +27057,7 @@
         <v>1243</v>
       </c>
       <c r="K312" s="2" t="n">
-        <v>860.0</v>
+        <v>813.0</v>
       </c>
       <c r="L312" s="2" t="s">
         <v>1242</v>
@@ -27080,7 +27080,7 @@
         <v>1245</v>
       </c>
       <c r="D313" s="2" t="n">
-        <v>913.0</v>
+        <v>860.0</v>
       </c>
       <c r="E313" s="2" t="s">
         <v>1246</v>
@@ -27101,7 +27101,7 @@
         <v>1247</v>
       </c>
       <c r="K313" s="2" t="n">
-        <v>1338.0</v>
+        <v>1311.0</v>
       </c>
       <c r="L313" s="2" t="s">
         <v>1245</v>
@@ -27124,7 +27124,7 @@
         <v>1249</v>
       </c>
       <c r="D314" s="2" t="n">
-        <v>649.0</v>
+        <v>656.0</v>
       </c>
       <c r="E314" s="2" t="s">
         <v>1250</v>
@@ -27233,7 +27233,7 @@
         <v>1257</v>
       </c>
       <c r="K316" s="2" t="n">
-        <v>1255.0</v>
+        <v>1278.0</v>
       </c>
       <c r="L316" s="2" t="s">
         <v>1258</v>
@@ -27256,7 +27256,7 @@
         <v>1260</v>
       </c>
       <c r="D317" s="2" t="n">
-        <v>533.0</v>
+        <v>563.0</v>
       </c>
       <c r="E317" s="2" t="s">
         <v>1261</v>
@@ -27277,7 +27277,7 @@
         <v>1263</v>
       </c>
       <c r="K317" s="2" t="n">
-        <v>1254.0</v>
+        <v>1250.0</v>
       </c>
       <c r="L317" s="2" t="s">
         <v>1264</v>
@@ -27300,7 +27300,7 @@
         <v>1266</v>
       </c>
       <c r="D318" s="2" t="n">
-        <v>769.0</v>
+        <v>737.0</v>
       </c>
       <c r="E318" s="2" t="s">
         <v>1267</v>
@@ -27321,7 +27321,7 @@
         <v>1269</v>
       </c>
       <c r="K318" s="2" t="n">
-        <v>1329.0</v>
+        <v>1290.0</v>
       </c>
       <c r="L318" s="2" t="s">
         <v>1266</v>
@@ -27388,7 +27388,7 @@
         <v>1277</v>
       </c>
       <c r="D320" s="2" t="n">
-        <v>729.0</v>
+        <v>733.0</v>
       </c>
       <c r="E320" s="2" t="s">
         <v>1278</v>
@@ -27409,7 +27409,7 @@
         <v>1279</v>
       </c>
       <c r="K320" s="2" t="n">
-        <v>1030.0</v>
+        <v>1020.0</v>
       </c>
       <c r="L320" s="2" t="s">
         <v>1278</v>
@@ -27453,7 +27453,7 @@
         <v>1284</v>
       </c>
       <c r="K321" s="2" t="n">
-        <v>1046.0</v>
+        <v>1053.0</v>
       </c>
       <c r="L321" s="2" t="s">
         <v>1282</v>
@@ -27629,7 +27629,7 @@
         <v>1298</v>
       </c>
       <c r="K325" s="2" t="n">
-        <v>1145.0</v>
+        <v>802.0</v>
       </c>
       <c r="L325" s="2" t="s">
         <v>1297</v>
@@ -27740,7 +27740,7 @@
         <v>1302</v>
       </c>
       <c r="D328" s="2" t="n">
-        <v>641.0</v>
+        <v>645.0</v>
       </c>
       <c r="E328" s="2" t="s">
         <v>1303</v>
@@ -27784,7 +27784,7 @@
         <v>1307</v>
       </c>
       <c r="D329" s="2" t="n">
-        <v>712.0</v>
+        <v>713.0</v>
       </c>
       <c r="E329" s="2" t="s">
         <v>1307</v>
@@ -27805,7 +27805,7 @@
         <v>1308</v>
       </c>
       <c r="K329" s="2" t="n">
-        <v>959.0</v>
+        <v>1027.0</v>
       </c>
       <c r="L329" s="2" t="s">
         <v>1307</v>
@@ -27872,7 +27872,7 @@
         <v>1315</v>
       </c>
       <c r="D331" s="2" t="n">
-        <v>753.0</v>
+        <v>702.0</v>
       </c>
       <c r="E331" s="2" t="s">
         <v>1316</v>
@@ -27893,7 +27893,7 @@
         <v>1315</v>
       </c>
       <c r="K331" s="2" t="n">
-        <v>1163.0</v>
+        <v>1134.0</v>
       </c>
       <c r="L331" s="2" t="s">
         <v>1317</v>
@@ -27960,7 +27960,7 @@
         <v>1320</v>
       </c>
       <c r="D333" s="2" t="n">
-        <v>643.0</v>
+        <v>648.0</v>
       </c>
       <c r="E333" s="2" t="s">
         <v>1321</v>
@@ -27981,7 +27981,7 @@
         <v>1322</v>
       </c>
       <c r="K333" s="2" t="n">
-        <v>1364.0</v>
+        <v>1305.0</v>
       </c>
       <c r="L333" s="2" t="s">
         <v>1323</v>
@@ -28004,7 +28004,7 @@
         <v>1325</v>
       </c>
       <c r="D334" s="2" t="n">
-        <v>913.0</v>
+        <v>0.0</v>
       </c>
       <c r="E334" s="2" t="s">
         <v>1326</v>
@@ -28025,7 +28025,7 @@
         <v>1328</v>
       </c>
       <c r="K334" s="2" t="n">
-        <v>438.0</v>
+        <v>596.0</v>
       </c>
       <c r="L334" s="2" t="s">
         <v>1327</v>
@@ -28048,7 +28048,7 @@
         <v>1330</v>
       </c>
       <c r="D335" s="2" t="n">
-        <v>834.0</v>
+        <v>571.0</v>
       </c>
       <c r="E335" s="2" t="s">
         <v>1331</v>
@@ -28069,7 +28069,7 @@
         <v>1332</v>
       </c>
       <c r="K335" s="2" t="n">
-        <v>1212.0</v>
+        <v>1216.0</v>
       </c>
       <c r="L335" s="2" t="s">
         <v>1331</v>
@@ -28092,7 +28092,7 @@
         <v>1334</v>
       </c>
       <c r="D336" s="2" t="n">
-        <v>1222.0</v>
+        <v>1125.0</v>
       </c>
       <c r="E336" s="2" t="s">
         <v>1335</v>
@@ -28107,13 +28107,13 @@
         <v>1336</v>
       </c>
       <c r="I336" s="2" t="n">
-        <v>1713.0</v>
+        <v>1691.0</v>
       </c>
       <c r="J336" s="2" t="s">
         <v>1337</v>
       </c>
       <c r="K336" s="2" t="n">
-        <v>1560.0</v>
+        <v>1572.0</v>
       </c>
       <c r="L336" s="2" t="s">
         <v>1335</v>
@@ -28136,7 +28136,7 @@
         <v>1339</v>
       </c>
       <c r="D337" s="2" t="n">
-        <v>896.0</v>
+        <v>893.0</v>
       </c>
       <c r="E337" s="2" t="s">
         <v>1340</v>
@@ -28157,7 +28157,7 @@
         <v>1342</v>
       </c>
       <c r="K337" s="2" t="n">
-        <v>1253.0</v>
+        <v>1222.0</v>
       </c>
       <c r="L337" s="2" t="s">
         <v>1339</v>
@@ -28180,7 +28180,7 @@
         <v>1344</v>
       </c>
       <c r="D338" s="2" t="n">
-        <v>767.0</v>
+        <v>770.0</v>
       </c>
       <c r="E338" s="2" t="s">
         <v>1345</v>
@@ -28201,7 +28201,7 @@
         <v>1346</v>
       </c>
       <c r="K338" s="2" t="n">
-        <v>1460.0</v>
+        <v>1084.0</v>
       </c>
       <c r="L338" s="2" t="s">
         <v>1345</v>
@@ -28245,7 +28245,7 @@
         <v>1350</v>
       </c>
       <c r="K339" s="2" t="n">
-        <v>1083.0</v>
+        <v>1055.0</v>
       </c>
       <c r="L339" s="2" t="s">
         <v>1349</v>
@@ -28289,7 +28289,7 @@
         <v>1353</v>
       </c>
       <c r="K340" s="2" t="n">
-        <v>1280.0</v>
+        <v>1275.0</v>
       </c>
       <c r="L340" s="2" t="s">
         <v>1352</v>
@@ -28356,7 +28356,7 @@
         <v>1356</v>
       </c>
       <c r="D342" s="2" t="n">
-        <v>732.0</v>
+        <v>673.0</v>
       </c>
       <c r="E342" s="2" t="s">
         <v>1357</v>
@@ -28377,7 +28377,7 @@
         <v>1356</v>
       </c>
       <c r="K342" s="2" t="n">
-        <v>1090.0</v>
+        <v>1151.0</v>
       </c>
       <c r="L342" s="2" t="s">
         <v>1358</v>
@@ -28400,7 +28400,7 @@
         <v>1360</v>
       </c>
       <c r="D343" s="2" t="n">
-        <v>821.0</v>
+        <v>823.0</v>
       </c>
       <c r="E343" s="2" t="s">
         <v>1361</v>
@@ -28444,7 +28444,7 @@
         <v>1366</v>
       </c>
       <c r="D344" s="2" t="n">
-        <v>845.0</v>
+        <v>815.0</v>
       </c>
       <c r="E344" s="2" t="s">
         <v>1367</v>
@@ -28465,7 +28465,7 @@
         <v>1369</v>
       </c>
       <c r="K344" s="2" t="n">
-        <v>1233.0</v>
+        <v>1191.0</v>
       </c>
       <c r="L344" s="2" t="s">
         <v>1370</v>
@@ -28488,7 +28488,7 @@
         <v>1372</v>
       </c>
       <c r="D345" s="2" t="n">
-        <v>360.0</v>
+        <v>361.0</v>
       </c>
       <c r="E345" s="2" t="s">
         <v>1373</v>
@@ -28503,7 +28503,7 @@
         <v>1374</v>
       </c>
       <c r="I345" s="2" t="n">
-        <v>0.0</v>
+        <v>1549.0</v>
       </c>
       <c r="J345" s="2" t="s">
         <v>1375</v>
@@ -28664,7 +28664,7 @@
         <v>1386</v>
       </c>
       <c r="D349" s="2" t="n">
-        <v>1044.0</v>
+        <v>861.0</v>
       </c>
       <c r="E349" s="2" t="s">
         <v>1387</v>
@@ -28685,7 +28685,7 @@
         <v>1388</v>
       </c>
       <c r="K349" s="2" t="n">
-        <v>1414.0</v>
+        <v>1421.0</v>
       </c>
       <c r="L349" s="2" t="s">
         <v>1389</v>
@@ -28708,7 +28708,7 @@
         <v>1391</v>
       </c>
       <c r="D350" s="2" t="n">
-        <v>781.0</v>
+        <v>737.0</v>
       </c>
       <c r="E350" s="2" t="s">
         <v>1392</v>
@@ -28729,7 +28729,7 @@
         <v>1394</v>
       </c>
       <c r="K350" s="2" t="n">
-        <v>1070.0</v>
+        <v>1075.0</v>
       </c>
       <c r="L350" s="2" t="s">
         <v>1392</v>
@@ -28752,7 +28752,7 @@
         <v>1396</v>
       </c>
       <c r="D351" s="2" t="n">
-        <v>937.0</v>
+        <v>815.0</v>
       </c>
       <c r="E351" s="2" t="s">
         <v>1397</v>
@@ -28773,7 +28773,7 @@
         <v>1398</v>
       </c>
       <c r="K351" s="2" t="n">
-        <v>813.0</v>
+        <v>890.0</v>
       </c>
       <c r="L351" s="2" t="s">
         <v>1397</v>
@@ -28796,7 +28796,7 @@
         <v>1400</v>
       </c>
       <c r="D352" s="2" t="n">
-        <v>563.0</v>
+        <v>348.0</v>
       </c>
       <c r="E352" s="2" t="s">
         <v>1401</v>
@@ -29207,13 +29207,13 @@
         <v>1435</v>
       </c>
       <c r="I361" s="2" t="n">
-        <v>1395.0</v>
+        <v>1402.0</v>
       </c>
       <c r="J361" s="2" t="s">
         <v>1436</v>
       </c>
       <c r="K361" s="2" t="n">
-        <v>1151.0</v>
+        <v>1134.0</v>
       </c>
       <c r="L361" s="2" t="s">
         <v>27</v>
@@ -29345,7 +29345,7 @@
         <v>1449</v>
       </c>
       <c r="K364" s="2" t="n">
-        <v>1269.0</v>
+        <v>1240.0</v>
       </c>
       <c r="L364" s="2" t="s">
         <v>1448</v>
@@ -29368,7 +29368,7 @@
         <v>1451</v>
       </c>
       <c r="D365" s="2" t="n">
-        <v>725.0</v>
+        <v>727.0</v>
       </c>
       <c r="E365" s="2" t="s">
         <v>27</v>
@@ -29500,7 +29500,7 @@
         <v>1460</v>
       </c>
       <c r="D368" s="2" t="n">
-        <v>717.0</v>
+        <v>579.0</v>
       </c>
       <c r="E368" s="2" t="s">
         <v>1461</v>
@@ -29521,7 +29521,7 @@
         <v>1463</v>
       </c>
       <c r="K368" s="2" t="n">
-        <v>904.0</v>
+        <v>947.0</v>
       </c>
       <c r="L368" s="2" t="s">
         <v>1462</v>
@@ -29544,7 +29544,7 @@
         <v>1465</v>
       </c>
       <c r="D369" s="2" t="n">
-        <v>610.0</v>
+        <v>358.0</v>
       </c>
       <c r="E369" s="2" t="s">
         <v>1466</v>
@@ -29565,7 +29565,7 @@
         <v>1467</v>
       </c>
       <c r="K369" s="2" t="n">
-        <v>881.0</v>
+        <v>815.0</v>
       </c>
       <c r="L369" s="2" t="s">
         <v>1468</v>
@@ -29632,7 +29632,7 @@
         <v>1471</v>
       </c>
       <c r="D371" s="2" t="n">
-        <v>765.0</v>
+        <v>768.0</v>
       </c>
       <c r="E371" s="2" t="s">
         <v>1472</v>
@@ -29676,7 +29676,7 @@
         <v>1476</v>
       </c>
       <c r="D372" s="2" t="n">
-        <v>633.0</v>
+        <v>641.0</v>
       </c>
       <c r="E372" s="2" t="s">
         <v>1477</v>
@@ -29697,7 +29697,7 @@
         <v>1478</v>
       </c>
       <c r="K372" s="2" t="n">
-        <v>1130.0</v>
+        <v>1139.0</v>
       </c>
       <c r="L372" s="2" t="s">
         <v>1479</v>
@@ -29720,7 +29720,7 @@
         <v>1481</v>
       </c>
       <c r="D373" s="2" t="n">
-        <v>893.0</v>
+        <v>818.0</v>
       </c>
       <c r="E373" s="2" t="s">
         <v>1482</v>
@@ -29741,7 +29741,7 @@
         <v>1484</v>
       </c>
       <c r="K373" s="2" t="n">
-        <v>1066.0</v>
+        <v>1091.0</v>
       </c>
       <c r="L373" s="2" t="s">
         <v>1485</v>
@@ -29764,7 +29764,7 @@
         <v>1487</v>
       </c>
       <c r="D374" s="2" t="n">
-        <v>815.0</v>
+        <v>697.0</v>
       </c>
       <c r="E374" s="2" t="s">
         <v>1488</v>
@@ -29779,13 +29779,13 @@
         <v>1488</v>
       </c>
       <c r="I374" s="2" t="n">
-        <v>1418.0</v>
+        <v>1393.0</v>
       </c>
       <c r="J374" s="2" t="s">
         <v>1489</v>
       </c>
       <c r="K374" s="2" t="n">
-        <v>1090.0</v>
+        <v>1111.0</v>
       </c>
       <c r="L374" s="2" t="s">
         <v>1490</v>
@@ -29808,7 +29808,7 @@
         <v>1492</v>
       </c>
       <c r="D375" s="2" t="n">
-        <v>783.0</v>
+        <v>794.0</v>
       </c>
       <c r="E375" s="2" t="s">
         <v>1493</v>
@@ -29829,7 +29829,7 @@
         <v>1495</v>
       </c>
       <c r="K375" s="2" t="n">
-        <v>1197.0</v>
+        <v>1219.0</v>
       </c>
       <c r="L375" s="2" t="s">
         <v>1496</v>
@@ -30005,7 +30005,7 @@
         <v>1515</v>
       </c>
       <c r="K379" s="2" t="n">
-        <v>1018.0</v>
+        <v>1008.0</v>
       </c>
       <c r="L379" s="2" t="s">
         <v>1513</v>
@@ -30049,7 +30049,7 @@
         <v>1520</v>
       </c>
       <c r="K380" s="2" t="n">
-        <v>777.0</v>
+        <v>802.0</v>
       </c>
       <c r="L380" s="2" t="s">
         <v>1521</v>
@@ -30072,7 +30072,7 @@
         <v>1523</v>
       </c>
       <c r="D381" s="2" t="n">
-        <v>1105.0</v>
+        <v>750.0</v>
       </c>
       <c r="E381" s="2" t="s">
         <v>1524</v>
@@ -30093,7 +30093,7 @@
         <v>1526</v>
       </c>
       <c r="K381" s="2" t="n">
-        <v>1015.0</v>
+        <v>1002.0</v>
       </c>
       <c r="L381" s="2" t="s">
         <v>1525</v>
@@ -30116,7 +30116,7 @@
         <v>1528</v>
       </c>
       <c r="D382" s="2" t="n">
-        <v>572.0</v>
+        <v>352.0</v>
       </c>
       <c r="E382" s="2" t="s">
         <v>1528</v>
@@ -30137,7 +30137,7 @@
         <v>1529</v>
       </c>
       <c r="K382" s="2" t="n">
-        <v>764.0</v>
+        <v>941.0</v>
       </c>
       <c r="L382" s="2" t="s">
         <v>1528</v>
@@ -30269,7 +30269,7 @@
         <v>1542</v>
       </c>
       <c r="K385" s="2" t="n">
-        <v>1211.0</v>
+        <v>1215.0</v>
       </c>
       <c r="L385" s="2" t="s">
         <v>1543</v>
@@ -30336,7 +30336,7 @@
         <v>1546</v>
       </c>
       <c r="D387" s="2" t="n">
-        <v>914.0</v>
+        <v>351.0</v>
       </c>
       <c r="E387" s="2" t="s">
         <v>1547</v>
@@ -30351,13 +30351,13 @@
         <v>1547</v>
       </c>
       <c r="I387" s="2" t="n">
-        <v>1599.0</v>
+        <v>1547.0</v>
       </c>
       <c r="J387" s="2" t="s">
         <v>1548</v>
       </c>
       <c r="K387" s="2" t="n">
-        <v>1167.0</v>
+        <v>1094.0</v>
       </c>
       <c r="L387" s="2" t="s">
         <v>1547</v>
@@ -30380,7 +30380,7 @@
         <v>1550</v>
       </c>
       <c r="D388" s="2" t="n">
-        <v>682.0</v>
+        <v>686.0</v>
       </c>
       <c r="E388" s="2" t="s">
         <v>1551</v>
@@ -30401,7 +30401,7 @@
         <v>1552</v>
       </c>
       <c r="K388" s="2" t="n">
-        <v>1241.0</v>
+        <v>1236.0</v>
       </c>
       <c r="L388" s="2" t="s">
         <v>1551</v>
@@ -30424,7 +30424,7 @@
         <v>1554</v>
       </c>
       <c r="D389" s="2" t="n">
-        <v>781.0</v>
+        <v>718.0</v>
       </c>
       <c r="E389" s="2" t="s">
         <v>1555</v>
@@ -30439,13 +30439,13 @@
         <v>1556</v>
       </c>
       <c r="I389" s="2" t="n">
-        <v>1460.0</v>
+        <v>1432.0</v>
       </c>
       <c r="J389" s="2" t="s">
         <v>1557</v>
       </c>
       <c r="K389" s="2" t="n">
-        <v>965.0</v>
+        <v>1029.0</v>
       </c>
       <c r="L389" s="2" t="s">
         <v>1558</v>
@@ -30468,7 +30468,7 @@
         <v>1560</v>
       </c>
       <c r="D390" s="2" t="n">
-        <v>773.0</v>
+        <v>770.0</v>
       </c>
       <c r="E390" s="2" t="s">
         <v>1561</v>
@@ -30489,7 +30489,7 @@
         <v>1563</v>
       </c>
       <c r="K390" s="2" t="n">
-        <v>1092.0</v>
+        <v>1117.0</v>
       </c>
       <c r="L390" s="2" t="s">
         <v>1564</v>
@@ -30512,7 +30512,7 @@
         <v>1566</v>
       </c>
       <c r="D391" s="2" t="n">
-        <v>644.0</v>
+        <v>556.0</v>
       </c>
       <c r="E391" s="2" t="s">
         <v>1566</v>
@@ -30556,7 +30556,7 @@
         <v>1569</v>
       </c>
       <c r="D392" s="2" t="n">
-        <v>776.0</v>
+        <v>785.0</v>
       </c>
       <c r="E392" s="2" t="s">
         <v>27</v>
@@ -30577,7 +30577,7 @@
         <v>1570</v>
       </c>
       <c r="K392" s="2" t="n">
-        <v>1234.0</v>
+        <v>1230.0</v>
       </c>
       <c r="L392" s="2" t="s">
         <v>1571</v>
@@ -30732,7 +30732,7 @@
         <v>1586</v>
       </c>
       <c r="D396" s="2" t="n">
-        <v>857.0</v>
+        <v>739.0</v>
       </c>
       <c r="E396" s="2" t="s">
         <v>1587</v>
@@ -30753,7 +30753,7 @@
         <v>1589</v>
       </c>
       <c r="K396" s="2" t="n">
-        <v>1382.0</v>
+        <v>1379.0</v>
       </c>
       <c r="L396" s="2" t="s">
         <v>1590</v>
@@ -30864,7 +30864,7 @@
         <v>1598</v>
       </c>
       <c r="D399" s="2" t="n">
-        <v>963.0</v>
+        <v>964.0</v>
       </c>
       <c r="E399" s="2" t="s">
         <v>1599</v>
@@ -30967,13 +30967,13 @@
         <v>1604</v>
       </c>
       <c r="I401" s="2" t="n">
-        <v>1395.0</v>
+        <v>1429.0</v>
       </c>
       <c r="J401" s="2" t="s">
         <v>1605</v>
       </c>
       <c r="K401" s="2" t="n">
-        <v>1415.0</v>
+        <v>1438.0</v>
       </c>
       <c r="L401" s="2" t="s">
         <v>1604</v>
@@ -31017,7 +31017,7 @@
         <v>1610</v>
       </c>
       <c r="K402" s="2" t="n">
-        <v>952.0</v>
+        <v>959.0</v>
       </c>
       <c r="L402" s="2" t="s">
         <v>1609</v>
@@ -31040,7 +31040,7 @@
         <v>1612</v>
       </c>
       <c r="D403" s="2" t="n">
-        <v>796.0</v>
+        <v>798.0</v>
       </c>
       <c r="E403" s="2" t="s">
         <v>1613</v>
@@ -31061,7 +31061,7 @@
         <v>1614</v>
       </c>
       <c r="K403" s="2" t="n">
-        <v>1123.0</v>
+        <v>1127.0</v>
       </c>
       <c r="L403" s="2" t="s">
         <v>1613</v>
@@ -31128,7 +31128,7 @@
         <v>1620</v>
       </c>
       <c r="D405" s="2" t="n">
-        <v>599.0</v>
+        <v>667.0</v>
       </c>
       <c r="E405" s="2" t="s">
         <v>1621</v>
@@ -31172,7 +31172,7 @@
         <v>1624</v>
       </c>
       <c r="D406" s="2" t="n">
-        <v>789.0</v>
+        <v>802.0</v>
       </c>
       <c r="E406" s="2" t="s">
         <v>1625</v>
@@ -31187,13 +31187,13 @@
         <v>1626</v>
       </c>
       <c r="I406" s="2" t="n">
-        <v>1468.0</v>
+        <v>1472.0</v>
       </c>
       <c r="J406" s="2" t="s">
         <v>1627</v>
       </c>
       <c r="K406" s="2" t="n">
-        <v>1035.0</v>
+        <v>1037.0</v>
       </c>
       <c r="L406" s="2" t="s">
         <v>1625</v>
@@ -31260,7 +31260,7 @@
         <v>1634</v>
       </c>
       <c r="D408" s="2" t="n">
-        <v>1082.0</v>
+        <v>638.0</v>
       </c>
       <c r="E408" s="2" t="s">
         <v>1635</v>
@@ -31325,7 +31325,7 @@
         <v>1642</v>
       </c>
       <c r="K409" s="2" t="n">
-        <v>1066.0</v>
+        <v>1065.0</v>
       </c>
       <c r="L409" s="2" t="s">
         <v>1643</v>
@@ -31348,7 +31348,7 @@
         <v>1645</v>
       </c>
       <c r="D410" s="2" t="n">
-        <v>825.0</v>
+        <v>828.0</v>
       </c>
       <c r="E410" s="2" t="s">
         <v>1646</v>
@@ -31369,7 +31369,7 @@
         <v>1647</v>
       </c>
       <c r="K410" s="2" t="n">
-        <v>1296.0</v>
+        <v>1264.0</v>
       </c>
       <c r="L410" s="2" t="s">
         <v>1646</v>
@@ -31392,7 +31392,7 @@
         <v>1649</v>
       </c>
       <c r="D411" s="2" t="n">
-        <v>842.0</v>
+        <v>825.0</v>
       </c>
       <c r="E411" s="2" t="s">
         <v>1650</v>
@@ -31436,7 +31436,7 @@
         <v>1655</v>
       </c>
       <c r="D412" s="2" t="n">
-        <v>812.0</v>
+        <v>814.0</v>
       </c>
       <c r="E412" s="2" t="s">
         <v>1656</v>
@@ -31457,7 +31457,7 @@
         <v>1658</v>
       </c>
       <c r="K412" s="2" t="n">
-        <v>1414.0</v>
+        <v>1383.0</v>
       </c>
       <c r="L412" s="2" t="s">
         <v>1656</v>
@@ -31480,7 +31480,7 @@
         <v>1660</v>
       </c>
       <c r="D413" s="2" t="n">
-        <v>970.0</v>
+        <v>350.0</v>
       </c>
       <c r="E413" s="2" t="s">
         <v>1661</v>
@@ -31495,7 +31495,7 @@
         <v>1662</v>
       </c>
       <c r="I413" s="2" t="n">
-        <v>1571.0</v>
+        <v>1534.0</v>
       </c>
       <c r="J413" s="2" t="s">
         <v>1663</v>
@@ -31524,7 +31524,7 @@
         <v>1666</v>
       </c>
       <c r="D414" s="2" t="n">
-        <v>896.0</v>
+        <v>897.0</v>
       </c>
       <c r="E414" s="2" t="s">
         <v>1666</v>
@@ -31545,7 +31545,7 @@
         <v>1667</v>
       </c>
       <c r="K414" s="2" t="n">
-        <v>1074.0</v>
+        <v>1054.0</v>
       </c>
       <c r="L414" s="2" t="s">
         <v>1666</v>
@@ -31568,7 +31568,7 @@
         <v>1669</v>
       </c>
       <c r="D415" s="2" t="n">
-        <v>863.0</v>
+        <v>566.0</v>
       </c>
       <c r="E415" s="2" t="s">
         <v>1670</v>
@@ -31589,7 +31589,7 @@
         <v>1672</v>
       </c>
       <c r="K415" s="2" t="n">
-        <v>573.0</v>
+        <v>659.0</v>
       </c>
       <c r="L415" s="2" t="s">
         <v>1673</v>
@@ -31612,7 +31612,7 @@
         <v>1675</v>
       </c>
       <c r="D416" s="2" t="n">
-        <v>852.0</v>
+        <v>854.0</v>
       </c>
       <c r="E416" s="2" t="s">
         <v>1676</v>
@@ -31677,7 +31677,7 @@
         <v>1681</v>
       </c>
       <c r="K417" s="2" t="n">
-        <v>1055.0</v>
+        <v>1020.0</v>
       </c>
       <c r="L417" s="2" t="s">
         <v>1680</v>
@@ -31700,7 +31700,7 @@
         <v>1683</v>
       </c>
       <c r="D418" s="2" t="n">
-        <v>898.0</v>
+        <v>821.0</v>
       </c>
       <c r="E418" s="2" t="s">
         <v>1684</v>
@@ -31721,7 +31721,7 @@
         <v>1685</v>
       </c>
       <c r="K418" s="2" t="n">
-        <v>1145.0</v>
+        <v>1109.0</v>
       </c>
       <c r="L418" s="2" t="s">
         <v>1684</v>
@@ -31744,7 +31744,7 @@
         <v>1687</v>
       </c>
       <c r="D419" s="2" t="n">
-        <v>952.0</v>
+        <v>827.0</v>
       </c>
       <c r="E419" s="2" t="s">
         <v>1688</v>
@@ -31809,7 +31809,7 @@
         <v>1695</v>
       </c>
       <c r="K420" s="2" t="n">
-        <v>916.0</v>
+        <v>980.0</v>
       </c>
       <c r="L420" s="2" t="s">
         <v>1696</v>
@@ -31853,7 +31853,7 @@
         <v>1700</v>
       </c>
       <c r="K421" s="2" t="n">
-        <v>841.0</v>
+        <v>966.0</v>
       </c>
       <c r="L421" s="2" t="s">
         <v>1701</v>
@@ -31876,7 +31876,7 @@
         <v>1703</v>
       </c>
       <c r="D422" s="2" t="n">
-        <v>786.0</v>
+        <v>788.0</v>
       </c>
       <c r="E422" s="2" t="s">
         <v>1704</v>
@@ -31897,7 +31897,7 @@
         <v>1705</v>
       </c>
       <c r="K422" s="2" t="n">
-        <v>1251.0</v>
+        <v>1228.0</v>
       </c>
       <c r="L422" s="2" t="s">
         <v>1704</v>
@@ -31985,7 +31985,7 @@
         <v>1711</v>
       </c>
       <c r="K424" s="2" t="n">
-        <v>681.0</v>
+        <v>726.0</v>
       </c>
       <c r="L424" s="2" t="s">
         <v>1709</v>
@@ -32029,7 +32029,7 @@
         <v>1714</v>
       </c>
       <c r="K425" s="2" t="n">
-        <v>1055.0</v>
+        <v>1058.0</v>
       </c>
       <c r="L425" s="2" t="s">
         <v>1713</v>
@@ -32073,7 +32073,7 @@
         <v>1718</v>
       </c>
       <c r="K426" s="2" t="n">
-        <v>1039.0</v>
+        <v>1054.0</v>
       </c>
       <c r="L426" s="2" t="s">
         <v>1717</v>
@@ -32184,7 +32184,7 @@
         <v>1724</v>
       </c>
       <c r="D429" s="2" t="n">
-        <v>837.0</v>
+        <v>575.0</v>
       </c>
       <c r="E429" s="2" t="s">
         <v>1724</v>
@@ -32199,13 +32199,13 @@
         <v>1724</v>
       </c>
       <c r="I429" s="2" t="n">
-        <v>1445.0</v>
+        <v>1443.0</v>
       </c>
       <c r="J429" s="2" t="s">
         <v>1725</v>
       </c>
       <c r="K429" s="2" t="n">
-        <v>926.0</v>
+        <v>990.0</v>
       </c>
       <c r="L429" s="2" t="s">
         <v>27</v>
@@ -32272,7 +32272,7 @@
         <v>1731</v>
       </c>
       <c r="D431" s="2" t="n">
-        <v>613.0</v>
+        <v>632.0</v>
       </c>
       <c r="E431" s="2" t="s">
         <v>1732</v>
@@ -32293,7 +32293,7 @@
         <v>1733</v>
       </c>
       <c r="K431" s="2" t="n">
-        <v>1174.0</v>
+        <v>1162.0</v>
       </c>
       <c r="L431" s="2" t="s">
         <v>1732</v>
@@ -32381,7 +32381,7 @@
         <v>1742</v>
       </c>
       <c r="K433" s="2" t="n">
-        <v>1063.0</v>
+        <v>1026.0</v>
       </c>
       <c r="L433" s="2" t="s">
         <v>1743</v>
@@ -32425,7 +32425,7 @@
         <v>1748</v>
       </c>
       <c r="K434" s="2" t="n">
-        <v>1166.0</v>
+        <v>1187.0</v>
       </c>
       <c r="L434" s="2" t="s">
         <v>1746</v>
@@ -32513,7 +32513,7 @@
         <v>1754</v>
       </c>
       <c r="K436" s="2" t="n">
-        <v>1199.0</v>
+        <v>1179.0</v>
       </c>
       <c r="L436" s="2" t="s">
         <v>1752</v>
@@ -32668,7 +32668,7 @@
         <v>1763</v>
       </c>
       <c r="D440" s="2" t="n">
-        <v>780.0</v>
+        <v>734.0</v>
       </c>
       <c r="E440" s="2" t="s">
         <v>1764</v>
@@ -32733,7 +32733,7 @@
         <v>1769</v>
       </c>
       <c r="K441" s="2" t="n">
-        <v>1194.0</v>
+        <v>1166.0</v>
       </c>
       <c r="L441" s="2" t="s">
         <v>1768</v>
@@ -32756,7 +32756,7 @@
         <v>1771</v>
       </c>
       <c r="D442" s="2" t="n">
-        <v>673.0</v>
+        <v>786.0</v>
       </c>
       <c r="E442" s="2" t="s">
         <v>1772</v>
@@ -32777,7 +32777,7 @@
         <v>1774</v>
       </c>
       <c r="K442" s="2" t="n">
-        <v>1143.0</v>
+        <v>1167.0</v>
       </c>
       <c r="L442" s="2" t="s">
         <v>1775</v>
@@ -32976,7 +32976,7 @@
         <v>1791</v>
       </c>
       <c r="D447" s="2" t="n">
-        <v>711.0</v>
+        <v>715.0</v>
       </c>
       <c r="E447" s="2" t="s">
         <v>1792</v>
@@ -33173,7 +33173,7 @@
         <v>1804</v>
       </c>
       <c r="K451" s="2" t="n">
-        <v>1040.0</v>
+        <v>1050.0</v>
       </c>
       <c r="L451" s="2" t="s">
         <v>1805</v>
@@ -33217,7 +33217,7 @@
         <v>1810</v>
       </c>
       <c r="K452" s="2" t="n">
-        <v>1384.0</v>
+        <v>1388.0</v>
       </c>
       <c r="L452" s="2" t="s">
         <v>1811</v>
@@ -33372,7 +33372,7 @@
         <v>1826</v>
       </c>
       <c r="D456" s="2" t="n">
-        <v>640.0</v>
+        <v>690.0</v>
       </c>
       <c r="E456" s="2" t="s">
         <v>1826</v>
@@ -33387,13 +33387,13 @@
         <v>1827</v>
       </c>
       <c r="I456" s="2" t="n">
-        <v>1410.0</v>
+        <v>1380.0</v>
       </c>
       <c r="J456" s="2" t="s">
         <v>1828</v>
       </c>
       <c r="K456" s="2" t="n">
-        <v>1061.0</v>
+        <v>1084.0</v>
       </c>
       <c r="L456" s="2" t="s">
         <v>1826</v>
@@ -33416,7 +33416,7 @@
         <v>1830</v>
       </c>
       <c r="D457" s="2" t="n">
-        <v>905.0</v>
+        <v>907.0</v>
       </c>
       <c r="E457" s="2" t="s">
         <v>1831</v>
@@ -33460,7 +33460,7 @@
         <v>1835</v>
       </c>
       <c r="D458" s="2" t="n">
-        <v>731.0</v>
+        <v>733.0</v>
       </c>
       <c r="E458" s="2" t="s">
         <v>1836</v>
@@ -33481,7 +33481,7 @@
         <v>1838</v>
       </c>
       <c r="K458" s="2" t="n">
-        <v>1236.0</v>
+        <v>1238.0</v>
       </c>
       <c r="L458" s="2" t="s">
         <v>1836</v>
@@ -33504,7 +33504,7 @@
         <v>1840</v>
       </c>
       <c r="D459" s="2" t="n">
-        <v>834.0</v>
+        <v>849.0</v>
       </c>
       <c r="E459" s="2" t="s">
         <v>1841</v>
@@ -33525,7 +33525,7 @@
         <v>1842</v>
       </c>
       <c r="K459" s="2" t="n">
-        <v>981.0</v>
+        <v>998.0</v>
       </c>
       <c r="L459" s="2" t="s">
         <v>1840</v>
@@ -33592,7 +33592,7 @@
         <v>1849</v>
       </c>
       <c r="D461" s="2" t="n">
-        <v>903.0</v>
+        <v>905.0</v>
       </c>
       <c r="E461" s="2" t="s">
         <v>1850</v>
@@ -33636,7 +33636,7 @@
         <v>1854</v>
       </c>
       <c r="D462" s="2" t="n">
-        <v>831.0</v>
+        <v>757.0</v>
       </c>
       <c r="E462" s="2" t="s">
         <v>1855</v>
@@ -33657,7 +33657,7 @@
         <v>1856</v>
       </c>
       <c r="K462" s="2" t="n">
-        <v>1158.0</v>
+        <v>1162.0</v>
       </c>
       <c r="L462" s="2" t="s">
         <v>1855</v>
@@ -33745,7 +33745,7 @@
         <v>1866</v>
       </c>
       <c r="K464" s="2" t="n">
-        <v>902.0</v>
+        <v>941.0</v>
       </c>
       <c r="L464" s="2" t="s">
         <v>1864</v>
@@ -33988,7 +33988,7 @@
         <v>1891</v>
       </c>
       <c r="D470" s="2" t="n">
-        <v>799.0</v>
+        <v>802.0</v>
       </c>
       <c r="E470" s="2" t="s">
         <v>1892</v>
@@ -34076,7 +34076,7 @@
         <v>1898</v>
       </c>
       <c r="D472" s="2" t="n">
-        <v>429.0</v>
+        <v>0.0</v>
       </c>
       <c r="E472" s="2" t="s">
         <v>1899</v>
@@ -34252,7 +34252,7 @@
         <v>1908</v>
       </c>
       <c r="D476" s="2" t="n">
-        <v>1014.0</v>
+        <v>906.0</v>
       </c>
       <c r="E476" s="2" t="s">
         <v>1909</v>
@@ -34340,7 +34340,7 @@
         <v>1917</v>
       </c>
       <c r="D478" s="2" t="n">
-        <v>862.0</v>
+        <v>738.0</v>
       </c>
       <c r="E478" s="2" t="s">
         <v>1918</v>
@@ -34428,7 +34428,7 @@
         <v>1924</v>
       </c>
       <c r="D480" s="2" t="n">
-        <v>781.0</v>
+        <v>711.0</v>
       </c>
       <c r="E480" s="2" t="s">
         <v>1925</v>
@@ -34449,7 +34449,7 @@
         <v>1927</v>
       </c>
       <c r="K480" s="2" t="n">
-        <v>1111.0</v>
+        <v>1116.0</v>
       </c>
       <c r="L480" s="2" t="s">
         <v>1926</v>
@@ -34472,7 +34472,7 @@
         <v>1929</v>
       </c>
       <c r="D481" s="2" t="n">
-        <v>909.0</v>
+        <v>913.0</v>
       </c>
       <c r="E481" s="2" t="s">
         <v>1930</v>
@@ -34516,7 +34516,7 @@
         <v>1934</v>
       </c>
       <c r="D482" s="2" t="n">
-        <v>735.0</v>
+        <v>737.0</v>
       </c>
       <c r="E482" s="2" t="s">
         <v>1935</v>
@@ -34560,7 +34560,7 @@
         <v>1940</v>
       </c>
       <c r="D483" s="2" t="n">
-        <v>731.0</v>
+        <v>837.0</v>
       </c>
       <c r="E483" s="2" t="s">
         <v>1940</v>
@@ -34581,7 +34581,7 @@
         <v>1941</v>
       </c>
       <c r="K483" s="2" t="n">
-        <v>1340.0</v>
+        <v>1344.0</v>
       </c>
       <c r="L483" s="2" t="s">
         <v>1940</v>
@@ -34604,7 +34604,7 @@
         <v>1943</v>
       </c>
       <c r="D484" s="2" t="n">
-        <v>930.0</v>
+        <v>898.0</v>
       </c>
       <c r="E484" s="2" t="s">
         <v>1944</v>
@@ -34625,7 +34625,7 @@
         <v>1944</v>
       </c>
       <c r="K484" s="2" t="n">
-        <v>1470.0</v>
+        <v>1473.0</v>
       </c>
       <c r="L484" s="2" t="s">
         <v>1945</v>
@@ -34713,7 +34713,7 @@
         <v>1950</v>
       </c>
       <c r="K486" s="2" t="n">
-        <v>795.0</v>
+        <v>913.0</v>
       </c>
       <c r="L486" s="2" t="s">
         <v>1949</v>
@@ -34736,7 +34736,7 @@
         <v>1952</v>
       </c>
       <c r="D487" s="2" t="n">
-        <v>956.0</v>
+        <v>752.0</v>
       </c>
       <c r="E487" s="2" t="s">
         <v>1952</v>
@@ -34780,7 +34780,7 @@
         <v>1956</v>
       </c>
       <c r="D488" s="2" t="n">
-        <v>764.0</v>
+        <v>767.0</v>
       </c>
       <c r="E488" s="2" t="s">
         <v>1957</v>
@@ -34912,7 +34912,7 @@
         <v>1971</v>
       </c>
       <c r="D491" s="2" t="n">
-        <v>796.0</v>
+        <v>798.0</v>
       </c>
       <c r="E491" s="2" t="s">
         <v>1972</v>
@@ -35109,7 +35109,7 @@
         <v>1981</v>
       </c>
       <c r="K495" s="2" t="n">
-        <v>1339.0</v>
+        <v>1391.0</v>
       </c>
       <c r="L495" s="2" t="s">
         <v>1982</v>
@@ -35132,7 +35132,7 @@
         <v>1984</v>
       </c>
       <c r="D496" s="2" t="n">
-        <v>905.0</v>
+        <v>908.0</v>
       </c>
       <c r="E496" s="2" t="s">
         <v>1985</v>
@@ -35176,7 +35176,7 @@
         <v>1989</v>
       </c>
       <c r="D497" s="2" t="n">
-        <v>379.0</v>
+        <v>381.0</v>
       </c>
       <c r="E497" s="2" t="s">
         <v>1990</v>
@@ -35191,13 +35191,13 @@
         <v>1991</v>
       </c>
       <c r="I497" s="2" t="n">
-        <v>1400.0</v>
+        <v>1405.0</v>
       </c>
       <c r="J497" s="2" t="s">
         <v>1992</v>
       </c>
       <c r="K497" s="2" t="n">
-        <v>1030.0</v>
+        <v>1028.0</v>
       </c>
       <c r="L497" s="2" t="s">
         <v>1990</v>
@@ -35285,7 +35285,7 @@
         <v>1998</v>
       </c>
       <c r="K499" s="2" t="n">
-        <v>1432.0</v>
+        <v>1363.0</v>
       </c>
       <c r="L499" s="2" t="s">
         <v>1997</v>
@@ -35308,7 +35308,7 @@
         <v>2000</v>
       </c>
       <c r="D500" s="2" t="n">
-        <v>984.0</v>
+        <v>836.0</v>
       </c>
       <c r="E500" s="2" t="s">
         <v>2001</v>
@@ -35329,7 +35329,7 @@
         <v>2003</v>
       </c>
       <c r="K500" s="2" t="n">
-        <v>1538.0</v>
+        <v>1635.0</v>
       </c>
       <c r="L500" s="2" t="s">
         <v>2004</v>
@@ -35352,7 +35352,7 @@
         <v>2006</v>
       </c>
       <c r="D501" s="2" t="n">
-        <v>761.0</v>
+        <v>578.0</v>
       </c>
       <c r="E501" s="2" t="s">
         <v>2007</v>
@@ -35417,7 +35417,7 @@
         <v>2012</v>
       </c>
       <c r="K502" s="2" t="n">
-        <v>1173.0</v>
+        <v>1179.0</v>
       </c>
       <c r="L502" s="2" t="s">
         <v>2010</v>
@@ -35593,7 +35593,7 @@
         <v>2026</v>
       </c>
       <c r="K506" s="2" t="n">
-        <v>1147.0</v>
+        <v>1151.0</v>
       </c>
       <c r="L506" s="2" t="s">
         <v>2027</v>
@@ -35616,7 +35616,7 @@
         <v>2029</v>
       </c>
       <c r="D507" s="2" t="n">
-        <v>426.0</v>
+        <v>0.0</v>
       </c>
       <c r="E507" s="2" t="s">
         <v>2030</v>
@@ -35637,7 +35637,7 @@
         <v>2032</v>
       </c>
       <c r="K507" s="2" t="n">
-        <v>1201.0</v>
+        <v>1241.0</v>
       </c>
       <c r="L507" s="2" t="s">
         <v>2030</v>
@@ -35704,7 +35704,7 @@
         <v>2039</v>
       </c>
       <c r="D509" s="2" t="n">
-        <v>916.0</v>
+        <v>919.0</v>
       </c>
       <c r="E509" s="2" t="s">
         <v>2040</v>
@@ -35725,7 +35725,7 @@
         <v>2042</v>
       </c>
       <c r="K509" s="2" t="n">
-        <v>1289.0</v>
+        <v>1283.0</v>
       </c>
       <c r="L509" s="2" t="s">
         <v>2043</v>
@@ -35748,7 +35748,7 @@
         <v>2045</v>
       </c>
       <c r="D510" s="2" t="n">
-        <v>726.0</v>
+        <v>786.0</v>
       </c>
       <c r="E510" s="2" t="s">
         <v>2046</v>
@@ -35769,7 +35769,7 @@
         <v>2048</v>
       </c>
       <c r="K510" s="2" t="n">
-        <v>1231.0</v>
+        <v>1234.0</v>
       </c>
       <c r="L510" s="2" t="s">
         <v>2047</v>
@@ -35836,7 +35836,7 @@
         <v>2054</v>
       </c>
       <c r="D512" s="2" t="n">
-        <v>709.0</v>
+        <v>792.0</v>
       </c>
       <c r="E512" s="2" t="s">
         <v>2055</v>
@@ -35857,7 +35857,7 @@
         <v>2056</v>
       </c>
       <c r="K512" s="2" t="n">
-        <v>1131.0</v>
+        <v>1218.0</v>
       </c>
       <c r="L512" s="2" t="s">
         <v>2055</v>
@@ -35901,7 +35901,7 @@
         <v>2060</v>
       </c>
       <c r="K513" s="2" t="n">
-        <v>1078.0</v>
+        <v>1063.0</v>
       </c>
       <c r="L513" s="2" t="s">
         <v>2061</v>
@@ -35945,7 +35945,7 @@
         <v>2066</v>
       </c>
       <c r="K514" s="2" t="n">
-        <v>1224.0</v>
+        <v>1181.0</v>
       </c>
       <c r="L514" s="2" t="s">
         <v>2067</v>
@@ -35968,7 +35968,7 @@
         <v>2069</v>
       </c>
       <c r="D515" s="2" t="n">
-        <v>790.0</v>
+        <v>804.0</v>
       </c>
       <c r="E515" s="2" t="s">
         <v>2070</v>
@@ -35983,13 +35983,13 @@
         <v>2071</v>
       </c>
       <c r="I515" s="2" t="n">
-        <v>1346.0</v>
+        <v>1352.0</v>
       </c>
       <c r="J515" s="2" t="s">
         <v>2071</v>
       </c>
       <c r="K515" s="2" t="n">
-        <v>1390.0</v>
+        <v>1411.0</v>
       </c>
       <c r="L515" s="2" t="s">
         <v>2070</v>
@@ -36012,7 +36012,7 @@
         <v>2073</v>
       </c>
       <c r="D516" s="2" t="n">
-        <v>563.0</v>
+        <v>537.0</v>
       </c>
       <c r="E516" s="2" t="s">
         <v>2074</v>
@@ -36033,7 +36033,7 @@
         <v>2076</v>
       </c>
       <c r="K516" s="2" t="n">
-        <v>1292.0</v>
+        <v>1286.0</v>
       </c>
       <c r="L516" s="2" t="s">
         <v>2075</v>
@@ -36121,7 +36121,7 @@
         <v>2085</v>
       </c>
       <c r="K518" s="2" t="n">
-        <v>964.0</v>
+        <v>985.0</v>
       </c>
       <c r="L518" s="2" t="s">
         <v>2084</v>
@@ -36320,7 +36320,7 @@
         <v>2091</v>
       </c>
       <c r="D523" s="2" t="n">
-        <v>734.0</v>
+        <v>603.0</v>
       </c>
       <c r="E523" s="2" t="s">
         <v>2092</v>
@@ -36341,7 +36341,7 @@
         <v>2093</v>
       </c>
       <c r="K523" s="2" t="n">
-        <v>1288.0</v>
+        <v>1301.0</v>
       </c>
       <c r="L523" s="2" t="s">
         <v>2092</v>
@@ -36364,7 +36364,7 @@
         <v>2095</v>
       </c>
       <c r="D524" s="2" t="n">
-        <v>777.0</v>
+        <v>864.0</v>
       </c>
       <c r="E524" s="2" t="s">
         <v>2096</v>
@@ -36385,7 +36385,7 @@
         <v>2098</v>
       </c>
       <c r="K524" s="2" t="n">
-        <v>1289.0</v>
+        <v>1281.0</v>
       </c>
       <c r="L524" s="2" t="s">
         <v>2096</v>
@@ -36408,7 +36408,7 @@
         <v>2100</v>
       </c>
       <c r="D525" s="2" t="n">
-        <v>897.0</v>
+        <v>834.0</v>
       </c>
       <c r="E525" s="2" t="s">
         <v>2101</v>
@@ -36496,7 +36496,7 @@
         <v>2107</v>
       </c>
       <c r="D527" s="2" t="n">
-        <v>357.0</v>
+        <v>358.0</v>
       </c>
       <c r="E527" s="2" t="s">
         <v>2108</v>
@@ -36540,7 +36540,7 @@
         <v>2111</v>
       </c>
       <c r="D528" s="2" t="n">
-        <v>875.0</v>
+        <v>883.0</v>
       </c>
       <c r="E528" s="2" t="s">
         <v>2112</v>
@@ -36555,13 +36555,13 @@
         <v>2111</v>
       </c>
       <c r="I528" s="2" t="n">
-        <v>1522.0</v>
+        <v>1512.0</v>
       </c>
       <c r="J528" s="2" t="s">
         <v>2113</v>
       </c>
       <c r="K528" s="2" t="n">
-        <v>1470.0</v>
+        <v>1472.0</v>
       </c>
       <c r="L528" s="2" t="s">
         <v>2114</v>
@@ -36693,7 +36693,7 @@
         <v>2125</v>
       </c>
       <c r="K531" s="2" t="n">
-        <v>1067.0</v>
+        <v>1028.0</v>
       </c>
       <c r="L531" s="2" t="s">
         <v>2123</v>
@@ -36737,7 +36737,7 @@
         <v>2129</v>
       </c>
       <c r="K532" s="2" t="n">
-        <v>1129.0</v>
+        <v>1240.0</v>
       </c>
       <c r="L532" s="2" t="s">
         <v>2129</v>
@@ -36760,7 +36760,7 @@
         <v>2131</v>
       </c>
       <c r="D533" s="2" t="n">
-        <v>563.0</v>
+        <v>494.0</v>
       </c>
       <c r="E533" s="2" t="s">
         <v>2132</v>
@@ -36781,7 +36781,7 @@
         <v>2132</v>
       </c>
       <c r="K533" s="2" t="n">
-        <v>898.0</v>
+        <v>896.0</v>
       </c>
       <c r="L533" s="2" t="s">
         <v>2134</v>
@@ -36848,7 +36848,7 @@
         <v>2139</v>
       </c>
       <c r="D535" s="2" t="n">
-        <v>714.0</v>
+        <v>716.0</v>
       </c>
       <c r="E535" s="2" t="s">
         <v>2140</v>
@@ -36913,7 +36913,7 @@
         <v>2146</v>
       </c>
       <c r="K536" s="2" t="n">
-        <v>1163.0</v>
+        <v>1135.0</v>
       </c>
       <c r="L536" s="2" t="s">
         <v>2145</v>
@@ -37001,7 +37001,7 @@
         <v>2157</v>
       </c>
       <c r="K538" s="2" t="n">
-        <v>1220.0</v>
+        <v>1221.0</v>
       </c>
       <c r="L538" s="2" t="s">
         <v>2155</v>
@@ -37024,7 +37024,7 @@
         <v>2159</v>
       </c>
       <c r="D539" s="2" t="n">
-        <v>857.0</v>
+        <v>860.0</v>
       </c>
       <c r="E539" s="2" t="s">
         <v>2160</v>
@@ -37045,7 +37045,7 @@
         <v>2162</v>
       </c>
       <c r="K539" s="2" t="n">
-        <v>1437.0</v>
+        <v>1396.0</v>
       </c>
       <c r="L539" s="2" t="s">
         <v>2163</v>
@@ -37068,7 +37068,7 @@
         <v>2165</v>
       </c>
       <c r="D540" s="2" t="n">
-        <v>798.0</v>
+        <v>800.0</v>
       </c>
       <c r="E540" s="2" t="s">
         <v>2165</v>
@@ -37089,7 +37089,7 @@
         <v>2167</v>
       </c>
       <c r="K540" s="2" t="n">
-        <v>1114.0</v>
+        <v>1162.0</v>
       </c>
       <c r="L540" s="2" t="s">
         <v>2165</v>
@@ -37112,7 +37112,7 @@
         <v>2169</v>
       </c>
       <c r="D541" s="2" t="n">
-        <v>785.0</v>
+        <v>787.0</v>
       </c>
       <c r="E541" s="2" t="s">
         <v>2170</v>
@@ -37156,7 +37156,7 @@
         <v>2173</v>
       </c>
       <c r="D542" s="2" t="n">
-        <v>657.0</v>
+        <v>752.0</v>
       </c>
       <c r="E542" s="2" t="s">
         <v>2174</v>
@@ -37177,7 +37177,7 @@
         <v>2176</v>
       </c>
       <c r="K542" s="2" t="n">
-        <v>1262.0</v>
+        <v>1254.0</v>
       </c>
       <c r="L542" s="2" t="s">
         <v>2174</v>
@@ -37200,7 +37200,7 @@
         <v>2178</v>
       </c>
       <c r="D543" s="2" t="n">
-        <v>777.0</v>
+        <v>577.0</v>
       </c>
       <c r="E543" s="2" t="s">
         <v>2179</v>
@@ -37221,7 +37221,7 @@
         <v>2181</v>
       </c>
       <c r="K543" s="2" t="n">
-        <v>1382.0</v>
+        <v>1368.0</v>
       </c>
       <c r="L543" s="2" t="s">
         <v>2179</v>
@@ -37288,7 +37288,7 @@
         <v>2187</v>
       </c>
       <c r="D545" s="2" t="n">
-        <v>754.0</v>
+        <v>593.0</v>
       </c>
       <c r="E545" s="2" t="s">
         <v>2188</v>
@@ -37309,7 +37309,7 @@
         <v>2187</v>
       </c>
       <c r="K545" s="2" t="n">
-        <v>1344.0</v>
+        <v>1350.0</v>
       </c>
       <c r="L545" s="2" t="s">
         <v>2189</v>
@@ -37353,7 +37353,7 @@
         <v>2193</v>
       </c>
       <c r="K546" s="2" t="n">
-        <v>931.0</v>
+        <v>938.0</v>
       </c>
       <c r="L546" s="2" t="s">
         <v>2192</v>
@@ -37661,7 +37661,7 @@
         <v>2219</v>
       </c>
       <c r="K553" s="2" t="n">
-        <v>1102.0</v>
+        <v>1061.0</v>
       </c>
       <c r="L553" s="2" t="s">
         <v>2218</v>
@@ -37684,7 +37684,7 @@
         <v>2221</v>
       </c>
       <c r="D554" s="2" t="n">
-        <v>805.0</v>
+        <v>743.0</v>
       </c>
       <c r="E554" s="2" t="s">
         <v>27</v>
@@ -37948,7 +37948,7 @@
         <v>2242</v>
       </c>
       <c r="D560" s="2" t="n">
-        <v>626.0</v>
+        <v>459.0</v>
       </c>
       <c r="E560" s="2" t="s">
         <v>2243</v>
@@ -37992,7 +37992,7 @@
         <v>2247</v>
       </c>
       <c r="D561" s="2" t="n">
-        <v>751.0</v>
+        <v>754.0</v>
       </c>
       <c r="E561" s="2" t="s">
         <v>2248</v>
@@ -38013,7 +38013,7 @@
         <v>2250</v>
       </c>
       <c r="K561" s="2" t="n">
-        <v>1131.0</v>
+        <v>1137.0</v>
       </c>
       <c r="L561" s="2" t="s">
         <v>2251</v>
@@ -38057,7 +38057,7 @@
         <v>2255</v>
       </c>
       <c r="K562" s="2" t="n">
-        <v>1002.0</v>
+        <v>960.0</v>
       </c>
       <c r="L562" s="2" t="s">
         <v>2254</v>
@@ -38189,7 +38189,7 @@
         <v>2265</v>
       </c>
       <c r="K565" s="2" t="n">
-        <v>860.0</v>
+        <v>885.0</v>
       </c>
       <c r="L565" s="2" t="s">
         <v>2264</v>
@@ -38233,7 +38233,7 @@
         <v>2269</v>
       </c>
       <c r="K566" s="2" t="n">
-        <v>1302.0</v>
+        <v>1294.0</v>
       </c>
       <c r="L566" s="2" t="s">
         <v>2268</v>
@@ -38453,7 +38453,7 @@
         <v>2278</v>
       </c>
       <c r="K571" s="2" t="n">
-        <v>1141.0</v>
+        <v>1184.0</v>
       </c>
       <c r="L571" s="2" t="s">
         <v>27</v>
@@ -38497,7 +38497,7 @@
         <v>2282</v>
       </c>
       <c r="K572" s="2" t="n">
-        <v>1163.0</v>
+        <v>1133.0</v>
       </c>
       <c r="L572" s="2" t="s">
         <v>2281</v>
@@ -38541,7 +38541,7 @@
         <v>2287</v>
       </c>
       <c r="K573" s="2" t="n">
-        <v>1376.0</v>
+        <v>1414.0</v>
       </c>
       <c r="L573" s="2" t="s">
         <v>2285</v>
@@ -38564,7 +38564,7 @@
         <v>2289</v>
       </c>
       <c r="D574" s="2" t="n">
-        <v>894.0</v>
+        <v>976.0</v>
       </c>
       <c r="E574" s="2" t="s">
         <v>2290</v>
@@ -38585,7 +38585,7 @@
         <v>2291</v>
       </c>
       <c r="K574" s="2" t="n">
-        <v>1219.0</v>
+        <v>1221.0</v>
       </c>
       <c r="L574" s="2" t="s">
         <v>2290</v>
@@ -38608,7 +38608,7 @@
         <v>2293</v>
       </c>
       <c r="D575" s="2" t="n">
-        <v>431.0</v>
+        <v>0.0</v>
       </c>
       <c r="E575" s="2" t="s">
         <v>2293</v>
@@ -38629,7 +38629,7 @@
         <v>2294</v>
       </c>
       <c r="K575" s="2" t="n">
-        <v>1068.0</v>
+        <v>1079.0</v>
       </c>
       <c r="L575" s="2" t="s">
         <v>2293</v>
@@ -38696,7 +38696,7 @@
         <v>2301</v>
       </c>
       <c r="D577" s="2" t="n">
-        <v>673.0</v>
+        <v>804.0</v>
       </c>
       <c r="E577" s="2" t="s">
         <v>2302</v>
@@ -38717,7 +38717,7 @@
         <v>2303</v>
       </c>
       <c r="K577" s="2" t="n">
-        <v>1109.0</v>
+        <v>1095.0</v>
       </c>
       <c r="L577" s="2" t="s">
         <v>2302</v>
@@ -38740,7 +38740,7 @@
         <v>2305</v>
       </c>
       <c r="D578" s="2" t="n">
-        <v>702.0</v>
+        <v>763.0</v>
       </c>
       <c r="E578" s="2" t="s">
         <v>2306</v>
@@ -38761,7 +38761,7 @@
         <v>2308</v>
       </c>
       <c r="K578" s="2" t="n">
-        <v>905.0</v>
+        <v>955.0</v>
       </c>
       <c r="L578" s="2" t="s">
         <v>2309</v>
@@ -38805,7 +38805,7 @@
         <v>2312</v>
       </c>
       <c r="K579" s="2" t="n">
-        <v>172.0</v>
+        <v>324.0</v>
       </c>
       <c r="L579" s="2" t="s">
         <v>2311</v>
@@ -38916,7 +38916,7 @@
         <v>2316</v>
       </c>
       <c r="D582" s="2" t="n">
-        <v>1047.0</v>
+        <v>1049.0</v>
       </c>
       <c r="E582" s="2" t="s">
         <v>2317</v>
@@ -38931,7 +38931,7 @@
         <v>2317</v>
       </c>
       <c r="I582" s="2" t="n">
-        <v>1534.0</v>
+        <v>1530.0</v>
       </c>
       <c r="J582" s="2" t="s">
         <v>2318</v>
@@ -38960,7 +38960,7 @@
         <v>2320</v>
       </c>
       <c r="D583" s="2" t="n">
-        <v>752.0</v>
+        <v>768.0</v>
       </c>
       <c r="E583" s="2" t="s">
         <v>2321</v>
@@ -38981,7 +38981,7 @@
         <v>2321</v>
       </c>
       <c r="K583" s="2" t="n">
-        <v>1070.0</v>
+        <v>1072.0</v>
       </c>
       <c r="L583" s="2" t="s">
         <v>2321</v>
@@ -39157,7 +39157,7 @@
         <v>2338</v>
       </c>
       <c r="K587" s="2" t="n">
-        <v>1057.0</v>
+        <v>1058.0</v>
       </c>
       <c r="L587" s="2" t="s">
         <v>2335</v>
@@ -39201,7 +39201,7 @@
         <v>2342</v>
       </c>
       <c r="K588" s="2" t="n">
-        <v>959.0</v>
+        <v>966.0</v>
       </c>
       <c r="L588" s="2" t="s">
         <v>27</v>
@@ -39289,7 +39289,7 @@
         <v>2348</v>
       </c>
       <c r="K590" s="2" t="n">
-        <v>1383.0</v>
+        <v>1402.0</v>
       </c>
       <c r="L590" s="2" t="s">
         <v>2346</v>
@@ -39333,7 +39333,7 @@
         <v>2351</v>
       </c>
       <c r="K591" s="2" t="n">
-        <v>1013.0</v>
+        <v>952.0</v>
       </c>
       <c r="L591" s="2" t="s">
         <v>27</v>
@@ -39377,7 +39377,7 @@
         <v>2354</v>
       </c>
       <c r="K592" s="2" t="n">
-        <v>1301.0</v>
+        <v>1305.0</v>
       </c>
       <c r="L592" s="2" t="s">
         <v>2353</v>
@@ -39597,7 +39597,7 @@
         <v>2365</v>
       </c>
       <c r="K597" s="2" t="n">
-        <v>1233.0</v>
+        <v>1231.0</v>
       </c>
       <c r="L597" s="2" t="s">
         <v>2366</v>
@@ -39664,7 +39664,7 @@
         <v>2373</v>
       </c>
       <c r="D599" s="2" t="n">
-        <v>1004.0</v>
+        <v>1007.0</v>
       </c>
       <c r="E599" s="2" t="s">
         <v>2374</v>
@@ -39708,7 +39708,7 @@
         <v>2378</v>
       </c>
       <c r="D600" s="2" t="n">
-        <v>834.0</v>
+        <v>778.0</v>
       </c>
       <c r="E600" s="2" t="s">
         <v>2379</v>
@@ -39752,7 +39752,7 @@
         <v>2382</v>
       </c>
       <c r="D601" s="2" t="n">
-        <v>1046.0</v>
+        <v>890.0</v>
       </c>
       <c r="E601" s="2" t="s">
         <v>2383</v>
@@ -39773,7 +39773,7 @@
         <v>2385</v>
       </c>
       <c r="K601" s="2" t="n">
-        <v>943.0</v>
+        <v>944.0</v>
       </c>
       <c r="L601" s="2" t="s">
         <v>2386</v>
@@ -39840,7 +39840,7 @@
         <v>2394</v>
       </c>
       <c r="D603" s="2" t="n">
-        <v>785.0</v>
+        <v>698.0</v>
       </c>
       <c r="E603" s="2" t="s">
         <v>2395</v>
@@ -39855,13 +39855,13 @@
         <v>2396</v>
       </c>
       <c r="I603" s="2" t="n">
-        <v>1305.0</v>
+        <v>1358.0</v>
       </c>
       <c r="J603" s="2" t="s">
         <v>2397</v>
       </c>
       <c r="K603" s="2" t="n">
-        <v>1253.0</v>
+        <v>1288.0</v>
       </c>
       <c r="L603" s="2" t="s">
         <v>2395</v>
@@ -39993,7 +39993,7 @@
         <v>2404</v>
       </c>
       <c r="K606" s="2" t="n">
-        <v>1214.0</v>
+        <v>1178.0</v>
       </c>
       <c r="L606" s="2" t="s">
         <v>2405</v>
@@ -40037,7 +40037,7 @@
         <v>2408</v>
       </c>
       <c r="K607" s="2" t="n">
-        <v>1203.0</v>
+        <v>1172.0</v>
       </c>
       <c r="L607" s="2" t="s">
         <v>2409</v>
@@ -40125,7 +40125,7 @@
         <v>2413</v>
       </c>
       <c r="K609" s="2" t="n">
-        <v>1345.0</v>
+        <v>1350.0</v>
       </c>
       <c r="L609" s="2" t="s">
         <v>2412</v>
@@ -40169,7 +40169,7 @@
         <v>2416</v>
       </c>
       <c r="K610" s="2" t="n">
-        <v>1034.0</v>
+        <v>991.0</v>
       </c>
       <c r="L610" s="2" t="s">
         <v>2415</v>
@@ -40192,7 +40192,7 @@
         <v>2418</v>
       </c>
       <c r="D611" s="2" t="n">
-        <v>915.0</v>
+        <v>766.0</v>
       </c>
       <c r="E611" s="2" t="s">
         <v>2419</v>
@@ -40213,7 +40213,7 @@
         <v>2421</v>
       </c>
       <c r="K611" s="2" t="n">
-        <v>1149.0</v>
+        <v>1153.0</v>
       </c>
       <c r="L611" s="2" t="s">
         <v>2422</v>
@@ -40301,7 +40301,7 @@
         <v>2426</v>
       </c>
       <c r="K613" s="2" t="n">
-        <v>1366.0</v>
+        <v>1312.0</v>
       </c>
       <c r="L613" s="2" t="s">
         <v>2425</v>
@@ -40368,7 +40368,7 @@
         <v>2434</v>
       </c>
       <c r="D615" s="2" t="n">
-        <v>788.0</v>
+        <v>787.0</v>
       </c>
       <c r="E615" s="2" t="s">
         <v>2435</v>
@@ -40433,7 +40433,7 @@
         <v>2441</v>
       </c>
       <c r="K616" s="2" t="n">
-        <v>1202.0</v>
+        <v>1207.0</v>
       </c>
       <c r="L616" s="2" t="s">
         <v>2439</v>
@@ -40565,7 +40565,7 @@
         <v>2450</v>
       </c>
       <c r="K619" s="2" t="n">
-        <v>1159.0</v>
+        <v>1102.0</v>
       </c>
       <c r="L619" s="2" t="s">
         <v>2451</v>
@@ -40603,13 +40603,13 @@
         <v>2454</v>
       </c>
       <c r="I620" s="2" t="n">
-        <v>1744.0</v>
+        <v>1712.0</v>
       </c>
       <c r="J620" s="2" t="s">
         <v>2455</v>
       </c>
       <c r="K620" s="2" t="n">
-        <v>1010.0</v>
+        <v>985.0</v>
       </c>
       <c r="L620" s="2" t="s">
         <v>2456</v>
@@ -40653,7 +40653,7 @@
         <v>2460</v>
       </c>
       <c r="K621" s="2" t="n">
-        <v>1228.0</v>
+        <v>1224.0</v>
       </c>
       <c r="L621" s="2" t="s">
         <v>2458</v>
@@ -40697,7 +40697,7 @@
         <v>2463</v>
       </c>
       <c r="K622" s="2" t="n">
-        <v>1115.0</v>
+        <v>1072.0</v>
       </c>
       <c r="L622" s="2" t="s">
         <v>2464</v>
@@ -40741,7 +40741,7 @@
         <v>2468</v>
       </c>
       <c r="K623" s="2" t="n">
-        <v>993.0</v>
+        <v>969.0</v>
       </c>
       <c r="L623" s="2" t="s">
         <v>2467</v>
@@ -40785,7 +40785,7 @@
         <v>2472</v>
       </c>
       <c r="K624" s="2" t="n">
-        <v>1374.0</v>
+        <v>1354.0</v>
       </c>
       <c r="L624" s="2" t="s">
         <v>2471</v>
@@ -40852,7 +40852,7 @@
         <v>2479</v>
       </c>
       <c r="D626" s="2" t="n">
-        <v>961.0</v>
+        <v>965.0</v>
       </c>
       <c r="E626" s="2" t="s">
         <v>2480</v>
@@ -40917,7 +40917,7 @@
         <v>2486</v>
       </c>
       <c r="K627" s="2" t="n">
-        <v>963.0</v>
+        <v>973.0</v>
       </c>
       <c r="L627" s="2" t="s">
         <v>2484</v>
@@ -40984,7 +40984,7 @@
         <v>2492</v>
       </c>
       <c r="D629" s="2" t="n">
-        <v>764.0</v>
+        <v>628.0</v>
       </c>
       <c r="E629" s="2" t="s">
         <v>2493</v>
@@ -41005,7 +41005,7 @@
         <v>2494</v>
       </c>
       <c r="K629" s="2" t="n">
-        <v>983.0</v>
+        <v>1040.0</v>
       </c>
       <c r="L629" s="2" t="s">
         <v>2492</v>
@@ -41028,7 +41028,7 @@
         <v>2496</v>
       </c>
       <c r="D630" s="2" t="n">
-        <v>568.0</v>
+        <v>574.0</v>
       </c>
       <c r="E630" s="2" t="s">
         <v>2497</v>
@@ -41043,13 +41043,13 @@
         <v>2498</v>
       </c>
       <c r="I630" s="2" t="n">
-        <v>1236.0</v>
+        <v>1218.0</v>
       </c>
       <c r="J630" s="2" t="s">
         <v>2498</v>
       </c>
       <c r="K630" s="2" t="n">
-        <v>1131.0</v>
+        <v>1102.0</v>
       </c>
       <c r="L630" s="2" t="s">
         <v>2497</v>
@@ -41093,7 +41093,7 @@
         <v>2503</v>
       </c>
       <c r="K631" s="2" t="n">
-        <v>1334.0</v>
+        <v>1339.0</v>
       </c>
       <c r="L631" s="2" t="s">
         <v>2504</v>
@@ -41357,7 +41357,7 @@
         <v>2524</v>
       </c>
       <c r="K637" s="2" t="n">
-        <v>1121.0</v>
+        <v>1077.0</v>
       </c>
       <c r="L637" s="2" t="s">
         <v>2523</v>
@@ -41401,7 +41401,7 @@
         <v>2528</v>
       </c>
       <c r="K638" s="2" t="n">
-        <v>1285.0</v>
+        <v>1307.0</v>
       </c>
       <c r="L638" s="2" t="s">
         <v>2527</v>
@@ -41468,7 +41468,7 @@
         <v>2532</v>
       </c>
       <c r="D640" s="2" t="n">
-        <v>604.0</v>
+        <v>610.0</v>
       </c>
       <c r="E640" s="2" t="s">
         <v>2533</v>
@@ -41483,13 +41483,13 @@
         <v>2534</v>
       </c>
       <c r="I640" s="2" t="n">
-        <v>1251.0</v>
+        <v>1217.0</v>
       </c>
       <c r="J640" s="2" t="s">
         <v>2535</v>
       </c>
       <c r="K640" s="2" t="n">
-        <v>1050.0</v>
+        <v>1023.0</v>
       </c>
       <c r="L640" s="2" t="s">
         <v>2534</v>
@@ -41512,7 +41512,7 @@
         <v>2537</v>
       </c>
       <c r="D641" s="2" t="n">
-        <v>1207.0</v>
+        <v>1124.0</v>
       </c>
       <c r="E641" s="2" t="s">
         <v>2538</v>
@@ -41533,7 +41533,7 @@
         <v>2540</v>
       </c>
       <c r="K641" s="2" t="n">
-        <v>542.0</v>
+        <v>671.0</v>
       </c>
       <c r="L641" s="2" t="s">
         <v>2538</v>
@@ -41621,7 +41621,7 @@
         <v>2551</v>
       </c>
       <c r="K643" s="2" t="n">
-        <v>1141.0</v>
+        <v>1229.0</v>
       </c>
       <c r="L643" s="2" t="s">
         <v>2552</v>
@@ -41732,7 +41732,7 @@
         <v>2562</v>
       </c>
       <c r="D646" s="2" t="n">
-        <v>813.0</v>
+        <v>785.0</v>
       </c>
       <c r="E646" s="2" t="s">
         <v>2563</v>
@@ -41753,7 +41753,7 @@
         <v>2565</v>
       </c>
       <c r="K646" s="2" t="n">
-        <v>1242.0</v>
+        <v>1254.0</v>
       </c>
       <c r="L646" s="2" t="s">
         <v>2566</v>
@@ -41929,7 +41929,7 @@
         <v>2576</v>
       </c>
       <c r="K650" s="2" t="n">
-        <v>1151.0</v>
+        <v>1129.0</v>
       </c>
       <c r="L650" s="2" t="s">
         <v>2575</v>
@@ -42143,13 +42143,13 @@
         <v>2585</v>
       </c>
       <c r="I655" s="2" t="n">
-        <v>1435.0</v>
+        <v>1399.0</v>
       </c>
       <c r="J655" s="2" t="s">
         <v>2586</v>
       </c>
       <c r="K655" s="2" t="n">
-        <v>1271.0</v>
+        <v>1229.0</v>
       </c>
       <c r="L655" s="2" t="s">
         <v>2584</v>
@@ -42193,7 +42193,7 @@
         <v>2590</v>
       </c>
       <c r="K656" s="2" t="n">
-        <v>1327.0</v>
+        <v>1336.0</v>
       </c>
       <c r="L656" s="2" t="s">
         <v>2591</v>
@@ -42216,7 +42216,7 @@
         <v>2593</v>
       </c>
       <c r="D657" s="2" t="n">
-        <v>730.0</v>
+        <v>731.0</v>
       </c>
       <c r="E657" s="2" t="s">
         <v>2594</v>
@@ -42231,13 +42231,13 @@
         <v>2595</v>
       </c>
       <c r="I657" s="2" t="n">
-        <v>1285.0</v>
+        <v>1271.0</v>
       </c>
       <c r="J657" s="2" t="s">
         <v>2595</v>
       </c>
       <c r="K657" s="2" t="n">
-        <v>959.0</v>
+        <v>962.0</v>
       </c>
       <c r="L657" s="2" t="s">
         <v>2596</v>
@@ -42304,7 +42304,7 @@
         <v>2601</v>
       </c>
       <c r="D659" s="2" t="n">
-        <v>959.0</v>
+        <v>962.0</v>
       </c>
       <c r="E659" s="2" t="s">
         <v>2602</v>
@@ -42325,7 +42325,7 @@
         <v>2604</v>
       </c>
       <c r="K659" s="2" t="n">
-        <v>1403.0</v>
+        <v>1407.0</v>
       </c>
       <c r="L659" s="2" t="s">
         <v>2603</v>
@@ -42369,7 +42369,7 @@
         <v>2609</v>
       </c>
       <c r="K660" s="2" t="n">
-        <v>1448.0</v>
+        <v>1439.0</v>
       </c>
       <c r="L660" s="2" t="s">
         <v>2607</v>
@@ -42413,7 +42413,7 @@
         <v>2614</v>
       </c>
       <c r="K661" s="2" t="n">
-        <v>1039.0</v>
+        <v>1022.0</v>
       </c>
       <c r="L661" s="2" t="s">
         <v>2612</v>
@@ -42568,7 +42568,7 @@
         <v>2633</v>
       </c>
       <c r="D665" s="2" t="n">
-        <v>865.0</v>
+        <v>716.0</v>
       </c>
       <c r="E665" s="2" t="s">
         <v>2633</v>
@@ -42633,7 +42633,7 @@
         <v>2639</v>
       </c>
       <c r="K666" s="2" t="n">
-        <v>911.0</v>
+        <v>922.0</v>
       </c>
       <c r="L666" s="2" t="s">
         <v>2637</v>
@@ -42765,7 +42765,7 @@
         <v>2644</v>
       </c>
       <c r="K669" s="2" t="n">
-        <v>1159.0</v>
+        <v>1116.0</v>
       </c>
       <c r="L669" s="2" t="s">
         <v>2643</v>
@@ -42832,7 +42832,7 @@
         <v>2651</v>
       </c>
       <c r="D671" s="2" t="n">
-        <v>835.0</v>
+        <v>837.0</v>
       </c>
       <c r="E671" s="2" t="s">
         <v>2651</v>
@@ -42897,7 +42897,7 @@
         <v>2656</v>
       </c>
       <c r="K672" s="2" t="n">
-        <v>1207.0</v>
+        <v>1210.0</v>
       </c>
       <c r="L672" s="2" t="s">
         <v>2657</v>
@@ -43052,7 +43052,7 @@
         <v>2670</v>
       </c>
       <c r="D676" s="2" t="n">
-        <v>562.0</v>
+        <v>655.0</v>
       </c>
       <c r="E676" s="2" t="s">
         <v>2671</v>
@@ -43073,7 +43073,7 @@
         <v>2673</v>
       </c>
       <c r="K676" s="2" t="n">
-        <v>1183.0</v>
+        <v>1202.0</v>
       </c>
       <c r="L676" s="2" t="s">
         <v>2672</v>
@@ -43293,7 +43293,7 @@
         <v>2699</v>
       </c>
       <c r="K681" s="2" t="n">
-        <v>1186.0</v>
+        <v>1235.0</v>
       </c>
       <c r="L681" s="2" t="s">
         <v>2698</v>
@@ -43381,7 +43381,7 @@
         <v>2706</v>
       </c>
       <c r="K683" s="2" t="n">
-        <v>1355.0</v>
+        <v>1360.0</v>
       </c>
       <c r="L683" s="2" t="s">
         <v>2707</v>
@@ -43425,7 +43425,7 @@
         <v>2711</v>
       </c>
       <c r="K684" s="2" t="n">
-        <v>1326.0</v>
+        <v>1357.0</v>
       </c>
       <c r="L684" s="2" t="s">
         <v>2710</v>
@@ -43492,7 +43492,7 @@
         <v>2718</v>
       </c>
       <c r="D686" s="2" t="n">
-        <v>857.0</v>
+        <v>819.0</v>
       </c>
       <c r="E686" s="2" t="s">
         <v>2719</v>
@@ -43513,7 +43513,7 @@
         <v>2719</v>
       </c>
       <c r="K686" s="2" t="n">
-        <v>1409.0</v>
+        <v>1384.0</v>
       </c>
       <c r="L686" s="2" t="s">
         <v>2721</v>
@@ -43557,7 +43557,7 @@
         <v>2725</v>
       </c>
       <c r="K687" s="2" t="n">
-        <v>1257.0</v>
+        <v>1260.0</v>
       </c>
       <c r="L687" s="2" t="s">
         <v>2724</v>
@@ -43601,7 +43601,7 @@
         <v>2730</v>
       </c>
       <c r="K688" s="2" t="n">
-        <v>1378.0</v>
+        <v>1383.0</v>
       </c>
       <c r="L688" s="2" t="s">
         <v>2731</v>
@@ -43689,7 +43689,7 @@
         <v>2737</v>
       </c>
       <c r="K690" s="2" t="n">
-        <v>1266.0</v>
+        <v>1220.0</v>
       </c>
       <c r="L690" s="2" t="s">
         <v>2735</v>
@@ -43733,7 +43733,7 @@
         <v>2742</v>
       </c>
       <c r="K691" s="2" t="n">
-        <v>1263.0</v>
+        <v>1330.0</v>
       </c>
       <c r="L691" s="2" t="s">
         <v>2741</v>
@@ -43821,7 +43821,7 @@
         <v>2749</v>
       </c>
       <c r="K693" s="2" t="n">
-        <v>1075.0</v>
+        <v>1169.0</v>
       </c>
       <c r="L693" s="2" t="s">
         <v>2747</v>
@@ -43909,7 +43909,7 @@
         <v>2758</v>
       </c>
       <c r="K695" s="2" t="n">
-        <v>1105.0</v>
+        <v>1054.0</v>
       </c>
       <c r="L695" s="2" t="s">
         <v>2755</v>
@@ -43953,7 +43953,7 @@
         <v>2762</v>
       </c>
       <c r="K696" s="2" t="n">
-        <v>1100.0</v>
+        <v>1113.0</v>
       </c>
       <c r="L696" s="2" t="s">
         <v>2763</v>
@@ -44041,7 +44041,7 @@
         <v>2770</v>
       </c>
       <c r="K698" s="2" t="n">
-        <v>1025.0</v>
+        <v>1121.0</v>
       </c>
       <c r="L698" s="2" t="s">
         <v>2771</v>
@@ -44085,7 +44085,7 @@
         <v>2775</v>
       </c>
       <c r="K699" s="2" t="n">
-        <v>921.0</v>
+        <v>908.0</v>
       </c>
       <c r="L699" s="2" t="s">
         <v>2776</v>
@@ -44173,7 +44173,7 @@
         <v>2781</v>
       </c>
       <c r="K701" s="2" t="n">
-        <v>1151.0</v>
+        <v>1209.0</v>
       </c>
       <c r="L701" s="2" t="s">
         <v>2782</v>
@@ -44349,7 +44349,7 @@
         <v>2796</v>
       </c>
       <c r="K705" s="2" t="n">
-        <v>1423.0</v>
+        <v>1454.0</v>
       </c>
       <c r="L705" s="2" t="s">
         <v>2795</v>
@@ -44372,7 +44372,7 @@
         <v>2798</v>
       </c>
       <c r="D706" s="2" t="n">
-        <v>924.0</v>
+        <v>757.0</v>
       </c>
       <c r="E706" s="2" t="s">
         <v>2799</v>
@@ -44460,7 +44460,7 @@
         <v>2808</v>
       </c>
       <c r="D708" s="2" t="n">
-        <v>566.0</v>
+        <v>567.0</v>
       </c>
       <c r="E708" s="2" t="s">
         <v>2808</v>
@@ -44569,7 +44569,7 @@
         <v>2814</v>
       </c>
       <c r="K710" s="2" t="n">
-        <v>1201.0</v>
+        <v>1209.0</v>
       </c>
       <c r="L710" s="2" t="s">
         <v>2815</v>
@@ -44701,7 +44701,7 @@
         <v>2823</v>
       </c>
       <c r="K713" s="2" t="n">
-        <v>1096.0</v>
+        <v>1180.0</v>
       </c>
       <c r="L713" s="2" t="s">
         <v>2824</v>
@@ -44724,7 +44724,7 @@
         <v>2826</v>
       </c>
       <c r="D714" s="2" t="n">
-        <v>403.0</v>
+        <v>404.0</v>
       </c>
       <c r="E714" s="2" t="s">
         <v>2827</v>
@@ -44745,7 +44745,7 @@
         <v>2829</v>
       </c>
       <c r="K714" s="2" t="n">
-        <v>1148.0</v>
+        <v>1131.0</v>
       </c>
       <c r="L714" s="2" t="s">
         <v>2827</v>
@@ -44877,7 +44877,7 @@
         <v>2839</v>
       </c>
       <c r="K717" s="2" t="n">
-        <v>1026.0</v>
+        <v>989.0</v>
       </c>
       <c r="L717" s="2" t="s">
         <v>2840</v>
@@ -44900,7 +44900,7 @@
         <v>2842</v>
       </c>
       <c r="D718" s="2" t="n">
-        <v>522.0</v>
+        <v>529.0</v>
       </c>
       <c r="E718" s="2" t="s">
         <v>2843</v>
@@ -44915,13 +44915,13 @@
         <v>2844</v>
       </c>
       <c r="I718" s="2" t="n">
-        <v>1379.0</v>
+        <v>1340.0</v>
       </c>
       <c r="J718" s="2" t="s">
         <v>2845</v>
       </c>
       <c r="K718" s="2" t="n">
-        <v>1151.0</v>
+        <v>1160.0</v>
       </c>
       <c r="L718" s="2" t="s">
         <v>2846</v>
@@ -44965,7 +44965,7 @@
         <v>2850</v>
       </c>
       <c r="K719" s="2" t="n">
-        <v>882.0</v>
+        <v>892.0</v>
       </c>
       <c r="L719" s="2" t="s">
         <v>2851</v>
@@ -45053,7 +45053,7 @@
         <v>2862</v>
       </c>
       <c r="K721" s="2" t="n">
-        <v>882.0</v>
+        <v>888.0</v>
       </c>
       <c r="L721" s="2" t="s">
         <v>2861</v>
@@ -45097,7 +45097,7 @@
         <v>2865</v>
       </c>
       <c r="K722" s="2" t="n">
-        <v>1086.0</v>
+        <v>1130.0</v>
       </c>
       <c r="L722" s="2" t="s">
         <v>2865</v>
@@ -45229,7 +45229,7 @@
         <v>2874</v>
       </c>
       <c r="K725" s="2" t="n">
-        <v>1245.0</v>
+        <v>1256.0</v>
       </c>
       <c r="L725" s="2" t="s">
         <v>2875</v>
@@ -45317,7 +45317,7 @@
         <v>2883</v>
       </c>
       <c r="K727" s="2" t="n">
-        <v>1240.0</v>
+        <v>1207.0</v>
       </c>
       <c r="L727" s="2" t="s">
         <v>2882</v>
@@ -45384,7 +45384,7 @@
         <v>2886</v>
       </c>
       <c r="D729" s="2" t="n">
-        <v>964.0</v>
+        <v>967.0</v>
       </c>
       <c r="E729" s="2" t="s">
         <v>2887</v>
@@ -45405,7 +45405,7 @@
         <v>2889</v>
       </c>
       <c r="K729" s="2" t="n">
-        <v>1095.0</v>
+        <v>1152.0</v>
       </c>
       <c r="L729" s="2" t="s">
         <v>2887</v>
@@ -45537,7 +45537,7 @@
         <v>2901</v>
       </c>
       <c r="K732" s="2" t="n">
-        <v>1151.0</v>
+        <v>1153.0</v>
       </c>
       <c r="L732" s="2" t="s">
         <v>2900</v>
@@ -45648,7 +45648,7 @@
         <v>2909</v>
       </c>
       <c r="D735" s="2" t="n">
-        <v>813.0</v>
+        <v>637.0</v>
       </c>
       <c r="E735" s="2" t="s">
         <v>2910</v>
@@ -46241,7 +46241,7 @@
         <v>2948</v>
       </c>
       <c r="K748" s="2" t="n">
-        <v>915.0</v>
+        <v>877.0</v>
       </c>
       <c r="L748" s="2" t="s">
         <v>2949</v>
@@ -46285,7 +46285,7 @@
         <v>2953</v>
       </c>
       <c r="K749" s="2" t="n">
-        <v>1276.0</v>
+        <v>1281.0</v>
       </c>
       <c r="L749" s="2" t="s">
         <v>2954</v>
@@ -46329,7 +46329,7 @@
         <v>2959</v>
       </c>
       <c r="K750" s="2" t="n">
-        <v>1240.0</v>
+        <v>1245.0</v>
       </c>
       <c r="L750" s="2" t="s">
         <v>2960</v>
@@ -46505,7 +46505,7 @@
         <v>2970</v>
       </c>
       <c r="K754" s="2" t="n">
-        <v>1035.0</v>
+        <v>1034.0</v>
       </c>
       <c r="L754" s="2" t="s">
         <v>2969</v>
@@ -46549,7 +46549,7 @@
         <v>2975</v>
       </c>
       <c r="K755" s="2" t="n">
-        <v>1199.0</v>
+        <v>1169.0</v>
       </c>
       <c r="L755" s="2" t="s">
         <v>2973</v>
@@ -46813,7 +46813,7 @@
         <v>2993</v>
       </c>
       <c r="K761" s="2" t="n">
-        <v>881.0</v>
+        <v>890.0</v>
       </c>
       <c r="L761" s="2" t="s">
         <v>2991</v>
@@ -46857,7 +46857,7 @@
         <v>2998</v>
       </c>
       <c r="K762" s="2" t="n">
-        <v>1115.0</v>
+        <v>1133.0</v>
       </c>
       <c r="L762" s="2" t="s">
         <v>2999</v>
@@ -46901,7 +46901,7 @@
         <v>3003</v>
       </c>
       <c r="K763" s="2" t="n">
-        <v>1135.0</v>
+        <v>1120.0</v>
       </c>
       <c r="L763" s="2" t="s">
         <v>3002</v>
@@ -46945,7 +46945,7 @@
         <v>3007</v>
       </c>
       <c r="K764" s="2" t="n">
-        <v>1112.0</v>
+        <v>1142.0</v>
       </c>
       <c r="L764" s="2" t="s">
         <v>3006</v>
@@ -46989,7 +46989,7 @@
         <v>3010</v>
       </c>
       <c r="K765" s="2" t="n">
-        <v>1013.0</v>
+        <v>1014.0</v>
       </c>
       <c r="L765" s="2" t="s">
         <v>3011</v>
@@ -47033,7 +47033,7 @@
         <v>3015</v>
       </c>
       <c r="K766" s="2" t="n">
-        <v>1005.0</v>
+        <v>1045.0</v>
       </c>
       <c r="L766" s="2" t="s">
         <v>3013</v>
@@ -47056,7 +47056,7 @@
         <v>3017</v>
       </c>
       <c r="D767" s="2" t="n">
-        <v>653.0</v>
+        <v>658.0</v>
       </c>
       <c r="E767" s="2" t="s">
         <v>3017</v>
@@ -47077,7 +47077,7 @@
         <v>3018</v>
       </c>
       <c r="K767" s="2" t="n">
-        <v>1046.0</v>
+        <v>1069.0</v>
       </c>
       <c r="L767" s="2" t="s">
         <v>3019</v>
@@ -47100,7 +47100,7 @@
         <v>3021</v>
       </c>
       <c r="D768" s="2" t="n">
-        <v>599.0</v>
+        <v>616.0</v>
       </c>
       <c r="E768" s="2" t="s">
         <v>3022</v>
@@ -47121,7 +47121,7 @@
         <v>3023</v>
       </c>
       <c r="K768" s="2" t="n">
-        <v>1028.0</v>
+        <v>1032.0</v>
       </c>
       <c r="L768" s="2" t="s">
         <v>3024</v>
@@ -47203,13 +47203,13 @@
         <v>3028</v>
       </c>
       <c r="I770" s="2" t="n">
-        <v>1427.0</v>
+        <v>1380.0</v>
       </c>
       <c r="J770" s="2" t="s">
         <v>3029</v>
       </c>
       <c r="K770" s="2" t="n">
-        <v>1157.0</v>
+        <v>1128.0</v>
       </c>
       <c r="L770" s="2" t="s">
         <v>3028</v>
@@ -47232,7 +47232,7 @@
         <v>3031</v>
       </c>
       <c r="D771" s="2" t="n">
-        <v>554.0</v>
+        <v>560.0</v>
       </c>
       <c r="E771" s="2" t="s">
         <v>3032</v>
@@ -47408,7 +47408,7 @@
         <v>3050</v>
       </c>
       <c r="D775" s="2" t="n">
-        <v>803.0</v>
+        <v>807.0</v>
       </c>
       <c r="E775" s="2" t="s">
         <v>3051</v>
@@ -47511,13 +47511,13 @@
         <v>3063</v>
       </c>
       <c r="I777" s="2" t="n">
-        <v>1426.0</v>
+        <v>1386.0</v>
       </c>
       <c r="J777" s="2" t="s">
         <v>3064</v>
       </c>
       <c r="K777" s="2" t="n">
-        <v>1031.0</v>
+        <v>997.0</v>
       </c>
       <c r="L777" s="2" t="s">
         <v>3063</v>
@@ -47605,7 +47605,7 @@
         <v>3075</v>
       </c>
       <c r="K779" s="2" t="n">
-        <v>1053.0</v>
+        <v>1018.0</v>
       </c>
       <c r="L779" s="2" t="s">
         <v>3074</v>
@@ -47628,7 +47628,7 @@
         <v>3077</v>
       </c>
       <c r="D780" s="2" t="n">
-        <v>775.0</v>
+        <v>779.0</v>
       </c>
       <c r="E780" s="2" t="s">
         <v>3078</v>
@@ -47737,7 +47737,7 @@
         <v>3085</v>
       </c>
       <c r="K782" s="2" t="n">
-        <v>1135.0</v>
+        <v>1141.0</v>
       </c>
       <c r="L782" s="2" t="s">
         <v>3086</v>
@@ -47781,7 +47781,7 @@
         <v>3090</v>
       </c>
       <c r="K783" s="2" t="n">
-        <v>927.0</v>
+        <v>907.0</v>
       </c>
       <c r="L783" s="2" t="s">
         <v>3089</v>
@@ -47825,7 +47825,7 @@
         <v>3094</v>
       </c>
       <c r="K784" s="2" t="n">
-        <v>1084.0</v>
+        <v>1091.0</v>
       </c>
       <c r="L784" s="2" t="s">
         <v>3093</v>
@@ -47892,7 +47892,7 @@
         <v>3098</v>
       </c>
       <c r="D786" s="2" t="n">
-        <v>715.0</v>
+        <v>718.0</v>
       </c>
       <c r="E786" s="2" t="s">
         <v>3099</v>
@@ -47936,7 +47936,7 @@
         <v>3104</v>
       </c>
       <c r="D787" s="2" t="n">
-        <v>829.0</v>
+        <v>833.0</v>
       </c>
       <c r="E787" s="2" t="s">
         <v>3105</v>
@@ -47957,7 +47957,7 @@
         <v>3107</v>
       </c>
       <c r="K787" s="2" t="n">
-        <v>1226.0</v>
+        <v>1253.0</v>
       </c>
       <c r="L787" s="2" t="s">
         <v>3106</v>
@@ -48001,7 +48001,7 @@
         <v>3112</v>
       </c>
       <c r="K788" s="2" t="n">
-        <v>867.0</v>
+        <v>857.0</v>
       </c>
       <c r="L788" s="2" t="s">
         <v>3113</v>
@@ -48156,7 +48156,7 @@
         <v>3125</v>
       </c>
       <c r="D792" s="2" t="n">
-        <v>862.0</v>
+        <v>864.0</v>
       </c>
       <c r="E792" s="2" t="s">
         <v>3126</v>
@@ -48177,7 +48177,7 @@
         <v>3126</v>
       </c>
       <c r="K792" s="2" t="n">
-        <v>1133.0</v>
+        <v>1137.0</v>
       </c>
       <c r="L792" s="2" t="s">
         <v>3127</v>
@@ -48441,7 +48441,7 @@
         <v>3155</v>
       </c>
       <c r="K798" s="2" t="n">
-        <v>1018.0</v>
+        <v>992.0</v>
       </c>
       <c r="L798" s="2" t="s">
         <v>3154</v>
@@ -48485,7 +48485,7 @@
         <v>3160</v>
       </c>
       <c r="K799" s="2" t="n">
-        <v>859.0</v>
+        <v>868.0</v>
       </c>
       <c r="L799" s="2" t="s">
         <v>3161</v>
@@ -48529,7 +48529,7 @@
         <v>3166</v>
       </c>
       <c r="K800" s="2" t="n">
-        <v>1322.0</v>
+        <v>1306.0</v>
       </c>
       <c r="L800" s="2" t="s">
         <v>3164</v>
@@ -48617,7 +48617,7 @@
         <v>3176</v>
       </c>
       <c r="K802" s="2" t="n">
-        <v>895.0</v>
+        <v>901.0</v>
       </c>
       <c r="L802" s="2" t="s">
         <v>3177</v>
@@ -48640,7 +48640,7 @@
         <v>3179</v>
       </c>
       <c r="D803" s="2" t="n">
-        <v>877.0</v>
+        <v>562.0</v>
       </c>
       <c r="E803" s="2" t="s">
         <v>3180</v>
@@ -48661,7 +48661,7 @@
         <v>3180</v>
       </c>
       <c r="K803" s="2" t="n">
-        <v>1300.0</v>
+        <v>1307.0</v>
       </c>
       <c r="L803" s="2" t="s">
         <v>3181</v>
@@ -48684,7 +48684,7 @@
         <v>3183</v>
       </c>
       <c r="D804" s="2" t="n">
-        <v>787.0</v>
+        <v>790.0</v>
       </c>
       <c r="E804" s="2" t="s">
         <v>3184</v>
@@ -48772,7 +48772,7 @@
         <v>3194</v>
       </c>
       <c r="D806" s="2" t="n">
-        <v>719.0</v>
+        <v>636.0</v>
       </c>
       <c r="E806" s="2" t="s">
         <v>3195</v>
@@ -48787,7 +48787,7 @@
         <v>3196</v>
       </c>
       <c r="I806" s="2" t="n">
-        <v>1256.0</v>
+        <v>1265.0</v>
       </c>
       <c r="J806" s="2" t="s">
         <v>3197</v>
@@ -48837,7 +48837,7 @@
         <v>3202</v>
       </c>
       <c r="K807" s="2" t="n">
-        <v>1177.0</v>
+        <v>1181.0</v>
       </c>
       <c r="L807" s="2" t="s">
         <v>3200</v>
@@ -48904,7 +48904,7 @@
         <v>3208</v>
       </c>
       <c r="D809" s="2" t="n">
-        <v>736.0</v>
+        <v>739.0</v>
       </c>
       <c r="E809" s="2" t="s">
         <v>3209</v>
@@ -48925,7 +48925,7 @@
         <v>3210</v>
       </c>
       <c r="K809" s="2" t="n">
-        <v>1105.0</v>
+        <v>1069.0</v>
       </c>
       <c r="L809" s="2" t="s">
         <v>3211</v>
@@ -48992,7 +48992,7 @@
         <v>3216</v>
       </c>
       <c r="D811" s="2" t="n">
-        <v>580.0</v>
+        <v>581.0</v>
       </c>
       <c r="E811" s="2" t="s">
         <v>3217</v>
@@ -49013,7 +49013,7 @@
         <v>3218</v>
       </c>
       <c r="K811" s="2" t="n">
-        <v>1205.0</v>
+        <v>1254.0</v>
       </c>
       <c r="L811" s="2" t="s">
         <v>3219</v>
@@ -49036,7 +49036,7 @@
         <v>3221</v>
       </c>
       <c r="D812" s="2" t="n">
-        <v>735.0</v>
+        <v>739.0</v>
       </c>
       <c r="E812" s="2" t="s">
         <v>3222</v>
@@ -49080,7 +49080,7 @@
         <v>3226</v>
       </c>
       <c r="D813" s="2" t="n">
-        <v>625.0</v>
+        <v>664.0</v>
       </c>
       <c r="E813" s="2" t="s">
         <v>27</v>
@@ -49101,7 +49101,7 @@
         <v>3228</v>
       </c>
       <c r="K813" s="2" t="n">
-        <v>954.0</v>
+        <v>962.0</v>
       </c>
       <c r="L813" s="2" t="s">
         <v>3229</v>
@@ -49124,7 +49124,7 @@
         <v>3231</v>
       </c>
       <c r="D814" s="2" t="n">
-        <v>702.0</v>
+        <v>677.0</v>
       </c>
       <c r="E814" s="2" t="s">
         <v>3232</v>
@@ -49145,7 +49145,7 @@
         <v>3233</v>
       </c>
       <c r="K814" s="2" t="n">
-        <v>1170.0</v>
+        <v>1132.0</v>
       </c>
       <c r="L814" s="2" t="s">
         <v>3231</v>
@@ -49432,7 +49432,7 @@
         <v>3254</v>
       </c>
       <c r="D821" s="2" t="n">
-        <v>968.0</v>
+        <v>778.0</v>
       </c>
       <c r="E821" s="2" t="s">
         <v>3255</v>
@@ -49453,7 +49453,7 @@
         <v>3257</v>
       </c>
       <c r="K821" s="2" t="n">
-        <v>1246.0</v>
+        <v>1255.0</v>
       </c>
       <c r="L821" s="2" t="s">
         <v>3254</v>
@@ -49608,7 +49608,7 @@
         <v>3264</v>
       </c>
       <c r="D825" s="2" t="n">
-        <v>742.0</v>
+        <v>744.0</v>
       </c>
       <c r="E825" s="2" t="s">
         <v>3265</v>
@@ -49696,7 +49696,7 @@
         <v>3269</v>
       </c>
       <c r="D827" s="2" t="n">
-        <v>798.0</v>
+        <v>803.0</v>
       </c>
       <c r="E827" s="2" t="s">
         <v>3269</v>
@@ -49784,7 +49784,7 @@
         <v>3277</v>
       </c>
       <c r="D829" s="2" t="n">
-        <v>463.0</v>
+        <v>477.0</v>
       </c>
       <c r="E829" s="2" t="s">
         <v>3277</v>
@@ -49805,7 +49805,7 @@
         <v>3279</v>
       </c>
       <c r="K829" s="2" t="n">
-        <v>1098.0</v>
+        <v>1146.0</v>
       </c>
       <c r="L829" s="2" t="s">
         <v>3277</v>
@@ -49872,7 +49872,7 @@
         <v>3285</v>
       </c>
       <c r="D831" s="2" t="n">
-        <v>621.0</v>
+        <v>617.0</v>
       </c>
       <c r="E831" s="2" t="s">
         <v>3286</v>
@@ -49893,7 +49893,7 @@
         <v>3286</v>
       </c>
       <c r="K831" s="2" t="n">
-        <v>1105.0</v>
+        <v>1058.0</v>
       </c>
       <c r="L831" s="2" t="s">
         <v>3287</v>
@@ -50245,7 +50245,7 @@
         <v>3318</v>
       </c>
       <c r="K839" s="2" t="n">
-        <v>1045.0</v>
+        <v>1051.0</v>
       </c>
       <c r="L839" s="2" t="s">
         <v>3316</v>
@@ -50532,7 +50532,7 @@
         <v>3340</v>
       </c>
       <c r="D846" s="2" t="n">
-        <v>792.0</v>
+        <v>796.0</v>
       </c>
       <c r="E846" s="2" t="s">
         <v>3341</v>
@@ -50620,7 +50620,7 @@
         <v>3350</v>
       </c>
       <c r="D848" s="2" t="n">
-        <v>1010.0</v>
+        <v>785.0</v>
       </c>
       <c r="E848" s="2" t="s">
         <v>3351</v>
@@ -50641,7 +50641,7 @@
         <v>3352</v>
       </c>
       <c r="K848" s="2" t="n">
-        <v>892.0</v>
+        <v>860.0</v>
       </c>
       <c r="L848" s="2" t="s">
         <v>3353</v>
@@ -50729,7 +50729,7 @@
         <v>3359</v>
       </c>
       <c r="K850" s="2" t="n">
-        <v>908.0</v>
+        <v>896.0</v>
       </c>
       <c r="L850" s="2" t="s">
         <v>3357</v>
@@ -50905,7 +50905,7 @@
         <v>3370</v>
       </c>
       <c r="K854" s="2" t="n">
-        <v>663.0</v>
+        <v>721.0</v>
       </c>
       <c r="L854" s="2" t="s">
         <v>3371</v>
@@ -50993,7 +50993,7 @@
         <v>3378</v>
       </c>
       <c r="K856" s="2" t="n">
-        <v>869.0</v>
+        <v>834.0</v>
       </c>
       <c r="L856" s="2" t="s">
         <v>3377</v>
@@ -51104,7 +51104,7 @@
         <v>3382</v>
       </c>
       <c r="D859" s="2" t="n">
-        <v>577.0</v>
+        <v>578.0</v>
       </c>
       <c r="E859" s="2" t="s">
         <v>3383</v>
@@ -51119,13 +51119,13 @@
         <v>3384</v>
       </c>
       <c r="I859" s="2" t="n">
-        <v>1395.0</v>
+        <v>1454.0</v>
       </c>
       <c r="J859" s="2" t="s">
         <v>3385</v>
       </c>
       <c r="K859" s="2" t="n">
-        <v>1105.0</v>
+        <v>1080.0</v>
       </c>
       <c r="L859" s="2" t="s">
         <v>3384</v>
@@ -51169,7 +51169,7 @@
         <v>3388</v>
       </c>
       <c r="K860" s="2" t="n">
-        <v>1057.0</v>
+        <v>1059.0</v>
       </c>
       <c r="L860" s="2" t="s">
         <v>3389</v>
@@ -51389,7 +51389,7 @@
         <v>3402</v>
       </c>
       <c r="K865" s="2" t="n">
-        <v>1339.0</v>
+        <v>1341.0</v>
       </c>
       <c r="L865" s="2" t="s">
         <v>3401</v>
@@ -51433,7 +51433,7 @@
         <v>3405</v>
       </c>
       <c r="K866" s="2" t="n">
-        <v>1188.0</v>
+        <v>1194.0</v>
       </c>
       <c r="L866" s="2" t="s">
         <v>3406</v>
@@ -51521,7 +51521,7 @@
         <v>3414</v>
       </c>
       <c r="K868" s="2" t="n">
-        <v>1368.0</v>
+        <v>1351.0</v>
       </c>
       <c r="L868" s="2" t="s">
         <v>3413</v>
@@ -51544,7 +51544,7 @@
         <v>3416</v>
       </c>
       <c r="D869" s="2" t="n">
-        <v>395.0</v>
+        <v>397.0</v>
       </c>
       <c r="E869" s="2" t="s">
         <v>3417</v>
@@ -51565,7 +51565,7 @@
         <v>3419</v>
       </c>
       <c r="K869" s="2" t="n">
-        <v>1240.0</v>
+        <v>1197.0</v>
       </c>
       <c r="L869" s="2" t="s">
         <v>3418</v>
@@ -51609,7 +51609,7 @@
         <v>3423</v>
       </c>
       <c r="K870" s="2" t="n">
-        <v>1268.0</v>
+        <v>1307.0</v>
       </c>
       <c r="L870" s="2" t="s">
         <v>3421</v>
@@ -51829,7 +51829,7 @@
         <v>3445</v>
       </c>
       <c r="K875" s="2" t="n">
-        <v>1007.0</v>
+        <v>1017.0</v>
       </c>
       <c r="L875" s="2" t="s">
         <v>3446</v>
@@ -51852,7 +51852,7 @@
         <v>3448</v>
       </c>
       <c r="D876" s="2" t="n">
-        <v>593.0</v>
+        <v>594.0</v>
       </c>
       <c r="E876" s="2" t="s">
         <v>3449</v>
@@ -51873,7 +51873,7 @@
         <v>3450</v>
       </c>
       <c r="K876" s="2" t="n">
-        <v>1192.0</v>
+        <v>1174.0</v>
       </c>
       <c r="L876" s="2" t="s">
         <v>3451</v>
@@ -51940,7 +51940,7 @@
         <v>3454</v>
       </c>
       <c r="D878" s="2" t="n">
-        <v>354.0</v>
+        <v>0.0</v>
       </c>
       <c r="E878" s="2" t="s">
         <v>3455</v>
@@ -51961,7 +51961,7 @@
         <v>3455</v>
       </c>
       <c r="K878" s="2" t="n">
-        <v>994.0</v>
+        <v>1011.0</v>
       </c>
       <c r="L878" s="2" t="s">
         <v>3457</v>
@@ -51984,7 +51984,7 @@
         <v>3459</v>
       </c>
       <c r="D879" s="2" t="n">
-        <v>404.0</v>
+        <v>406.0</v>
       </c>
       <c r="E879" s="2" t="s">
         <v>3460</v>
@@ -52005,7 +52005,7 @@
         <v>3461</v>
       </c>
       <c r="K879" s="2" t="n">
-        <v>997.0</v>
+        <v>1010.0</v>
       </c>
       <c r="L879" s="2" t="s">
         <v>3460</v>
@@ -52028,7 +52028,7 @@
         <v>3463</v>
       </c>
       <c r="D880" s="2" t="n">
-        <v>874.0</v>
+        <v>877.0</v>
       </c>
       <c r="E880" s="2" t="s">
         <v>3464</v>
@@ -52049,7 +52049,7 @@
         <v>3465</v>
       </c>
       <c r="K880" s="2" t="n">
-        <v>1166.0</v>
+        <v>1159.0</v>
       </c>
       <c r="L880" s="2" t="s">
         <v>3464</v>
@@ -52072,7 +52072,7 @@
         <v>3467</v>
       </c>
       <c r="D881" s="2" t="n">
-        <v>764.0</v>
+        <v>728.0</v>
       </c>
       <c r="E881" s="2" t="s">
         <v>3468</v>
@@ -52137,7 +52137,7 @@
         <v>3475</v>
       </c>
       <c r="K882" s="2" t="n">
-        <v>1171.0</v>
+        <v>1126.0</v>
       </c>
       <c r="L882" s="2" t="s">
         <v>3473</v>
@@ -52380,7 +52380,7 @@
         <v>3491</v>
       </c>
       <c r="D888" s="2" t="n">
-        <v>636.0</v>
+        <v>639.0</v>
       </c>
       <c r="E888" s="2" t="s">
         <v>3492</v>
@@ -52395,13 +52395,13 @@
         <v>3492</v>
       </c>
       <c r="I888" s="2" t="n">
-        <v>1398.0</v>
+        <v>1400.0</v>
       </c>
       <c r="J888" s="2" t="s">
         <v>3492</v>
       </c>
       <c r="K888" s="2" t="n">
-        <v>1247.0</v>
+        <v>1250.0</v>
       </c>
       <c r="L888" s="2" t="s">
         <v>3492</v>
@@ -52424,7 +52424,7 @@
         <v>3494</v>
       </c>
       <c r="D889" s="2" t="n">
-        <v>1243.0</v>
+        <v>695.0</v>
       </c>
       <c r="E889" s="2" t="s">
         <v>3495</v>
@@ -52445,7 +52445,7 @@
         <v>3496</v>
       </c>
       <c r="K889" s="2" t="n">
-        <v>1563.0</v>
+        <v>1508.0</v>
       </c>
       <c r="L889" s="2" t="s">
         <v>3497</v>
@@ -52577,7 +52577,7 @@
         <v>3502</v>
       </c>
       <c r="K892" s="2" t="n">
-        <v>1212.0</v>
+        <v>1250.0</v>
       </c>
       <c r="L892" s="2" t="s">
         <v>3504</v>
@@ -52600,7 +52600,7 @@
         <v>3506</v>
       </c>
       <c r="D893" s="2" t="n">
-        <v>866.0</v>
+        <v>761.0</v>
       </c>
       <c r="E893" s="2" t="s">
         <v>3507</v>
@@ -52665,7 +52665,7 @@
         <v>3513</v>
       </c>
       <c r="K894" s="2" t="n">
-        <v>811.0</v>
+        <v>829.0</v>
       </c>
       <c r="L894" s="2" t="s">
         <v>3511</v>
@@ -52797,7 +52797,7 @@
         <v>3522</v>
       </c>
       <c r="K897" s="2" t="n">
-        <v>1100.0</v>
+        <v>1020.0</v>
       </c>
       <c r="L897" s="2" t="s">
         <v>3523</v>
@@ -52820,7 +52820,7 @@
         <v>3525</v>
       </c>
       <c r="D898" s="2" t="n">
-        <v>877.0</v>
+        <v>730.0</v>
       </c>
       <c r="E898" s="2" t="s">
         <v>3526</v>
@@ -52835,7 +52835,7 @@
         <v>3527</v>
       </c>
       <c r="I898" s="2" t="n">
-        <v>1379.0</v>
+        <v>1414.0</v>
       </c>
       <c r="J898" s="2" t="s">
         <v>3526</v>
@@ -52908,7 +52908,7 @@
         <v>3533</v>
       </c>
       <c r="D900" s="2" t="n">
-        <v>726.0</v>
+        <v>730.0</v>
       </c>
       <c r="E900" s="2" t="s">
         <v>3534</v>
@@ -52929,7 +52929,7 @@
         <v>3536</v>
       </c>
       <c r="K900" s="2" t="n">
-        <v>1438.0</v>
+        <v>1446.0</v>
       </c>
       <c r="L900" s="2" t="s">
         <v>3537</v>
@@ -52973,7 +52973,7 @@
         <v>3541</v>
       </c>
       <c r="K901" s="2" t="n">
-        <v>1041.0</v>
+        <v>1101.0</v>
       </c>
       <c r="L901" s="2" t="s">
         <v>3539</v>
@@ -53040,7 +53040,7 @@
         <v>3547</v>
       </c>
       <c r="D903" s="2" t="n">
-        <v>761.0</v>
+        <v>753.0</v>
       </c>
       <c r="E903" s="2" t="s">
         <v>3548</v>
@@ -53061,7 +53061,7 @@
         <v>3549</v>
       </c>
       <c r="K903" s="2" t="n">
-        <v>1093.0</v>
+        <v>1059.0</v>
       </c>
       <c r="L903" s="2" t="s">
         <v>3547</v>
@@ -53105,7 +53105,7 @@
         <v>3553</v>
       </c>
       <c r="K904" s="2" t="n">
-        <v>1270.0</v>
+        <v>1274.0</v>
       </c>
       <c r="L904" s="2" t="s">
         <v>3554</v>
@@ -53128,7 +53128,7 @@
         <v>3556</v>
       </c>
       <c r="D905" s="2" t="n">
-        <v>707.0</v>
+        <v>770.0</v>
       </c>
       <c r="E905" s="2" t="s">
         <v>3557</v>
@@ -53143,13 +53143,13 @@
         <v>3558</v>
       </c>
       <c r="I905" s="2" t="n">
-        <v>1367.0</v>
+        <v>1375.0</v>
       </c>
       <c r="J905" s="2" t="s">
         <v>3559</v>
       </c>
       <c r="K905" s="2" t="n">
-        <v>1352.0</v>
+        <v>1359.0</v>
       </c>
       <c r="L905" s="2" t="s">
         <v>3560</v>
@@ -53193,7 +53193,7 @@
         <v>3563</v>
       </c>
       <c r="K906" s="2" t="n">
-        <v>1133.0</v>
+        <v>1107.0</v>
       </c>
       <c r="L906" s="2" t="s">
         <v>3564</v>
@@ -53237,7 +53237,7 @@
         <v>3569</v>
       </c>
       <c r="K907" s="2" t="n">
-        <v>1285.0</v>
+        <v>1288.0</v>
       </c>
       <c r="L907" s="2" t="s">
         <v>3567</v>
@@ -53281,7 +53281,7 @@
         <v>3574</v>
       </c>
       <c r="K908" s="2" t="n">
-        <v>1192.0</v>
+        <v>1196.0</v>
       </c>
       <c r="L908" s="2" t="s">
         <v>3575</v>
@@ -53304,7 +53304,7 @@
         <v>3577</v>
       </c>
       <c r="D909" s="2" t="n">
-        <v>699.0</v>
+        <v>573.0</v>
       </c>
       <c r="E909" s="2" t="s">
         <v>3578</v>
@@ -53325,7 +53325,7 @@
         <v>3580</v>
       </c>
       <c r="K909" s="2" t="n">
-        <v>1122.0</v>
+        <v>1154.0</v>
       </c>
       <c r="L909" s="2" t="s">
         <v>3579</v>
@@ -53348,7 +53348,7 @@
         <v>3582</v>
       </c>
       <c r="D910" s="2" t="n">
-        <v>577.0</v>
+        <v>578.0</v>
       </c>
       <c r="E910" s="2" t="s">
         <v>3583</v>
@@ -53436,7 +53436,7 @@
         <v>3592</v>
       </c>
       <c r="D912" s="2" t="n">
-        <v>1082.0</v>
+        <v>1084.0</v>
       </c>
       <c r="E912" s="2" t="s">
         <v>3593</v>
@@ -53545,7 +53545,7 @@
         <v>3600</v>
       </c>
       <c r="K914" s="2" t="n">
-        <v>1047.0</v>
+        <v>1052.0</v>
       </c>
       <c r="L914" s="2" t="s">
         <v>3602</v>
@@ -53633,7 +53633,7 @@
         <v>3610</v>
       </c>
       <c r="K916" s="2" t="n">
-        <v>838.0</v>
+        <v>887.0</v>
       </c>
       <c r="L916" s="2" t="s">
         <v>3608</v>
@@ -53677,7 +53677,7 @@
         <v>3615</v>
       </c>
       <c r="K917" s="2" t="n">
-        <v>1182.0</v>
+        <v>1186.0</v>
       </c>
       <c r="L917" s="2" t="s">
         <v>3614</v>
@@ -53809,7 +53809,7 @@
         <v>3626</v>
       </c>
       <c r="K920" s="2" t="n">
-        <v>1052.0</v>
+        <v>1091.0</v>
       </c>
       <c r="L920" s="2" t="s">
         <v>3627</v>
@@ -53897,7 +53897,7 @@
         <v>3632</v>
       </c>
       <c r="K922" s="2" t="n">
-        <v>965.0</v>
+        <v>986.0</v>
       </c>
       <c r="L922" s="2" t="s">
         <v>3631</v>
@@ -53941,7 +53941,7 @@
         <v>3636</v>
       </c>
       <c r="K923" s="2" t="n">
-        <v>1044.0</v>
+        <v>1042.0</v>
       </c>
       <c r="L923" s="2" t="s">
         <v>3637</v>
@@ -54008,7 +54008,7 @@
         <v>3640</v>
       </c>
       <c r="D925" s="2" t="n">
-        <v>762.0</v>
+        <v>765.0</v>
       </c>
       <c r="E925" s="2" t="s">
         <v>3641</v>
@@ -54029,7 +54029,7 @@
         <v>3643</v>
       </c>
       <c r="K925" s="2" t="n">
-        <v>1031.0</v>
+        <v>1036.0</v>
       </c>
       <c r="L925" s="2" t="s">
         <v>3641</v>
@@ -54052,7 +54052,7 @@
         <v>3645</v>
       </c>
       <c r="D926" s="2" t="n">
-        <v>748.0</v>
+        <v>707.0</v>
       </c>
       <c r="E926" s="2" t="s">
         <v>3646</v>
@@ -54073,7 +54073,7 @@
         <v>3647</v>
       </c>
       <c r="K926" s="2" t="n">
-        <v>937.0</v>
+        <v>946.0</v>
       </c>
       <c r="L926" s="2" t="s">
         <v>3646</v>
@@ -54117,7 +54117,7 @@
         <v>3652</v>
       </c>
       <c r="K927" s="2" t="n">
-        <v>1008.0</v>
+        <v>1013.0</v>
       </c>
       <c r="L927" s="2" t="s">
         <v>3653</v>
@@ -54161,7 +54161,7 @@
         <v>3655</v>
       </c>
       <c r="K928" s="2" t="n">
-        <v>1153.0</v>
+        <v>1157.0</v>
       </c>
       <c r="L928" s="2" t="s">
         <v>3658</v>
@@ -54228,7 +54228,7 @@
         <v>3661</v>
       </c>
       <c r="D930" s="2" t="n">
-        <v>705.0</v>
+        <v>709.0</v>
       </c>
       <c r="E930" s="2" t="s">
         <v>3662</v>
@@ -54249,7 +54249,7 @@
         <v>3664</v>
       </c>
       <c r="K930" s="2" t="n">
-        <v>1272.0</v>
+        <v>1309.0</v>
       </c>
       <c r="L930" s="2" t="s">
         <v>3665</v>
@@ -54337,7 +54337,7 @@
         <v>3675</v>
       </c>
       <c r="K932" s="2" t="n">
-        <v>911.0</v>
+        <v>891.0</v>
       </c>
       <c r="L932" s="2" t="s">
         <v>3676</v>
@@ -54404,7 +54404,7 @@
         <v>3679</v>
       </c>
       <c r="D934" s="2" t="n">
-        <v>571.0</v>
+        <v>523.0</v>
       </c>
       <c r="E934" s="2" t="s">
         <v>3680</v>
@@ -54425,7 +54425,7 @@
         <v>3682</v>
       </c>
       <c r="K934" s="2" t="n">
-        <v>1200.0</v>
+        <v>1209.0</v>
       </c>
       <c r="L934" s="2" t="s">
         <v>3680</v>
@@ -54469,7 +54469,7 @@
         <v>3687</v>
       </c>
       <c r="K935" s="2" t="n">
-        <v>1324.0</v>
+        <v>1270.0</v>
       </c>
       <c r="L935" s="2" t="s">
         <v>3688</v>
@@ -54492,7 +54492,7 @@
         <v>3690</v>
       </c>
       <c r="D936" s="2" t="n">
-        <v>764.0</v>
+        <v>766.0</v>
       </c>
       <c r="E936" s="2" t="s">
         <v>3691</v>
@@ -54513,7 +54513,7 @@
         <v>3693</v>
       </c>
       <c r="K936" s="2" t="n">
-        <v>1029.0</v>
+        <v>1006.0</v>
       </c>
       <c r="L936" s="2" t="s">
         <v>3694</v>
@@ -54551,13 +54551,13 @@
         <v>3698</v>
       </c>
       <c r="I937" s="2" t="n">
-        <v>1382.0</v>
+        <v>1393.0</v>
       </c>
       <c r="J937" s="2" t="s">
         <v>3699</v>
       </c>
       <c r="K937" s="2" t="n">
-        <v>1384.0</v>
+        <v>1334.0</v>
       </c>
       <c r="L937" s="2" t="s">
         <v>3698</v>
@@ -54601,7 +54601,7 @@
         <v>3703</v>
       </c>
       <c r="K938" s="2" t="n">
-        <v>1188.0</v>
+        <v>1172.0</v>
       </c>
       <c r="L938" s="2" t="s">
         <v>3702</v>
@@ -54624,7 +54624,7 @@
         <v>3705</v>
       </c>
       <c r="D939" s="2" t="n">
-        <v>858.0</v>
+        <v>860.0</v>
       </c>
       <c r="E939" s="2" t="s">
         <v>3706</v>
@@ -54645,7 +54645,7 @@
         <v>3707</v>
       </c>
       <c r="K939" s="2" t="n">
-        <v>897.0</v>
+        <v>883.0</v>
       </c>
       <c r="L939" s="2" t="s">
         <v>3706</v>
@@ -54689,7 +54689,7 @@
         <v>3712</v>
       </c>
       <c r="K940" s="2" t="n">
-        <v>1036.0</v>
+        <v>1029.0</v>
       </c>
       <c r="L940" s="2" t="s">
         <v>3713</v>
@@ -54777,7 +54777,7 @@
         <v>3718</v>
       </c>
       <c r="K942" s="2" t="n">
-        <v>1096.0</v>
+        <v>1051.0</v>
       </c>
       <c r="L942" s="2" t="s">
         <v>3717</v>
@@ -54821,7 +54821,7 @@
         <v>3723</v>
       </c>
       <c r="K943" s="2" t="n">
-        <v>486.0</v>
+        <v>542.0</v>
       </c>
       <c r="L943" s="2" t="s">
         <v>3721</v>
@@ -54932,7 +54932,7 @@
         <v>3729</v>
       </c>
       <c r="D946" s="2" t="n">
-        <v>837.0</v>
+        <v>839.0</v>
       </c>
       <c r="E946" s="2" t="s">
         <v>3730</v>
@@ -54947,13 +54947,13 @@
         <v>3731</v>
       </c>
       <c r="I946" s="2" t="n">
-        <v>1364.0</v>
+        <v>1361.0</v>
       </c>
       <c r="J946" s="2" t="s">
         <v>3731</v>
       </c>
       <c r="K946" s="2" t="n">
-        <v>1252.0</v>
+        <v>1275.0</v>
       </c>
       <c r="L946" s="2" t="s">
         <v>3732</v>
@@ -54976,7 +54976,7 @@
         <v>3734</v>
       </c>
       <c r="D947" s="2" t="n">
-        <v>907.0</v>
+        <v>908.0</v>
       </c>
       <c r="E947" s="2" t="s">
         <v>3735</v>
@@ -54997,7 +54997,7 @@
         <v>3736</v>
       </c>
       <c r="K947" s="2" t="n">
-        <v>1256.0</v>
+        <v>1265.0</v>
       </c>
       <c r="L947" s="2" t="s">
         <v>3735</v>
@@ -55079,13 +55079,13 @@
         <v>3741</v>
       </c>
       <c r="I949" s="2" t="n">
-        <v>1597.0</v>
+        <v>1607.0</v>
       </c>
       <c r="J949" s="2" t="s">
         <v>3742</v>
       </c>
       <c r="K949" s="2" t="n">
-        <v>538.0</v>
+        <v>659.0</v>
       </c>
       <c r="L949" s="2" t="s">
         <v>3743</v>
@@ -55108,7 +55108,7 @@
         <v>3745</v>
       </c>
       <c r="D950" s="2" t="n">
-        <v>647.0</v>
+        <v>651.0</v>
       </c>
       <c r="E950" s="2" t="s">
         <v>3746</v>
@@ -55217,7 +55217,7 @@
         <v>3753</v>
       </c>
       <c r="K952" s="2" t="n">
-        <v>1413.0</v>
+        <v>1400.0</v>
       </c>
       <c r="L952" s="2" t="s">
         <v>3751</v>
@@ -55525,7 +55525,7 @@
         <v>3764</v>
       </c>
       <c r="K959" s="2" t="n">
-        <v>606.0</v>
+        <v>640.0</v>
       </c>
       <c r="L959" s="2" t="s">
         <v>3765</v>
@@ -55569,7 +55569,7 @@
         <v>3769</v>
       </c>
       <c r="K960" s="2" t="n">
-        <v>1103.0</v>
+        <v>1107.0</v>
       </c>
       <c r="L960" s="2" t="s">
         <v>3768</v>
@@ -55613,7 +55613,7 @@
         <v>3773</v>
       </c>
       <c r="K961" s="2" t="n">
-        <v>1261.0</v>
+        <v>1265.0</v>
       </c>
       <c r="L961" s="2" t="s">
         <v>3774</v>
@@ -55636,7 +55636,7 @@
         <v>3776</v>
       </c>
       <c r="D962" s="2" t="n">
-        <v>358.0</v>
+        <v>359.0</v>
       </c>
       <c r="E962" s="2" t="s">
         <v>3777</v>
@@ -55657,7 +55657,7 @@
         <v>3778</v>
       </c>
       <c r="K962" s="2" t="n">
-        <v>1079.0</v>
+        <v>1086.0</v>
       </c>
       <c r="L962" s="2" t="s">
         <v>3777</v>
@@ -55701,7 +55701,7 @@
         <v>3783</v>
       </c>
       <c r="K963" s="2" t="n">
-        <v>1201.0</v>
+        <v>1204.0</v>
       </c>
       <c r="L963" s="2" t="s">
         <v>3782</v>
@@ -55812,7 +55812,7 @@
         <v>3787</v>
       </c>
       <c r="D966" s="2" t="n">
-        <v>892.0</v>
+        <v>612.0</v>
       </c>
       <c r="E966" s="2" t="s">
         <v>3788</v>
@@ -55959,7 +55959,7 @@
         <v>3798</v>
       </c>
       <c r="I969" s="2" t="n">
-        <v>1630.0</v>
+        <v>1679.0</v>
       </c>
       <c r="J969" s="2" t="s">
         <v>3799</v>
@@ -55988,7 +55988,7 @@
         <v>3801</v>
       </c>
       <c r="D970" s="2" t="n">
-        <v>861.0</v>
+        <v>700.0</v>
       </c>
       <c r="E970" s="2" t="s">
         <v>3802</v>
@@ -56141,7 +56141,7 @@
         <v>3809</v>
       </c>
       <c r="K973" s="2" t="n">
-        <v>1281.0</v>
+        <v>1310.0</v>
       </c>
       <c r="L973" s="2" t="s">
         <v>3808</v>
@@ -56229,7 +56229,7 @@
         <v>3813</v>
       </c>
       <c r="K975" s="2" t="n">
-        <v>1165.0</v>
+        <v>1149.0</v>
       </c>
       <c r="L975" s="2" t="s">
         <v>3812</v>
@@ -56384,7 +56384,7 @@
         <v>3822</v>
       </c>
       <c r="D979" s="2" t="n">
-        <v>1206.0</v>
+        <v>370.0</v>
       </c>
       <c r="E979" s="2" t="s">
         <v>3823</v>
@@ -56399,13 +56399,13 @@
         <v>3823</v>
       </c>
       <c r="I979" s="2" t="n">
-        <v>1565.0</v>
+        <v>1574.0</v>
       </c>
       <c r="J979" s="2" t="s">
         <v>3824</v>
       </c>
       <c r="K979" s="2" t="n">
-        <v>1390.0</v>
+        <v>1311.0</v>
       </c>
       <c r="L979" s="2" t="s">
         <v>3823</v>
@@ -56560,7 +56560,7 @@
         <v>3831</v>
       </c>
       <c r="D983" s="2" t="n">
-        <v>713.0</v>
+        <v>773.0</v>
       </c>
       <c r="E983" s="2" t="s">
         <v>3831</v>
@@ -56581,7 +56581,7 @@
         <v>3832</v>
       </c>
       <c r="K983" s="2" t="n">
-        <v>1120.0</v>
+        <v>1109.0</v>
       </c>
       <c r="L983" s="2" t="s">
         <v>3831</v>
@@ -56736,7 +56736,7 @@
         <v>3846</v>
       </c>
       <c r="D987" s="2" t="n">
-        <v>908.0</v>
+        <v>914.0</v>
       </c>
       <c r="E987" s="2" t="s">
         <v>3847</v>
@@ -56780,7 +56780,7 @@
         <v>3852</v>
       </c>
       <c r="D988" s="2" t="n">
-        <v>475.0</v>
+        <v>482.0</v>
       </c>
       <c r="E988" s="2" t="s">
         <v>3853</v>
@@ -56801,7 +56801,7 @@
         <v>3855</v>
       </c>
       <c r="K988" s="2" t="n">
-        <v>1001.0</v>
+        <v>984.0</v>
       </c>
       <c r="L988" s="2" t="s">
         <v>3853</v>
@@ -57000,7 +57000,7 @@
         <v>3869</v>
       </c>
       <c r="D993" s="2" t="n">
-        <v>736.0</v>
+        <v>738.0</v>
       </c>
       <c r="E993" s="2" t="s">
         <v>3870</v>
@@ -57065,7 +57065,7 @@
         <v>3873</v>
       </c>
       <c r="K994" s="2" t="n">
-        <v>1482.0</v>
+        <v>1460.0</v>
       </c>
       <c r="L994" s="2" t="s">
         <v>3872</v>
@@ -57088,7 +57088,7 @@
         <v>3875</v>
       </c>
       <c r="D995" s="2" t="n">
-        <v>1268.0</v>
+        <v>612.0</v>
       </c>
       <c r="E995" s="2" t="s">
         <v>3876</v>
@@ -57109,7 +57109,7 @@
         <v>3876</v>
       </c>
       <c r="K995" s="2" t="n">
-        <v>1383.0</v>
+        <v>1393.0</v>
       </c>
       <c r="L995" s="2" t="s">
         <v>3877</v>
@@ -57197,7 +57197,7 @@
         <v>3886</v>
       </c>
       <c r="K997" s="2" t="n">
-        <v>791.0</v>
+        <v>857.0</v>
       </c>
       <c r="L997" s="2" t="s">
         <v>3887</v>
@@ -57373,7 +57373,7 @@
         <v>3898</v>
       </c>
       <c r="K1001" s="2" t="n">
-        <v>915.0</v>
+        <v>969.0</v>
       </c>
       <c r="L1001" s="2" t="s">
         <v>3896</v>
@@ -57593,7 +57593,7 @@
         <v>3912</v>
       </c>
       <c r="K1006" s="2" t="n">
-        <v>769.0</v>
+        <v>824.0</v>
       </c>
       <c r="L1006" s="2" t="s">
         <v>3913</v>
@@ -57637,7 +57637,7 @@
         <v>3916</v>
       </c>
       <c r="K1007" s="2" t="n">
-        <v>1393.0</v>
+        <v>1404.0</v>
       </c>
       <c r="L1007" s="2" t="s">
         <v>3915</v>
@@ -57725,7 +57725,7 @@
         <v>3921</v>
       </c>
       <c r="K1009" s="2" t="n">
-        <v>1424.0</v>
+        <v>1431.0</v>
       </c>
       <c r="L1009" s="2" t="s">
         <v>3920</v>
@@ -57813,7 +57813,7 @@
         <v>3924</v>
       </c>
       <c r="K1011" s="2" t="n">
-        <v>1317.0</v>
+        <v>1324.0</v>
       </c>
       <c r="L1011" s="2" t="s">
         <v>3924</v>
@@ -58121,7 +58121,7 @@
         <v>3934</v>
       </c>
       <c r="K1018" s="2" t="n">
-        <v>1200.0</v>
+        <v>1201.0</v>
       </c>
       <c r="L1018" s="2" t="s">
         <v>3935</v>
@@ -58165,7 +58165,7 @@
         <v>3939</v>
       </c>
       <c r="K1019" s="2" t="n">
-        <v>1274.0</v>
+        <v>1214.0</v>
       </c>
       <c r="L1019" s="2" t="s">
         <v>3940</v>
@@ -58188,7 +58188,7 @@
         <v>3942</v>
       </c>
       <c r="D1020" s="2" t="n">
-        <v>828.0</v>
+        <v>348.0</v>
       </c>
       <c r="E1020" s="2" t="s">
         <v>3942</v>
@@ -58209,7 +58209,7 @@
         <v>3943</v>
       </c>
       <c r="K1020" s="2" t="n">
-        <v>1097.0</v>
+        <v>1165.0</v>
       </c>
       <c r="L1020" s="2" t="s">
         <v>3944</v>
@@ -58297,7 +58297,7 @@
         <v>3954</v>
       </c>
       <c r="K1022" s="2" t="n">
-        <v>1099.0</v>
+        <v>1063.0</v>
       </c>
       <c r="L1022" s="2" t="s">
         <v>3955</v>
@@ -58320,7 +58320,7 @@
         <v>3957</v>
       </c>
       <c r="D1023" s="2" t="n">
-        <v>727.0</v>
+        <v>691.0</v>
       </c>
       <c r="E1023" s="2" t="s">
         <v>3958</v>
@@ -58335,13 +58335,13 @@
         <v>3959</v>
       </c>
       <c r="I1023" s="2" t="n">
-        <v>0.0</v>
+        <v>1411.0</v>
       </c>
       <c r="J1023" s="2" t="s">
         <v>3960</v>
       </c>
       <c r="K1023" s="2" t="n">
-        <v>1183.0</v>
+        <v>1148.0</v>
       </c>
       <c r="L1023" s="2" t="s">
         <v>3959</v>
@@ -58473,7 +58473,7 @@
         <v>3966</v>
       </c>
       <c r="K1026" s="2" t="n">
-        <v>758.0</v>
+        <v>797.0</v>
       </c>
       <c r="L1026" s="2" t="s">
         <v>3965</v>
@@ -58584,7 +58584,7 @@
         <v>3974</v>
       </c>
       <c r="D1029" s="2" t="n">
-        <v>382.0</v>
+        <v>0.0</v>
       </c>
       <c r="E1029" s="2" t="s">
         <v>3975</v>
@@ -58605,7 +58605,7 @@
         <v>3976</v>
       </c>
       <c r="K1029" s="2" t="n">
-        <v>940.0</v>
+        <v>949.0</v>
       </c>
       <c r="L1029" s="2" t="s">
         <v>3974</v>
@@ -58628,7 +58628,7 @@
         <v>3978</v>
       </c>
       <c r="D1030" s="2" t="n">
-        <v>993.0</v>
+        <v>995.0</v>
       </c>
       <c r="E1030" s="2" t="s">
         <v>3979</v>
@@ -58672,7 +58672,7 @@
         <v>3982</v>
       </c>
       <c r="D1031" s="2" t="n">
-        <v>427.0</v>
+        <v>348.0</v>
       </c>
       <c r="E1031" s="2" t="s">
         <v>3982</v>
@@ -58716,7 +58716,7 @@
         <v>3984</v>
       </c>
       <c r="D1032" s="2" t="n">
-        <v>869.0</v>
+        <v>782.0</v>
       </c>
       <c r="E1032" s="2" t="s">
         <v>3985</v>
@@ -58737,7 +58737,7 @@
         <v>3987</v>
       </c>
       <c r="K1032" s="2" t="n">
-        <v>1322.0</v>
+        <v>1243.0</v>
       </c>
       <c r="L1032" s="2" t="s">
         <v>3986</v>
@@ -58825,7 +58825,7 @@
         <v>3994</v>
       </c>
       <c r="K1034" s="2" t="n">
-        <v>1351.0</v>
+        <v>1369.0</v>
       </c>
       <c r="L1034" s="2" t="s">
         <v>3993</v>
@@ -58869,7 +58869,7 @@
         <v>3996</v>
       </c>
       <c r="K1035" s="2" t="n">
-        <v>1029.0</v>
+        <v>1036.0</v>
       </c>
       <c r="L1035" s="2" t="s">
         <v>3997</v>
@@ -58936,7 +58936,7 @@
         <v>4000</v>
       </c>
       <c r="D1037" s="2" t="n">
-        <v>968.0</v>
+        <v>978.0</v>
       </c>
       <c r="E1037" s="2" t="s">
         <v>4001</v>
@@ -58951,7 +58951,7 @@
         <v>4002</v>
       </c>
       <c r="I1037" s="2" t="n">
-        <v>1433.0</v>
+        <v>1421.0</v>
       </c>
       <c r="J1037" s="2" t="s">
         <v>4003</v>
@@ -59156,7 +59156,7 @@
         <v>4022</v>
       </c>
       <c r="D1042" s="2" t="n">
-        <v>917.0</v>
+        <v>896.0</v>
       </c>
       <c r="E1042" s="2" t="s">
         <v>4023</v>
@@ -59177,7 +59177,7 @@
         <v>4025</v>
       </c>
       <c r="K1042" s="2" t="n">
-        <v>1427.0</v>
+        <v>1450.0</v>
       </c>
       <c r="L1042" s="2" t="s">
         <v>4026</v>
@@ -59221,7 +59221,7 @@
         <v>4031</v>
       </c>
       <c r="K1043" s="2" t="n">
-        <v>1137.0</v>
+        <v>1109.0</v>
       </c>
       <c r="L1043" s="2" t="s">
         <v>4032</v>
@@ -59244,7 +59244,7 @@
         <v>4034</v>
       </c>
       <c r="D1044" s="2" t="n">
-        <v>675.0</v>
+        <v>673.0</v>
       </c>
       <c r="E1044" s="2" t="s">
         <v>4035</v>
@@ -59265,7 +59265,7 @@
         <v>4037</v>
       </c>
       <c r="K1044" s="2" t="n">
-        <v>884.0</v>
+        <v>913.0</v>
       </c>
       <c r="L1044" s="2" t="s">
         <v>4038</v>
@@ -59309,7 +59309,7 @@
         <v>4042</v>
       </c>
       <c r="K1045" s="2" t="n">
-        <v>974.0</v>
+        <v>977.0</v>
       </c>
       <c r="L1045" s="2" t="s">
         <v>4043</v>
@@ -59485,7 +59485,7 @@
         <v>4050</v>
       </c>
       <c r="K1049" s="2" t="n">
-        <v>1412.0</v>
+        <v>1430.0</v>
       </c>
       <c r="L1049" s="2" t="s">
         <v>4051</v>
@@ -59508,7 +59508,7 @@
         <v>4053</v>
       </c>
       <c r="D1050" s="2" t="n">
-        <v>886.0</v>
+        <v>771.0</v>
       </c>
       <c r="E1050" s="2" t="s">
         <v>4054</v>
@@ -59684,7 +59684,7 @@
         <v>4065</v>
       </c>
       <c r="D1054" s="2" t="n">
-        <v>760.0</v>
+        <v>763.0</v>
       </c>
       <c r="E1054" s="2" t="s">
         <v>4066</v>
@@ -59705,7 +59705,7 @@
         <v>4068</v>
       </c>
       <c r="K1054" s="2" t="n">
-        <v>781.0</v>
+        <v>813.0</v>
       </c>
       <c r="L1054" s="2" t="s">
         <v>4069</v>
@@ -59749,7 +59749,7 @@
         <v>4071</v>
       </c>
       <c r="K1055" s="2" t="n">
-        <v>1525.0</v>
+        <v>1501.0</v>
       </c>
       <c r="L1055" s="2" t="s">
         <v>4072</v>
@@ -59772,7 +59772,7 @@
         <v>4074</v>
       </c>
       <c r="D1056" s="2" t="n">
-        <v>905.0</v>
+        <v>781.0</v>
       </c>
       <c r="E1056" s="2" t="s">
         <v>4075</v>
@@ -59816,7 +59816,7 @@
         <v>4079</v>
       </c>
       <c r="D1057" s="2" t="n">
-        <v>920.0</v>
+        <v>781.0</v>
       </c>
       <c r="E1057" s="2" t="s">
         <v>4079</v>
@@ -59860,7 +59860,7 @@
         <v>4083</v>
       </c>
       <c r="D1058" s="2" t="n">
-        <v>362.0</v>
+        <v>364.0</v>
       </c>
       <c r="E1058" s="2" t="s">
         <v>4084</v>
@@ -59881,7 +59881,7 @@
         <v>4085</v>
       </c>
       <c r="K1058" s="2" t="n">
-        <v>1118.0</v>
+        <v>1333.0</v>
       </c>
       <c r="L1058" s="2" t="s">
         <v>4084</v>
@@ -59925,7 +59925,7 @@
         <v>4089</v>
       </c>
       <c r="K1059" s="2" t="n">
-        <v>1191.0</v>
+        <v>1195.0</v>
       </c>
       <c r="L1059" s="2" t="s">
         <v>4087</v>
@@ -59969,7 +59969,7 @@
         <v>4093</v>
       </c>
       <c r="K1060" s="2" t="n">
-        <v>1283.0</v>
+        <v>1277.0</v>
       </c>
       <c r="L1060" s="2" t="s">
         <v>4094</v>
@@ -60013,7 +60013,7 @@
         <v>4098</v>
       </c>
       <c r="K1061" s="2" t="n">
-        <v>1224.0</v>
+        <v>1226.0</v>
       </c>
       <c r="L1061" s="2" t="s">
         <v>4097</v>
@@ -60101,7 +60101,7 @@
         <v>4104</v>
       </c>
       <c r="K1063" s="2" t="n">
-        <v>1008.0</v>
+        <v>1049.0</v>
       </c>
       <c r="L1063" s="2" t="s">
         <v>4105</v>
@@ -60256,7 +60256,7 @@
         <v>4116</v>
       </c>
       <c r="D1067" s="2" t="n">
-        <v>1020.0</v>
+        <v>758.0</v>
       </c>
       <c r="E1067" s="2" t="s">
         <v>4117</v>
@@ -60277,7 +60277,7 @@
         <v>4119</v>
       </c>
       <c r="K1067" s="2" t="n">
-        <v>1516.0</v>
+        <v>1539.0</v>
       </c>
       <c r="L1067" s="2" t="s">
         <v>4120</v>
@@ -60344,7 +60344,7 @@
         <v>4125</v>
       </c>
       <c r="D1069" s="2" t="n">
-        <v>886.0</v>
+        <v>755.0</v>
       </c>
       <c r="E1069" s="2" t="s">
         <v>4125</v>
@@ -60365,7 +60365,7 @@
         <v>4127</v>
       </c>
       <c r="K1069" s="2" t="n">
-        <v>1265.0</v>
+        <v>1331.0</v>
       </c>
       <c r="L1069" s="2" t="s">
         <v>4125</v>
@@ -60453,7 +60453,7 @@
         <v>4137</v>
       </c>
       <c r="K1071" s="2" t="n">
-        <v>1310.0</v>
+        <v>1343.0</v>
       </c>
       <c r="L1071" s="2" t="s">
         <v>4138</v>
@@ -60476,7 +60476,7 @@
         <v>4140</v>
       </c>
       <c r="D1072" s="2" t="n">
-        <v>689.0</v>
+        <v>738.0</v>
       </c>
       <c r="E1072" s="2" t="s">
         <v>4141</v>
@@ -60497,7 +60497,7 @@
         <v>4143</v>
       </c>
       <c r="K1072" s="2" t="n">
-        <v>1086.0</v>
+        <v>1153.0</v>
       </c>
       <c r="L1072" s="2" t="s">
         <v>4142</v>
@@ -60541,7 +60541,7 @@
         <v>4146</v>
       </c>
       <c r="K1073" s="2" t="n">
-        <v>1362.0</v>
+        <v>1408.0</v>
       </c>
       <c r="L1073" s="2" t="s">
         <v>4145</v>
@@ -60585,7 +60585,7 @@
         <v>4150</v>
       </c>
       <c r="K1074" s="2" t="n">
-        <v>1134.0</v>
+        <v>1139.0</v>
       </c>
       <c r="L1074" s="2" t="s">
         <v>4148</v>
@@ -60608,7 +60608,7 @@
         <v>4152</v>
       </c>
       <c r="D1075" s="2" t="n">
-        <v>804.0</v>
+        <v>805.0</v>
       </c>
       <c r="E1075" s="2" t="s">
         <v>4153</v>
@@ -60629,7 +60629,7 @@
         <v>4155</v>
       </c>
       <c r="K1075" s="2" t="n">
-        <v>1110.0</v>
+        <v>1115.0</v>
       </c>
       <c r="L1075" s="2" t="s">
         <v>4154</v>
@@ -60717,7 +60717,7 @@
         <v>4162</v>
       </c>
       <c r="K1077" s="2" t="n">
-        <v>1123.0</v>
+        <v>1302.0</v>
       </c>
       <c r="L1077" s="2" t="s">
         <v>4161</v>
@@ -60828,7 +60828,7 @@
         <v>4175</v>
       </c>
       <c r="D1080" s="2" t="n">
-        <v>1136.0</v>
+        <v>1147.0</v>
       </c>
       <c r="E1080" s="2" t="s">
         <v>4176</v>
@@ -60849,7 +60849,7 @@
         <v>4177</v>
       </c>
       <c r="K1080" s="2" t="n">
-        <v>1454.0</v>
+        <v>1478.0</v>
       </c>
       <c r="L1080" s="2" t="s">
         <v>4176</v>
@@ -60872,7 +60872,7 @@
         <v>4179</v>
       </c>
       <c r="D1081" s="2" t="n">
-        <v>362.0</v>
+        <v>0.0</v>
       </c>
       <c r="E1081" s="2" t="s">
         <v>4180</v>
@@ -60893,7 +60893,7 @@
         <v>4182</v>
       </c>
       <c r="K1081" s="2" t="n">
-        <v>1190.0</v>
+        <v>1232.0</v>
       </c>
       <c r="L1081" s="2" t="s">
         <v>4180</v>
@@ -61136,7 +61136,7 @@
         <v>4195</v>
       </c>
       <c r="D1087" s="2" t="n">
-        <v>813.0</v>
+        <v>851.0</v>
       </c>
       <c r="E1087" s="2" t="s">
         <v>4196</v>
@@ -61157,7 +61157,7 @@
         <v>4198</v>
       </c>
       <c r="K1087" s="2" t="n">
-        <v>1152.0</v>
+        <v>1123.0</v>
       </c>
       <c r="L1087" s="2" t="s">
         <v>4199</v>
@@ -61289,7 +61289,7 @@
         <v>4208</v>
       </c>
       <c r="K1090" s="2" t="n">
-        <v>1385.0</v>
+        <v>1389.0</v>
       </c>
       <c r="L1090" s="2" t="s">
         <v>4209</v>
@@ -61356,7 +61356,7 @@
         <v>4216</v>
       </c>
       <c r="D1092" s="2" t="n">
-        <v>880.0</v>
+        <v>826.0</v>
       </c>
       <c r="E1092" s="2" t="s">
         <v>4217</v>
@@ -61371,13 +61371,13 @@
         <v>4217</v>
       </c>
       <c r="I1092" s="2" t="n">
-        <v>1450.0</v>
+        <v>1453.0</v>
       </c>
       <c r="J1092" s="2" t="s">
         <v>4218</v>
       </c>
       <c r="K1092" s="2" t="n">
-        <v>1256.0</v>
+        <v>1280.0</v>
       </c>
       <c r="L1092" s="2" t="s">
         <v>4217</v>
@@ -61509,7 +61509,7 @@
         <v>4230</v>
       </c>
       <c r="K1095" s="2" t="n">
-        <v>1277.0</v>
+        <v>1287.0</v>
       </c>
       <c r="L1095" s="2" t="s">
         <v>4231</v>
@@ -61532,7 +61532,7 @@
         <v>4233</v>
       </c>
       <c r="D1096" s="2" t="n">
-        <v>632.0</v>
+        <v>637.0</v>
       </c>
       <c r="E1096" s="2" t="s">
         <v>4234</v>
@@ -61553,7 +61553,7 @@
         <v>4234</v>
       </c>
       <c r="K1096" s="2" t="n">
-        <v>1222.0</v>
+        <v>1226.0</v>
       </c>
       <c r="L1096" s="2" t="s">
         <v>4236</v>
@@ -61576,7 +61576,7 @@
         <v>4238</v>
       </c>
       <c r="D1097" s="2" t="n">
-        <v>1082.0</v>
+        <v>1031.0</v>
       </c>
       <c r="E1097" s="2" t="s">
         <v>4239</v>
@@ -61591,7 +61591,7 @@
         <v>4240</v>
       </c>
       <c r="I1097" s="2" t="n">
-        <v>1587.0</v>
+        <v>1613.0</v>
       </c>
       <c r="J1097" s="2" t="s">
         <v>4241</v>
@@ -61620,7 +61620,7 @@
         <v>4244</v>
       </c>
       <c r="D1098" s="2" t="n">
-        <v>880.0</v>
+        <v>822.0</v>
       </c>
       <c r="E1098" s="2" t="s">
         <v>4245</v>
@@ -61635,7 +61635,7 @@
         <v>4246</v>
       </c>
       <c r="I1098" s="2" t="n">
-        <v>1468.0</v>
+        <v>1460.0</v>
       </c>
       <c r="J1098" s="2" t="s">
         <v>4245</v>
@@ -61685,7 +61685,7 @@
         <v>4252</v>
       </c>
       <c r="K1099" s="2" t="n">
-        <v>1307.0</v>
+        <v>1302.0</v>
       </c>
       <c r="L1099" s="2" t="s">
         <v>4253</v>
@@ -61729,7 +61729,7 @@
         <v>4258</v>
       </c>
       <c r="K1100" s="2" t="n">
-        <v>1282.0</v>
+        <v>1281.0</v>
       </c>
       <c r="L1100" s="2" t="s">
         <v>4257</v>
@@ -61752,7 +61752,7 @@
         <v>4260</v>
       </c>
       <c r="D1101" s="2" t="n">
-        <v>851.0</v>
+        <v>854.0</v>
       </c>
       <c r="E1101" s="2" t="s">
         <v>4261</v>
@@ -61773,7 +61773,7 @@
         <v>4262</v>
       </c>
       <c r="K1101" s="2" t="n">
-        <v>1467.0</v>
+        <v>1474.0</v>
       </c>
       <c r="L1101" s="2" t="s">
         <v>4261</v>
@@ -61796,7 +61796,7 @@
         <v>4264</v>
       </c>
       <c r="D1102" s="2" t="n">
-        <v>580.0</v>
+        <v>581.0</v>
       </c>
       <c r="E1102" s="2" t="s">
         <v>4265</v>
@@ -61811,13 +61811,13 @@
         <v>4266</v>
       </c>
       <c r="I1102" s="2" t="n">
-        <v>1407.0</v>
+        <v>1405.0</v>
       </c>
       <c r="J1102" s="2" t="s">
         <v>4266</v>
       </c>
       <c r="K1102" s="2" t="n">
-        <v>1346.0</v>
+        <v>1351.0</v>
       </c>
       <c r="L1102" s="2" t="s">
         <v>4265</v>
@@ -61840,7 +61840,7 @@
         <v>4268</v>
       </c>
       <c r="D1103" s="2" t="n">
-        <v>795.0</v>
+        <v>696.0</v>
       </c>
       <c r="E1103" s="2" t="s">
         <v>4269</v>
@@ -61861,7 +61861,7 @@
         <v>4270</v>
       </c>
       <c r="K1103" s="2" t="n">
-        <v>1053.0</v>
+        <v>1057.0</v>
       </c>
       <c r="L1103" s="2" t="s">
         <v>4271</v>
@@ -61884,7 +61884,7 @@
         <v>4273</v>
       </c>
       <c r="D1104" s="2" t="n">
-        <v>882.0</v>
+        <v>874.0</v>
       </c>
       <c r="E1104" s="2" t="s">
         <v>4274</v>
@@ -61949,7 +61949,7 @@
         <v>4282</v>
       </c>
       <c r="K1105" s="2" t="n">
-        <v>1012.0</v>
+        <v>1018.0</v>
       </c>
       <c r="L1105" s="2" t="s">
         <v>4283</v>
@@ -61972,7 +61972,7 @@
         <v>4285</v>
       </c>
       <c r="D1106" s="2" t="n">
-        <v>617.0</v>
+        <v>593.0</v>
       </c>
       <c r="E1106" s="2" t="s">
         <v>4286</v>
@@ -61993,7 +61993,7 @@
         <v>4287</v>
       </c>
       <c r="K1106" s="2" t="n">
-        <v>1164.0</v>
+        <v>1150.0</v>
       </c>
       <c r="L1106" s="2" t="s">
         <v>4288</v>
@@ -62016,7 +62016,7 @@
         <v>4290</v>
       </c>
       <c r="D1107" s="2" t="n">
-        <v>729.0</v>
+        <v>732.0</v>
       </c>
       <c r="E1107" s="2" t="s">
         <v>4291</v>
@@ -62031,13 +62031,13 @@
         <v>4292</v>
       </c>
       <c r="I1107" s="2" t="n">
-        <v>1333.0</v>
+        <v>1337.0</v>
       </c>
       <c r="J1107" s="2" t="s">
         <v>4293</v>
       </c>
       <c r="K1107" s="2" t="n">
-        <v>1453.0</v>
+        <v>1460.0</v>
       </c>
       <c r="L1107" s="2" t="s">
         <v>4292</v>
@@ -62081,7 +62081,7 @@
         <v>4298</v>
       </c>
       <c r="K1108" s="2" t="n">
-        <v>1043.0</v>
+        <v>1050.0</v>
       </c>
       <c r="L1108" s="2" t="s">
         <v>4299</v>
@@ -62104,7 +62104,7 @@
         <v>4301</v>
       </c>
       <c r="D1109" s="2" t="n">
-        <v>687.0</v>
+        <v>740.0</v>
       </c>
       <c r="E1109" s="2" t="s">
         <v>4302</v>
@@ -62125,7 +62125,7 @@
         <v>4303</v>
       </c>
       <c r="K1109" s="2" t="n">
-        <v>1496.0</v>
+        <v>1465.0</v>
       </c>
       <c r="L1109" s="2" t="s">
         <v>4302</v>
@@ -62213,7 +62213,7 @@
         <v>4311</v>
       </c>
       <c r="K1111" s="2" t="n">
-        <v>1231.0</v>
+        <v>1245.0</v>
       </c>
       <c r="L1111" s="2" t="s">
         <v>4310</v>
@@ -62236,7 +62236,7 @@
         <v>4313</v>
       </c>
       <c r="D1112" s="2" t="n">
-        <v>1082.0</v>
+        <v>808.0</v>
       </c>
       <c r="E1112" s="2" t="s">
         <v>4313</v>
@@ -62257,7 +62257,7 @@
         <v>4313</v>
       </c>
       <c r="K1112" s="2" t="n">
-        <v>1077.0</v>
+        <v>1140.0</v>
       </c>
       <c r="L1112" s="2" t="s">
         <v>4314</v>
@@ -62301,7 +62301,7 @@
         <v>4316</v>
       </c>
       <c r="K1113" s="2" t="n">
-        <v>812.0</v>
+        <v>832.0</v>
       </c>
       <c r="L1113" s="2" t="s">
         <v>4317</v>
@@ -62324,7 +62324,7 @@
         <v>4319</v>
       </c>
       <c r="D1114" s="2" t="n">
-        <v>364.0</v>
+        <v>365.0</v>
       </c>
       <c r="E1114" s="2" t="s">
         <v>4320</v>
@@ -62345,7 +62345,7 @@
         <v>4322</v>
       </c>
       <c r="K1114" s="2" t="n">
-        <v>1170.0</v>
+        <v>1199.0</v>
       </c>
       <c r="L1114" s="2" t="s">
         <v>4321</v>
@@ -62368,7 +62368,7 @@
         <v>4324</v>
       </c>
       <c r="D1115" s="2" t="n">
-        <v>601.0</v>
+        <v>604.0</v>
       </c>
       <c r="E1115" s="2" t="s">
         <v>4325</v>
@@ -62389,7 +62389,7 @@
         <v>4326</v>
       </c>
       <c r="K1115" s="2" t="n">
-        <v>1132.0</v>
+        <v>1100.0</v>
       </c>
       <c r="L1115" s="2" t="s">
         <v>4325</v>
@@ -62433,7 +62433,7 @@
         <v>4330</v>
       </c>
       <c r="K1116" s="2" t="n">
-        <v>1224.0</v>
+        <v>1188.0</v>
       </c>
       <c r="L1116" s="2" t="s">
         <v>4331</v>
@@ -62477,7 +62477,7 @@
         <v>4335</v>
       </c>
       <c r="K1117" s="2" t="n">
-        <v>1150.0</v>
+        <v>1160.0</v>
       </c>
       <c r="L1117" s="2" t="s">
         <v>4336</v>
@@ -62565,7 +62565,7 @@
         <v>4346</v>
       </c>
       <c r="K1119" s="2" t="n">
-        <v>1078.0</v>
+        <v>1083.0</v>
       </c>
       <c r="L1119" s="2" t="s">
         <v>4345</v>
@@ -62741,7 +62741,7 @@
         <v>4361</v>
       </c>
       <c r="K1123" s="2" t="n">
-        <v>983.0</v>
+        <v>969.0</v>
       </c>
       <c r="L1123" s="2" t="s">
         <v>4360</v>
@@ -62852,7 +62852,7 @@
         <v>4371</v>
       </c>
       <c r="D1126" s="2" t="n">
-        <v>640.0</v>
+        <v>635.0</v>
       </c>
       <c r="E1126" s="2" t="s">
         <v>4372</v>
@@ -62867,13 +62867,13 @@
         <v>4372</v>
       </c>
       <c r="I1126" s="2" t="n">
-        <v>1318.0</v>
+        <v>1320.0</v>
       </c>
       <c r="J1126" s="2" t="s">
         <v>4373</v>
       </c>
       <c r="K1126" s="2" t="n">
-        <v>1240.0</v>
+        <v>1270.0</v>
       </c>
       <c r="L1126" s="2" t="s">
         <v>4372</v>
@@ -62917,7 +62917,7 @@
         <v>4377</v>
       </c>
       <c r="K1127" s="2" t="n">
-        <v>1124.0</v>
+        <v>1172.0</v>
       </c>
       <c r="L1127" s="2" t="s">
         <v>4375</v>
@@ -62961,7 +62961,7 @@
         <v>4382</v>
       </c>
       <c r="K1128" s="2" t="n">
-        <v>1307.0</v>
+        <v>1324.0</v>
       </c>
       <c r="L1128" s="2" t="s">
         <v>4381</v>
@@ -63043,13 +63043,13 @@
         <v>4389</v>
       </c>
       <c r="I1130" s="2" t="n">
-        <v>1615.0</v>
+        <v>1583.0</v>
       </c>
       <c r="J1130" s="2" t="s">
         <v>4390</v>
       </c>
       <c r="K1130" s="2" t="n">
-        <v>1145.0</v>
+        <v>1149.0</v>
       </c>
       <c r="L1130" s="2" t="s">
         <v>4389</v>
@@ -63072,7 +63072,7 @@
         <v>4392</v>
       </c>
       <c r="D1131" s="2" t="n">
-        <v>803.0</v>
+        <v>808.0</v>
       </c>
       <c r="E1131" s="2" t="s">
         <v>4393</v>
@@ -63093,7 +63093,7 @@
         <v>4395</v>
       </c>
       <c r="K1131" s="2" t="n">
-        <v>1277.0</v>
+        <v>1271.0</v>
       </c>
       <c r="L1131" s="2" t="s">
         <v>4394</v>
@@ -63116,7 +63116,7 @@
         <v>4397</v>
       </c>
       <c r="D1132" s="2" t="n">
-        <v>817.0</v>
+        <v>567.0</v>
       </c>
       <c r="E1132" s="2" t="s">
         <v>4398</v>
@@ -63137,7 +63137,7 @@
         <v>4400</v>
       </c>
       <c r="K1132" s="2" t="n">
-        <v>1122.0</v>
+        <v>1156.0</v>
       </c>
       <c r="L1132" s="2" t="s">
         <v>4399</v>
